--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,20 +903,28 @@
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v/>
-      </c>
-      <c r="F6" t="n">
-        <v/>
-      </c>
-      <c r="G6" t="n">
-        <v/>
-      </c>
-      <c r="H6" t="n">
-        <v/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="I6" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="J6" t="n">
         <v/>
@@ -925,37 +933,41 @@
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v/>
+        <v>6000000</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N6" t="n">
         <v/>
       </c>
       <c r="O6" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
-      <c r="S6" t="n">
-        <v/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T6" t="n">
         <v/>
       </c>
       <c r="U6" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V6" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1045,51 +1057,223 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>620</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Trần Thị Thanh Nhàn</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>621</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Trần Thị Ngọc Dung</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="n">
-        <v>22100000</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>65100000</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
         <v>6000000</v>
       </c>
-      <c r="L8" t="n">
-        <v>28100000</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>25100000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>25100000</v>
-      </c>
-      <c r="R8" t="n">
+      <c r="L10" t="n">
+        <v>71100000</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="R10" t="n">
         <v>3000000</v>
       </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="n">
-        <v>300000</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="n">
+        <v>550000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1287,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1139,6 +1323,11 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Lượng thu</t>
         </is>
       </c>
@@ -1146,17 +1335,117 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-190</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>172</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-191</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>173</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-587</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-07-24</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>0</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>15000000</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,17 +1752,157 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>750</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>751</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>2230000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>752</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>180000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>753</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>754</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="n">
-        <v>9400000</v>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>14010000</v>
       </c>
     </row>
   </sheetData>
@@ -1600,10 +2029,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1634,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>50000</v>
+        <v>250000</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1656,7 +2085,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1680,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>154800000</v>
+        <v>159800000</v>
       </c>
     </row>
     <row r="6">
@@ -1748,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26000000</v>
+        <v>36000000</v>
       </c>
     </row>
     <row r="8">
@@ -1758,7 +2187,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8000000</v>
+        <v>14000000</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1798,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>19100000</v>
+        <v>25100000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1860,13 +2289,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>37000000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2064,22 +2493,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22100000</v>
+        <v>65100000</v>
       </c>
       <c r="C17" t="n">
         <v>6000000</v>
       </c>
       <c r="D17" t="n">
-        <v>25100000</v>
+        <v>68100000</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G17" t="n">
-        <v>250000</v>
+        <v>500000</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2088,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>445186000</v>
+        <v>460186000</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2139,7 +2568,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680000</v>
+        <v>3090000</v>
       </c>
     </row>
     <row r="4">
@@ -2149,7 +2578,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>830000</v>
+        <v>1330000</v>
       </c>
     </row>
     <row r="5">
@@ -2159,27 +2588,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2390000</v>
+        <v>3090000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9400000</v>
+      <c r="B8" t="n">
+        <v>14010000</v>
       </c>
     </row>
   </sheetData>
@@ -2193,7 +2632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2270,10 +2709,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20000000</v>
+        <v>26000000</v>
       </c>
       <c r="C3" t="n">
-        <v>17000000</v>
+        <v>23000000</v>
       </c>
       <c r="D3" t="n">
         <v>4</v>
@@ -2285,32 +2724,57 @@
         <v>3780000</v>
       </c>
       <c r="G3" t="n">
-        <v>13220000</v>
+        <v>19220000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4610000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>47390000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>28100000</v>
-      </c>
-      <c r="C4" t="n">
-        <v>25100000</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9400000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>15700000</v>
+      <c r="B5" t="n">
+        <v>71100000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>14010000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>69090000</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2424,7 +2888,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>335714.2857142857</v>
+        <v>482142.8571428572</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2433,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>335714.2857142857</v>
+        <v>482142.8571428572</v>
       </c>
     </row>
     <row r="5">
@@ -2535,228 +2999,228 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>NV-6</t>
+          <t>NV-5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>308095.2380952381</v>
+        <v>1289428.571428571</v>
       </c>
       <c r="D9" t="n">
-        <v>238095.2380952381</v>
+        <v>1385714.285714286</v>
       </c>
       <c r="E9" t="n">
-        <v>838095.2380952381</v>
+        <v>600000</v>
       </c>
       <c r="F9" t="n">
-        <v>1384285.714285714</v>
+        <v>3275142.857142857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>NV-7</t>
+          <t>NV-6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>573214.2857142857</v>
+        <v>2378095.238095238</v>
       </c>
       <c r="D10" t="n">
-        <v>160714.2857142857</v>
+        <v>238095.2380952381</v>
       </c>
       <c r="E10" t="n">
-        <v>160714.2857142857</v>
+        <v>838095.2380952381</v>
       </c>
       <c r="F10" t="n">
-        <v>894642.857142857</v>
+        <v>3454285.714285714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NV-9</t>
+          <t>NV-7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1141428.571428571</v>
+        <v>7771071.428571429</v>
       </c>
       <c r="D11" t="n">
-        <v>714285.7142857143</v>
+        <v>53571.42857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>1071428.571428571</v>
+        <v>53571.42857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>2927142.857142857</v>
+        <v>7878214.285714285</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>NV-23</t>
+          <t>NV-9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>2141428.571428571</v>
       </c>
       <c r="D12" t="n">
-        <v>427142.8571428572</v>
+        <v>714285.7142857143</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1071428.571428571</v>
       </c>
       <c r="F12" t="n">
-        <v>427142.8571428572</v>
+        <v>3927142.857142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NV-30</t>
+          <t>NV-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>455714.2857142857</v>
+        <v>1957142.857142857</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>455714.2857142857</v>
+        <v>1957142.857142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NV-36</t>
+          <t>NV-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>427142.8571428572</v>
+        <v>535714.2857142857</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>427142.8571428572</v>
+        <v>535714.2857142857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NV-40</t>
+          <t>NV-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>284285.7142857143</v>
+        <v>528571.4285714286</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>284285.7142857143</v>
+        <v>528571.4285714286</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NV-16</t>
+          <t>NV-36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>640714.2857142857</v>
       </c>
       <c r="E16" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>100000</v>
+        <v>640714.2857142857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NV-26</t>
+          <t>NV-40</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>355357.1428571428</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>355357.1428571428</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>NV-27</t>
+          <t>NV-10</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -2766,21 +3230,21 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1380000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1380000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>NV-38</t>
+          <t>NV-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Lê Thị Ngọc Mi</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2790,30 +3254,102 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>NV-26</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>NV-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cô Siêng giúp Việc</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>NV-38</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Lê Thị Ngọc Mi</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng lương</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
-        <v>4521309.523809523</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3064523.80952381</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2598809.523809523</v>
-      </c>
-      <c r="F20" t="n">
-        <v>10184642.85714286</v>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
+        <v>16225023.80952381</v>
+      </c>
+      <c r="D23" t="n">
+        <v>6766309.523809524</v>
+      </c>
+      <c r="E23" t="n">
+        <v>4521666.666666666</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27513000</v>
       </c>
     </row>
   </sheetData>
@@ -2827,7 +3363,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2838,69 +3374,223 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Doanh thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Tổng đơn giá</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ thanh toán</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ nợ</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Thu nợ</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tổng doanh thu</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Chi tiêu</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Quỹ lương</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Tổng chi phí</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Lợi nhuận</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Tỉ lệ lợi nhuận</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>25100000</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22550000</v>
       </c>
       <c r="C2" t="n">
-        <v>25100000</v>
+        <v>22550000</v>
       </c>
       <c r="D2" t="n">
-        <v>9400000</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>10184642.85714286</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19584642.85714286</v>
+        <v>7500000</v>
       </c>
       <c r="G2" t="n">
-        <v>5515357.142857142</v>
+        <v>30050000</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2197353443369379</v>
+        <v>5296500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16225023.80952381</v>
+      </c>
+      <c r="J2" t="n">
+        <v>21521523.80952381</v>
+      </c>
+      <c r="K2" t="n">
+        <v>8528476.19047619</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2838095238095238</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9166666666666666</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08333333333333337</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>928500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6766309.523809524</v>
+      </c>
+      <c r="J3" t="n">
+        <v>7694809.523809524</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2194809.523809524</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.3990562770562772</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.1428571428571429</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>780000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4521666.666666666</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5301666.666666666</v>
+      </c>
+      <c r="K4" t="n">
+        <v>698333.333333334</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.116388888888889</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HỆ THỐNG</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>71100000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>68100000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9578059071729957</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.04219409282700426</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>83100000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>14010000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>27513000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>41523000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>41577000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5003249097472924</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -2888,7 +2888,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>482142.8571428572</v>
+        <v>4482142.857142857</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2897,7 +2897,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>482142.8571428572</v>
+        <v>4482142.857142857</v>
       </c>
     </row>
     <row r="5">
@@ -3131,13 +3131,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>535714.2857142857</v>
+        <v>-3464285.714285715</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>535714.2857142857</v>
+        <v>-3464285.714285715</v>
       </c>
     </row>
     <row r="15">
@@ -3340,10 +3340,10 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>16225023.80952381</v>
+        <v>20225023.80952381</v>
       </c>
       <c r="D23" t="n">
-        <v>6766309.523809524</v>
+        <v>2766309.523809523</v>
       </c>
       <c r="E23" t="n">
         <v>4521666.666666666</v>
@@ -3461,16 +3461,16 @@
         <v>5296500</v>
       </c>
       <c r="I2" t="n">
-        <v>16225023.80952381</v>
+        <v>20225023.80952381</v>
       </c>
       <c r="J2" t="n">
-        <v>21521523.80952381</v>
+        <v>25521523.80952381</v>
       </c>
       <c r="K2" t="n">
-        <v>8528476.19047619</v>
+        <v>4528476.19047619</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2838095238095238</v>
+        <v>0.1506980429442992</v>
       </c>
     </row>
     <row r="3">
@@ -3501,16 +3501,16 @@
         <v>928500</v>
       </c>
       <c r="I3" t="n">
-        <v>6766309.523809524</v>
+        <v>2766309.523809523</v>
       </c>
       <c r="J3" t="n">
-        <v>7694809.523809524</v>
+        <v>3694809.523809523</v>
       </c>
       <c r="K3" t="n">
-        <v>-2194809.523809524</v>
+        <v>1805190.476190477</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.3990562770562772</v>
+        <v>0.3282164502164503</v>
       </c>
     </row>
     <row r="4">

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V10"/>
+  <dimension ref="A1:V25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1229,51 +1229,1303 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>622</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="I10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>623</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>625</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>626</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>nhấn đồng tiền</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ trinh</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>627</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tạ duy hoàng </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="U14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>628</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>nguyễn thị lệ trang</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>629</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Phạm Thị Trúc Lài</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>630</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v/>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4650000</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>631</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v/>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>632</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thắm</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v/>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>633</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="R20" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+      <c r="U20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>634</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v/>
+      </c>
+      <c r="F21" t="n">
+        <v/>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+      <c r="H21" t="n">
+        <v/>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v/>
+      </c>
+      <c r="N21" t="n">
+        <v/>
+      </c>
+      <c r="O21" t="n">
+        <v/>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v/>
+      </c>
+      <c r="T21" t="n">
+        <v/>
+      </c>
+      <c r="U21" t="n">
+        <v/>
+      </c>
+      <c r="V21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>635</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Nguyễn Bích Thuỳ</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+      <c r="U22" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>636</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cấy mỡ mặt </t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="J23" t="n">
+        <v/>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v/>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>36000000</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v/>
+      </c>
+      <c r="T23" t="n">
+        <v/>
+      </c>
+      <c r="U23" t="n">
+        <v/>
+      </c>
+      <c r="V23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>637</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="J24" t="n">
+        <v/>
+      </c>
+      <c r="K24" t="n">
+        <v/>
+      </c>
+      <c r="L24" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v/>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="R24" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="S24" t="n">
+        <v/>
+      </c>
+      <c r="T24" t="n">
+        <v/>
+      </c>
+      <c r="U24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>8</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="n">
-        <v>65100000</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>71100000</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>68100000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>68100000</v>
-      </c>
-      <c r="R10" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="n">
-        <v>550000</v>
-      </c>
-      <c r="V10" t="n">
-        <v>100000</v>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>191750000</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="L25" t="n">
+        <v>205250000</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>166250000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>168250000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="V25" t="n">
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -1287,7 +2539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,18 +2686,340 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>174</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-581</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>175</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-nan</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>176</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-428</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-05-25</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>177</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-611</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>178</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-356</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2024-04-29</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>179</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>180</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2024-06-30</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>181</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>182</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-nan</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>183</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-633</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>15000000</v>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>31000000</v>
       </c>
     </row>
   </sheetData>
@@ -1459,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1498,6 +3072,11 @@
           <t>Lượng chi</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Ghi chú</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1526,6 +3105,9 @@
       <c r="F2" t="n">
         <v>400000</v>
       </c>
+      <c r="G2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1552,6 +3134,9 @@
       <c r="F3" t="n">
         <v>5000000</v>
       </c>
+      <c r="G3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1580,6 +3165,9 @@
       <c r="F4" t="n">
         <v>220000</v>
       </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1608,6 +3196,9 @@
       <c r="F5" t="n">
         <v>610000</v>
       </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1636,6 +3227,9 @@
       <c r="F6" t="n">
         <v>500000</v>
       </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1664,6 +3258,9 @@
       <c r="F7" t="n">
         <v>247000</v>
       </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1692,6 +3289,9 @@
       <c r="F8" t="n">
         <v>100000</v>
       </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1720,6 +3320,9 @@
       <c r="F9" t="n">
         <v>180000</v>
       </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1748,6 +3351,9 @@
       <c r="F10" t="n">
         <v>2143000</v>
       </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1776,6 +3382,9 @@
       <c r="F11" t="n">
         <v>1000000</v>
       </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1804,6 +3413,9 @@
       <c r="F12" t="n">
         <v>2230000</v>
       </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1832,6 +3444,9 @@
       <c r="F13" t="n">
         <v>180000</v>
       </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1860,6 +3475,9 @@
       <c r="F14" t="n">
         <v>500000</v>
       </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1888,22 +3506,586 @@
       <c r="F15" t="n">
         <v>700000</v>
       </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>755</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>940000</v>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>756</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>757</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>758</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>759</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G20" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>760</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="G21" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>761</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G22" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>762</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="G23" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>763</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>110000</v>
+      </c>
+      <c r="G24" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>764</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G25" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>765</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G26" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>766</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>767</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>768</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>769</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>770</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4700000</v>
+      </c>
+      <c r="G31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>771</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G32" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>772</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>10400000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>triết khấu tiền phần trăm khách và khách tn</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="n">
-        <v>14010000</v>
-      </c>
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>73710000</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1916,7 +4098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1979,7 +4161,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1989,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4650000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2007,17 +4189,17 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>5650000</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -2029,10 +4211,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -2041,13 +4223,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2063,10 +4245,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>250000</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -2075,47 +4257,47 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9000000</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>159800000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2131,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -2143,23 +4325,23 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>16000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2177,20 +4359,20 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>36000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14000000</v>
+        <v>15000000</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2211,23 +4393,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>82500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>25100000</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2245,17 +4427,17 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12000000</v>
+        <v>24000000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -2279,23 +4461,23 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>36000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>28000000</v>
+        <v>9000000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>37000000</v>
+        <v>49600000</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -2313,17 +4495,17 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -2347,23 +4529,23 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>88000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>28000000</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>44000000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2381,17 +4563,17 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>76000000</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -2415,13 +4597,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2440,7 +4622,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2455,14 +4637,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -2471,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2483,41 +4665,109 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9886000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>65100000</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="D17" t="n">
-        <v>68100000</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" t="n">
-        <v>500000</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>460186000</v>
+      <c r="B19" t="n">
+        <v>189750000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>118250000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>13</v>
+      </c>
+      <c r="G19" t="n">
+        <v>850000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>31000000</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +4808,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>500000</v>
+        <v>15450000</v>
       </c>
     </row>
     <row r="3">
@@ -2568,7 +4818,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3090000</v>
+        <v>5040000</v>
       </c>
     </row>
     <row r="4">
@@ -2578,7 +4828,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1330000</v>
+        <v>32830000</v>
       </c>
     </row>
     <row r="5">
@@ -2598,7 +4848,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1000000</v>
+        <v>12300000</v>
       </c>
     </row>
     <row r="7">
@@ -2618,7 +4868,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14010000</v>
+        <v>73710000</v>
       </c>
     </row>
   </sheetData>
@@ -2632,7 +4882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2690,7 +4940,7 @@
         <v>8100000</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2755,26 +5005,176 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>940000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>24560000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>5650000</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5650000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7150000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6500000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8510000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-5010000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>24200000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-15200000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>76000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>50000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>16900000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>38600000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>71100000</v>
-      </c>
-      <c r="C5" t="n">
-        <v>68100000</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8</v>
-      </c>
-      <c r="E5" t="n">
-        <v>15000000</v>
-      </c>
-      <c r="F5" t="n">
-        <v>14010000</v>
-      </c>
-      <c r="G5" t="n">
-        <v>69090000</v>
+      <c r="B11" t="n">
+        <v>205250000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>166250000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>31000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>73710000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>123540000</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +5240,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>877142.8571428572</v>
+        <v>1908214.285714286</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2849,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>877142.8571428572</v>
+        <v>1908214.285714286</v>
       </c>
     </row>
     <row r="3">
@@ -2864,16 +5264,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
       <c r="D3" t="n">
-        <v>142857.1428571429</v>
+        <v>285714.2857142857</v>
       </c>
       <c r="E3" t="n">
-        <v>214285.7142857143</v>
+        <v>428571.4285714286</v>
       </c>
       <c r="F3" t="n">
-        <v>571428.5714285715</v>
+        <v>1142857.142857143</v>
       </c>
     </row>
     <row r="4">
@@ -2888,7 +5288,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4482142.857142857</v>
+        <v>1122500</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2897,7 +5297,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4482142.857142857</v>
+        <v>1122500</v>
       </c>
     </row>
     <row r="5">
@@ -2912,16 +5312,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142857.1428571429</v>
+        <v>571428.5714285715</v>
       </c>
       <c r="D5" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
       <c r="E5" t="n">
-        <v>214285.7142857143</v>
+        <v>857142.8571428573</v>
       </c>
       <c r="F5" t="n">
-        <v>571428.5714285715</v>
+        <v>2285714.285714286</v>
       </c>
     </row>
     <row r="6">
@@ -2936,7 +5336,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>428571.4285714286</v>
+        <v>1714285.714285714</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -2945,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>428571.4285714286</v>
+        <v>1714285.714285714</v>
       </c>
     </row>
     <row r="7">
@@ -2984,7 +5384,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>500000</v>
+        <v>-2000000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -2993,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>500000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="9">
@@ -3008,16 +5408,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1289428.571428571</v>
+        <v>5243714.285714285</v>
       </c>
       <c r="D9" t="n">
         <v>1385714.285714286</v>
       </c>
       <c r="E9" t="n">
-        <v>600000</v>
+        <v>2557142.857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>3275142.857142857</v>
+        <v>9186571.428571429</v>
       </c>
     </row>
     <row r="10">
@@ -3032,16 +5432,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2378095.238095238</v>
+        <v>3452380.952380952</v>
       </c>
       <c r="D10" t="n">
-        <v>238095.2380952381</v>
+        <v>952380.9523809524</v>
       </c>
       <c r="E10" t="n">
-        <v>838095.2380952381</v>
+        <v>2752380.952380952</v>
       </c>
       <c r="F10" t="n">
-        <v>3454285.714285714</v>
+        <v>7157142.857142857</v>
       </c>
     </row>
     <row r="11">
@@ -3056,16 +5456,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7771071.428571429</v>
+        <v>7968571.428571429</v>
       </c>
       <c r="D11" t="n">
-        <v>53571.42857142857</v>
+        <v>428571.4285714285</v>
       </c>
       <c r="E11" t="n">
-        <v>53571.42857142857</v>
+        <v>1628571.428571429</v>
       </c>
       <c r="F11" t="n">
-        <v>7878214.285714285</v>
+        <v>10025714.28571429</v>
       </c>
     </row>
     <row r="12">
@@ -3080,16 +5480,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2141428.571428571</v>
+        <v>5765714.285714285</v>
       </c>
       <c r="D12" t="n">
-        <v>714285.7142857143</v>
+        <v>2857142.857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>1071428.571428571</v>
+        <v>4285714.285714285</v>
       </c>
       <c r="F12" t="n">
-        <v>3927142.857142857</v>
+        <v>12908571.42857143</v>
       </c>
     </row>
     <row r="13">
@@ -3107,13 +5507,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1957142.857142857</v>
+        <v>-2471428.571428571</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1957142.857142857</v>
+        <v>-2471428.571428571</v>
       </c>
     </row>
     <row r="14">
@@ -3128,16 +5528,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>-3464285.714285715</v>
+        <v>1517857.142857143</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3464285.714285715</v>
+        <v>2217857.142857143</v>
       </c>
     </row>
     <row r="15">
@@ -3155,13 +5555,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>528571.4285714286</v>
+        <v>1171428.571428572</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>528571.4285714286</v>
+        <v>1171428.571428572</v>
       </c>
     </row>
     <row r="16">
@@ -3179,13 +5579,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>640714.2857142857</v>
+        <v>2122142.857142857</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>640714.2857142857</v>
+        <v>2122142.857142857</v>
       </c>
     </row>
     <row r="17">
@@ -3203,13 +5603,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>355357.1428571428</v>
+        <v>995000</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>355357.1428571428</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="18">
@@ -3230,10 +5630,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1380000</v>
+        <v>5571428.571428571</v>
       </c>
       <c r="F18" t="n">
-        <v>1380000</v>
+        <v>5571428.571428571</v>
       </c>
     </row>
     <row r="19">
@@ -3254,10 +5654,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>150000</v>
+        <v>1472857.142857143</v>
       </c>
       <c r="F19" t="n">
-        <v>150000</v>
+        <v>1472857.142857143</v>
       </c>
     </row>
     <row r="20">
@@ -3278,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1117142.857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1117142.857142857</v>
       </c>
     </row>
     <row r="21">
@@ -3302,10 +5702,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1300000</v>
       </c>
     </row>
     <row r="22">
@@ -3326,10 +5726,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>852857.1428571428</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>852857.1428571428</v>
       </c>
     </row>
     <row r="23">
@@ -3340,16 +5740,16 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>20225023.80952381</v>
+        <v>26875380.95238096</v>
       </c>
       <c r="D23" t="n">
-        <v>2766309.523809523</v>
+        <v>10101666.66666667</v>
       </c>
       <c r="E23" t="n">
-        <v>4521666.666666666</v>
+        <v>22823809.52380952</v>
       </c>
       <c r="F23" t="n">
-        <v>27513000</v>
+        <v>59800857.14285714</v>
       </c>
     </row>
   </sheetData>
@@ -3440,37 +5840,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22550000</v>
+        <v>78250000</v>
       </c>
       <c r="C2" t="n">
-        <v>22550000</v>
+        <v>70250000</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.8977635782747604</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1022364217252396</v>
       </c>
       <c r="F2" t="n">
-        <v>7500000</v>
+        <v>16500000</v>
       </c>
       <c r="G2" t="n">
-        <v>30050000</v>
+        <v>86750000</v>
       </c>
       <c r="H2" t="n">
-        <v>5296500</v>
+        <v>42243000</v>
       </c>
       <c r="I2" t="n">
-        <v>20225023.80952381</v>
+        <v>26875380.95238096</v>
       </c>
       <c r="J2" t="n">
-        <v>25521523.80952381</v>
+        <v>69118380.95238096</v>
       </c>
       <c r="K2" t="n">
-        <v>4528476.19047619</v>
+        <v>17631619.04761904</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1506980429442992</v>
+        <v>0.2032463290791821</v>
       </c>
     </row>
     <row r="3">
@@ -3480,37 +5880,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6000000</v>
+        <v>14000000</v>
       </c>
       <c r="C3" t="n">
-        <v>5500000</v>
+        <v>13000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08333333333333337</v>
+        <v>0.0714285714285714</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5500000</v>
+        <v>13000000</v>
       </c>
       <c r="H3" t="n">
-        <v>928500</v>
+        <v>9967000</v>
       </c>
       <c r="I3" t="n">
-        <v>2766309.523809523</v>
+        <v>10101666.66666667</v>
       </c>
       <c r="J3" t="n">
-        <v>3694809.523809523</v>
+        <v>20068666.66666667</v>
       </c>
       <c r="K3" t="n">
-        <v>1805190.476190477</v>
+        <v>-7068666.666666668</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3282164502164503</v>
+        <v>-0.5437435897435898</v>
       </c>
     </row>
     <row r="4">
@@ -3520,37 +5920,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7000000</v>
+        <v>113000000</v>
       </c>
       <c r="C4" t="n">
-        <v>6000000</v>
+        <v>85000000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7522123893805309</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.2477876106194691</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>12500000</v>
       </c>
       <c r="G4" t="n">
-        <v>6000000</v>
+        <v>97500000</v>
       </c>
       <c r="H4" t="n">
-        <v>780000</v>
+        <v>21500000</v>
       </c>
       <c r="I4" t="n">
-        <v>4521666.666666666</v>
+        <v>22823809.52380952</v>
       </c>
       <c r="J4" t="n">
-        <v>5301666.666666666</v>
+        <v>44323809.52380952</v>
       </c>
       <c r="K4" t="n">
-        <v>698333.333333334</v>
+        <v>53176190.47619048</v>
       </c>
       <c r="L4" t="n">
-        <v>0.116388888888889</v>
+        <v>0.5453968253968254</v>
       </c>
     </row>
     <row r="5">
@@ -3560,37 +5960,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71100000</v>
+        <v>205250000</v>
       </c>
       <c r="C5" t="n">
-        <v>68100000</v>
+        <v>168250000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9578059071729957</v>
+        <v>0.8197320341047503</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04219409282700426</v>
+        <v>0.1802679658952497</v>
       </c>
       <c r="F5" t="n">
-        <v>15000000</v>
+        <v>30000000</v>
       </c>
       <c r="G5" t="n">
-        <v>83100000</v>
+        <v>198250000</v>
       </c>
       <c r="H5" t="n">
-        <v>14010000</v>
+        <v>73710000</v>
       </c>
       <c r="I5" t="n">
-        <v>27513000</v>
+        <v>59800857.14285714</v>
       </c>
       <c r="J5" t="n">
-        <v>41523000</v>
+        <v>133510857.1428571</v>
       </c>
       <c r="K5" t="n">
-        <v>41577000</v>
+        <v>64739142.85714287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5003249097472924</v>
+        <v>0.3265530535038732</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V25"/>
+  <dimension ref="A1:V28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -887,7 +887,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>08-02-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2367,8 +2367,10 @@
       <c r="L23" t="n">
         <v>36000000</v>
       </c>
-      <c r="M23" t="n">
-        <v/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Thảo</t>
+        </is>
       </c>
       <c r="N23" t="n">
         <v/>
@@ -2385,8 +2387,10 @@
       <c r="R23" t="n">
         <v>0</v>
       </c>
-      <c r="S23" t="n">
-        <v/>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T23" t="n">
         <v/>
@@ -2481,50 +2485,302 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>641</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Thanh nhã</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J25" t="n">
+        <v/>
+      </c>
+      <c r="K25" t="n">
+        <v/>
+      </c>
+      <c r="L25" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v/>
+      </c>
+      <c r="O25" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v/>
+      </c>
+      <c r="T25" t="n">
+        <v/>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>643</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Trần Thị Nhi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v/>
+      </c>
+      <c r="O26" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v/>
+      </c>
+      <c r="U26" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>644</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Huyền Trang</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v/>
+      </c>
+      <c r="K27" t="n">
+        <v/>
+      </c>
+      <c r="L27" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M27" t="n">
+        <v/>
+      </c>
+      <c r="N27" t="n">
+        <v/>
+      </c>
+      <c r="O27" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
+        <v/>
+      </c>
+      <c r="T27" t="n">
+        <v/>
+      </c>
+      <c r="U27" t="n">
+        <v/>
+      </c>
+      <c r="V27" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C25" t="n">
-        <v>23</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="n">
-        <v>191750000</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>203750000</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
         <v>13500000</v>
       </c>
-      <c r="L25" t="n">
-        <v>205250000</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>166250000</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="L28" t="n">
+        <v>217250000</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>178250000</v>
+      </c>
+      <c r="P28" t="n">
         <v>2000000</v>
       </c>
-      <c r="Q25" t="n">
-        <v>168250000</v>
-      </c>
-      <c r="R25" t="n">
+      <c r="Q28" t="n">
+        <v>180250000</v>
+      </c>
+      <c r="R28" t="n">
         <v>37000000</v>
       </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="n">
-        <v>1050000</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="V28" t="n">
         <v>250000</v>
       </c>
     </row>
@@ -2539,7 +2795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3008,18 +3264,51 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>184</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>31000000</v>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>32000000</v>
       </c>
     </row>
   </sheetData>
@@ -3033,7 +3322,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4073,19 +4362,428 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>773</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G34" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>774</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>90000</v>
+      </c>
+      <c r="G35" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>775</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G36" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>776</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G37" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>777</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G38" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>778</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="G39" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>779</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>780</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1070000</v>
+      </c>
+      <c r="G41" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>781</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Nộp phạt xe</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>782</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Tiêm 1 filler</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>783</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G44" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>784</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>380000</v>
+      </c>
+      <c r="G45" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>785</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>1600000</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>chiết khấu trả nợ khách Nhân</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>32</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>73710000</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="n">
+        <v>100250000</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4098,7 +4796,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4195,17 +4893,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5650000</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>36000000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4229,11 +4927,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cô Siêng giúp Việc</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5650000</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -4257,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Cô Siêng giúp Việc</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4279,25 +4977,25 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4313,44 +5011,44 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
-        <v>500000</v>
+        <v>200000</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16000000</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -4359,85 +5057,85 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>6000000</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2000000</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>10000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24000000</v>
+        <v>2000000</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -4461,23 +5159,23 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9000000</v>
+        <v>24000000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>49600000</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -4501,17 +5199,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12000000</v>
+        <v>9000000</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>52600000</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -4535,17 +5233,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28000000</v>
+        <v>17000000</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>44000000</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -4569,17 +5267,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76000000</v>
+        <v>28000000</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>44000000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -4597,17 +5295,17 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>76000000</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -4619,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -4631,13 +5329,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4653,10 +5351,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -4671,7 +5369,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4681,16 +5379,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -4705,14 +5403,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2100000</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4721,10 +5419,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -4739,35 +5437,103 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>5100000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>189750000</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B21" t="n">
+        <v>201750000</v>
+      </c>
+      <c r="C21" t="n">
         <v>13500000</v>
       </c>
-      <c r="D19" t="n">
-        <v>118250000</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13</v>
-      </c>
-      <c r="G19" t="n">
-        <v>850000</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="D21" t="n">
+        <v>162250000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>15</v>
+      </c>
+      <c r="G21" t="n">
+        <v>900000</v>
+      </c>
+      <c r="H21" t="n">
         <v>1</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>31000000</v>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32000000</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +5547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4808,7 +5574,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15450000</v>
+        <v>27120000</v>
       </c>
     </row>
     <row r="3">
@@ -4818,7 +5584,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5040000</v>
+        <v>6110000</v>
       </c>
     </row>
     <row r="4">
@@ -4828,47 +5594,57 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>32830000</v>
+        <v>34130000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3090000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12300000</v>
+        <v>3090000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5000000</v>
+        <v>23800000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>73710000</v>
+      <c r="B9" t="n">
+        <v>100250000</v>
       </c>
     </row>
   </sheetData>
@@ -4882,7 +5658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4959,13 +5735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26000000</v>
+        <v>20000000</v>
       </c>
       <c r="C3" t="n">
-        <v>23000000</v>
+        <v>17000000</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4974,7 +5750,7 @@
         <v>3780000</v>
       </c>
       <c r="G3" t="n">
-        <v>19220000</v>
+        <v>13220000</v>
       </c>
     </row>
     <row r="4">
@@ -4984,13 +5760,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37000000</v>
+        <v>43000000</v>
       </c>
       <c r="C4" t="n">
-        <v>37000000</v>
+        <v>43000000</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>15000000</v>
@@ -4999,7 +5775,7 @@
         <v>4610000</v>
       </c>
       <c r="G4" t="n">
-        <v>47390000</v>
+        <v>53390000</v>
       </c>
     </row>
     <row r="5">
@@ -5046,10 +5822,10 @@
         <v>8000000</v>
       </c>
       <c r="F6" t="n">
-        <v>7150000</v>
+        <v>8750000</v>
       </c>
       <c r="G6" t="n">
-        <v>6500000</v>
+        <v>4900000</v>
       </c>
     </row>
     <row r="7">
@@ -5155,26 +5931,76 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16760000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-10760000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8180000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-1180000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>205250000</v>
-      </c>
-      <c r="C11" t="n">
-        <v>166250000</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23</v>
-      </c>
-      <c r="E11" t="n">
-        <v>31000000</v>
-      </c>
-      <c r="F11" t="n">
-        <v>73710000</v>
-      </c>
-      <c r="G11" t="n">
-        <v>123540000</v>
+      <c r="B13" t="n">
+        <v>217250000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>178250000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100250000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>110000000</v>
       </c>
     </row>
   </sheetData>
@@ -5240,7 +6066,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1908214.285714286</v>
+        <v>2848928.571428572</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -5249,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1908214.285714286</v>
+        <v>2848928.571428572</v>
       </c>
     </row>
     <row r="3">
@@ -5264,16 +6090,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>428571.4285714286</v>
+        <v>-4200000</v>
       </c>
       <c r="D3" t="n">
-        <v>285714.2857142857</v>
+        <v>500000.0000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>428571.4285714286</v>
+        <v>750000.0000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>1142857.142857143</v>
+        <v>-2950000</v>
       </c>
     </row>
     <row r="4">
@@ -5288,7 +6114,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1122500</v>
+        <v>1238571.428571429</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -5297,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1122500</v>
+        <v>1238571.428571429</v>
       </c>
     </row>
     <row r="5">
@@ -5312,16 +6138,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>571428.5714285715</v>
+        <v>785714.2857142858</v>
       </c>
       <c r="D5" t="n">
-        <v>857142.8571428573</v>
+        <v>1178571.428571429</v>
       </c>
       <c r="E5" t="n">
-        <v>857142.8571428573</v>
+        <v>1178571.428571429</v>
       </c>
       <c r="F5" t="n">
-        <v>2285714.285714286</v>
+        <v>3142857.142857143</v>
       </c>
     </row>
     <row r="6">
@@ -5336,7 +6162,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1714285.714285714</v>
+        <v>2357142.857142857</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -5345,7 +6171,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1714285.714285714</v>
+        <v>2357142.857142857</v>
       </c>
     </row>
     <row r="7">
@@ -5384,7 +6210,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2000000</v>
+        <v>-1250000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -5393,7 +6219,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-2000000</v>
+        <v>-1250000</v>
       </c>
     </row>
     <row r="9">
@@ -5408,7 +6234,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5243714.285714285</v>
+        <v>5625142.857142857</v>
       </c>
       <c r="D9" t="n">
         <v>1385714.285714286</v>
@@ -5417,7 +6243,7 @@
         <v>2557142.857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>9186571.428571429</v>
+        <v>9568000</v>
       </c>
     </row>
     <row r="10">
@@ -5432,16 +6258,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3452380.952380952</v>
+        <v>4074523.80952381</v>
       </c>
       <c r="D10" t="n">
-        <v>952380.9523809524</v>
+        <v>1309523.809523809</v>
       </c>
       <c r="E10" t="n">
-        <v>2752380.952380952</v>
+        <v>3109523.80952381</v>
       </c>
       <c r="F10" t="n">
-        <v>7157142.857142857</v>
+        <v>8493571.428571429</v>
       </c>
     </row>
     <row r="11">
@@ -5456,16 +6282,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7968571.428571429</v>
+        <v>8455000</v>
       </c>
       <c r="D11" t="n">
-        <v>428571.4285714285</v>
+        <v>750000</v>
       </c>
       <c r="E11" t="n">
-        <v>1628571.428571429</v>
+        <v>1950000</v>
       </c>
       <c r="F11" t="n">
-        <v>10025714.28571429</v>
+        <v>11155000</v>
       </c>
     </row>
     <row r="12">
@@ -5480,16 +6306,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5765714.285714285</v>
+        <v>7477857.142857143</v>
       </c>
       <c r="D12" t="n">
-        <v>2857142.857142857</v>
+        <v>3928571.428571429</v>
       </c>
       <c r="E12" t="n">
-        <v>4285714.285714285</v>
+        <v>5892857.142857143</v>
       </c>
       <c r="F12" t="n">
-        <v>12908571.42857143</v>
+        <v>17299285.71428571</v>
       </c>
     </row>
     <row r="13">
@@ -5507,13 +6333,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-2471428.571428571</v>
+        <v>-1250000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-2471428.571428571</v>
+        <v>-1250000</v>
       </c>
     </row>
     <row r="14">
@@ -5531,13 +6357,13 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>1517857.142857143</v>
+        <v>1875000</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2217857.142857143</v>
+        <v>2575000</v>
       </c>
     </row>
     <row r="15">
@@ -5555,13 +6381,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1171428.571428572</v>
+        <v>457142.8571428573</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1171428.571428572</v>
+        <v>457142.8571428573</v>
       </c>
     </row>
     <row r="16">
@@ -5579,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2122142.857142857</v>
+        <v>3049285.714285715</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2122142.857142857</v>
+        <v>3049285.714285715</v>
       </c>
     </row>
     <row r="17">
@@ -5603,13 +6429,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>995000</v>
+        <v>1137142.857142857</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>995000</v>
+        <v>1137142.857142857</v>
       </c>
     </row>
     <row r="18">
@@ -5678,10 +6504,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1117142.857142857</v>
+        <v>-3882857.142857143</v>
       </c>
       <c r="F20" t="n">
-        <v>1117142.857142857</v>
+        <v>-3882857.142857143</v>
       </c>
     </row>
     <row r="21">
@@ -5740,16 +6566,16 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>26875380.95238096</v>
+        <v>28112880.95238096</v>
       </c>
       <c r="D23" t="n">
-        <v>10101666.66666667</v>
+        <v>14320952.38095238</v>
       </c>
       <c r="E23" t="n">
-        <v>22823809.52380952</v>
+        <v>20752380.95238095</v>
       </c>
       <c r="F23" t="n">
-        <v>59800857.14285714</v>
+        <v>63186214.28571428</v>
       </c>
     </row>
   </sheetData>
@@ -5840,37 +6666,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78250000</v>
+        <v>85250000</v>
       </c>
       <c r="C2" t="n">
-        <v>70250000</v>
+        <v>77250000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8977635782747604</v>
+        <v>0.906158357771261</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1022364217252396</v>
+        <v>0.09384164222873903</v>
       </c>
       <c r="F2" t="n">
-        <v>16500000</v>
+        <v>17500000</v>
       </c>
       <c r="G2" t="n">
-        <v>86750000</v>
+        <v>94750000</v>
       </c>
       <c r="H2" t="n">
-        <v>42243000</v>
+        <v>48813000</v>
       </c>
       <c r="I2" t="n">
-        <v>26875380.95238096</v>
+        <v>28112880.95238096</v>
       </c>
       <c r="J2" t="n">
-        <v>69118380.95238096</v>
+        <v>76925880.95238096</v>
       </c>
       <c r="K2" t="n">
-        <v>17631619.04761904</v>
+        <v>17824119.04761904</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2032463290791821</v>
+        <v>0.1881173514260585</v>
       </c>
     </row>
     <row r="3">
@@ -5880,37 +6706,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14000000</v>
+        <v>19000000</v>
       </c>
       <c r="C3" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9285714285714286</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0714285714285714</v>
+        <v>0.05263157894736847</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>13000000</v>
+        <v>18000000</v>
       </c>
       <c r="H3" t="n">
-        <v>9967000</v>
+        <v>11157000</v>
       </c>
       <c r="I3" t="n">
-        <v>10101666.66666667</v>
+        <v>14320952.38095238</v>
       </c>
       <c r="J3" t="n">
-        <v>20068666.66666667</v>
+        <v>25477952.38095238</v>
       </c>
       <c r="K3" t="n">
-        <v>-7068666.666666668</v>
+        <v>-7477952.380952381</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.5437435897435898</v>
+        <v>-0.4154417989417989</v>
       </c>
     </row>
     <row r="4">
@@ -5938,19 +6764,19 @@
         <v>97500000</v>
       </c>
       <c r="H4" t="n">
-        <v>21500000</v>
+        <v>40280000</v>
       </c>
       <c r="I4" t="n">
-        <v>22823809.52380952</v>
+        <v>20752380.95238095</v>
       </c>
       <c r="J4" t="n">
-        <v>44323809.52380952</v>
+        <v>61032380.95238095</v>
       </c>
       <c r="K4" t="n">
-        <v>53176190.47619048</v>
+        <v>36467619.04761905</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5453968253968254</v>
+        <v>0.3740268620268621</v>
       </c>
     </row>
     <row r="5">
@@ -5960,37 +6786,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205250000</v>
+        <v>217250000</v>
       </c>
       <c r="C5" t="n">
-        <v>168250000</v>
+        <v>180250000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8197320341047503</v>
+        <v>0.8296892980437284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1802679658952497</v>
+        <v>0.1703107019562716</v>
       </c>
       <c r="F5" t="n">
-        <v>30000000</v>
+        <v>31000000</v>
       </c>
       <c r="G5" t="n">
-        <v>198250000</v>
+        <v>211250000</v>
       </c>
       <c r="H5" t="n">
-        <v>73710000</v>
+        <v>100250000</v>
       </c>
       <c r="I5" t="n">
-        <v>59800857.14285714</v>
+        <v>63186214.28571428</v>
       </c>
       <c r="J5" t="n">
-        <v>133510857.1428571</v>
+        <v>163436214.2857143</v>
       </c>
       <c r="K5" t="n">
-        <v>64739142.85714287</v>
+        <v>47813785.71428573</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3265530535038732</v>
+        <v>0.2263374471682165</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V28"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2737,51 +2737,2345 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr"/>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>646</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J28" t="n">
+        <v/>
+      </c>
+      <c r="K28" t="n">
+        <v/>
+      </c>
+      <c r="L28" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v/>
+      </c>
+      <c r="O28" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v/>
+      </c>
+      <c r="U28" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>647</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Bé Su</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="J29" t="n">
+        <v/>
+      </c>
+      <c r="K29" t="n">
+        <v/>
+      </c>
+      <c r="L29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v/>
+      </c>
+      <c r="O29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v/>
+      </c>
+      <c r="T29" t="n">
+        <v/>
+      </c>
+      <c r="U29" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>648</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Huyền Trân</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J30" t="n">
+        <v/>
+      </c>
+      <c r="K30" t="n">
+        <v/>
+      </c>
+      <c r="L30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v/>
+      </c>
+      <c r="N30" t="n">
+        <v/>
+      </c>
+      <c r="O30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v/>
+      </c>
+      <c r="T30" t="n">
+        <v/>
+      </c>
+      <c r="U30" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>649</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>H-Sa</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="J31" t="n">
+        <v/>
+      </c>
+      <c r="K31" t="n">
+        <v/>
+      </c>
+      <c r="L31" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v/>
+      </c>
+      <c r="O31" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="U31" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>650</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mẹ mai sang</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Sang sang</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="J32" t="n">
+        <v/>
+      </c>
+      <c r="K32" t="n">
+        <v/>
+      </c>
+      <c r="L32" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v/>
+      </c>
+      <c r="O32" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v/>
+      </c>
+      <c r="U32" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>651</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="J33" t="n">
+        <v/>
+      </c>
+      <c r="K33" t="n">
+        <v/>
+      </c>
+      <c r="L33" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v/>
+      </c>
+      <c r="O33" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v/>
+      </c>
+      <c r="T33" t="n">
+        <v/>
+      </c>
+      <c r="U33" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>652</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v/>
+      </c>
+      <c r="L34" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v/>
+      </c>
+      <c r="O34" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="U34" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V34" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>653</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J35" t="n">
+        <v/>
+      </c>
+      <c r="K35" t="n">
+        <v/>
+      </c>
+      <c r="L35" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v/>
+      </c>
+      <c r="O35" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v/>
+      </c>
+      <c r="U35" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>654</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>ngọc khanh</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v/>
+      </c>
+      <c r="L36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v/>
+      </c>
+      <c r="O36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v/>
+      </c>
+      <c r="T36" t="n">
+        <v/>
+      </c>
+      <c r="U36" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>655</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>trương thị vẹn</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="J37" t="n">
+        <v/>
+      </c>
+      <c r="K37" t="n">
+        <v/>
+      </c>
+      <c r="L37" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M37" t="n">
+        <v/>
+      </c>
+      <c r="N37" t="n">
+        <v/>
+      </c>
+      <c r="O37" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v/>
+      </c>
+      <c r="T37" t="n">
+        <v/>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>656</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">mẹ khanh </t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M38" t="n">
+        <v/>
+      </c>
+      <c r="N38" t="n">
+        <v/>
+      </c>
+      <c r="O38" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v/>
+      </c>
+      <c r="T38" t="n">
+        <v/>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>657</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>truương thị luyến</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v/>
+      </c>
+      <c r="L39" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v/>
+      </c>
+      <c r="O39" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v/>
+      </c>
+      <c r="T39" t="n">
+        <v/>
+      </c>
+      <c r="U39" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>659</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Căng chỉ mặt</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Nguyễn Như Ngọc</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v/>
+      </c>
+      <c r="O40" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v/>
+      </c>
+      <c r="U40" t="n">
+        <v/>
+      </c>
+      <c r="V40" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>660</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J41" t="n">
+        <v/>
+      </c>
+      <c r="K41" t="n">
+        <v/>
+      </c>
+      <c r="L41" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="R41" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v/>
+      </c>
+      <c r="U41" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V41" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>661</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yến</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J42" t="n">
+        <v/>
+      </c>
+      <c r="K42" t="n">
+        <v/>
+      </c>
+      <c r="L42" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v/>
+      </c>
+      <c r="O42" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v/>
+      </c>
+      <c r="U42" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>662</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J43" t="n">
+        <v/>
+      </c>
+      <c r="K43" t="n">
+        <v/>
+      </c>
+      <c r="L43" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
+        <v/>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v/>
+      </c>
+      <c r="U43" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>663</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J44" t="n">
+        <v/>
+      </c>
+      <c r="K44" t="n">
+        <v/>
+      </c>
+      <c r="L44" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v/>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v/>
+      </c>
+      <c r="U44" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>664</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="J45" t="n">
+        <v/>
+      </c>
+      <c r="K45" t="n">
+        <v/>
+      </c>
+      <c r="L45" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v/>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v/>
+      </c>
+      <c r="U45" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>665</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Tiềm cằm</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="J46" t="n">
+        <v/>
+      </c>
+      <c r="K46" t="n">
+        <v/>
+      </c>
+      <c r="L46" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v/>
+      </c>
+      <c r="O46" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v/>
+      </c>
+      <c r="T46" t="n">
+        <v/>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>666</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cắt mắt phượng</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J47" t="n">
+        <v/>
+      </c>
+      <c r="K47" t="n">
+        <v/>
+      </c>
+      <c r="L47" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v/>
+      </c>
+      <c r="O47" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v/>
+      </c>
+      <c r="U47" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>667</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Lê Thị Bích Liên</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J48" t="n">
+        <v/>
+      </c>
+      <c r="K48" t="n">
+        <v/>
+      </c>
+      <c r="L48" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
+        <v/>
+      </c>
+      <c r="O48" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v/>
+      </c>
+      <c r="U48" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>668</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L49" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
+        <v/>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v/>
+      </c>
+      <c r="U49" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>669</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="J50" t="n">
+        <v/>
+      </c>
+      <c r="K50" t="n">
+        <v/>
+      </c>
+      <c r="L50" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v/>
+      </c>
+      <c r="O50" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v/>
+      </c>
+      <c r="U50" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>670</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v/>
+      </c>
+      <c r="F51" t="n">
+        <v/>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+      <c r="H51" t="n">
+        <v/>
+      </c>
+      <c r="I51" t="n">
+        <v/>
+      </c>
+      <c r="J51" t="n">
+        <v/>
+      </c>
+      <c r="K51" t="n">
+        <v/>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v/>
+      </c>
+      <c r="N51" t="n">
+        <v/>
+      </c>
+      <c r="O51" t="n">
+        <v/>
+      </c>
+      <c r="P51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" t="n">
+        <v/>
+      </c>
+      <c r="T51" t="n">
+        <v/>
+      </c>
+      <c r="U51" t="n">
+        <v/>
+      </c>
+      <c r="V51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>671</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Hồ Minh Trường</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="J52" t="n">
+        <v/>
+      </c>
+      <c r="K52" t="n">
+        <v/>
+      </c>
+      <c r="L52" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v/>
+      </c>
+      <c r="O52" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v/>
+      </c>
+      <c r="U52" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V52" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>672</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Ngọc diễm</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="J53" t="n">
+        <v/>
+      </c>
+      <c r="K53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L53" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M53" t="n">
+        <v/>
+      </c>
+      <c r="N53" t="n">
+        <v/>
+      </c>
+      <c r="O53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="S53" t="n">
+        <v/>
+      </c>
+      <c r="T53" t="n">
+        <v/>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>673</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v/>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v/>
+      </c>
+      <c r="T54" t="n">
+        <v/>
+      </c>
+      <c r="U54" t="n">
+        <v/>
+      </c>
+      <c r="V54" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr"/>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C28" t="n">
-        <v>26</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="n">
-        <v>203750000</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="L28" t="n">
-        <v>217250000</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>178250000</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>180250000</v>
-      </c>
-      <c r="R28" t="n">
-        <v>37000000</v>
-      </c>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="n">
-        <v>1100000</v>
-      </c>
-      <c r="V28" t="n">
-        <v>250000</v>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>423750000</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="L55" t="n">
+        <v>447750000</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>342250000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>367250000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>80500000</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="V55" t="n">
+        <v>550000</v>
       </c>
     </row>
   </sheetData>
@@ -2795,7 +5089,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3107,7 +5401,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -3130,7 +5424,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>2000000</v>
       </c>
     </row>
     <row r="11">
@@ -3140,7 +5434,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -3149,21 +5443,21 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>HD-LUXURY-500</t>
+          <t>HD-LUXURY-538</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2024-06-30</t>
+          <t>2024-07-11</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="12">
@@ -3173,30 +5467,26 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>08-09-2024</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
+      <c r="D12" t="n">
+        <v/>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HD-LUXURY-538</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2024-07-11</t>
-        </is>
+          <t>HD-LUXURY-nan</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
-        <v>1500000</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -3206,26 +5496,30 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>08-09-2024</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>HD-LUXURY-nan</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v/>
+          <t>HD-LUXURY-633</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2024-08-07</t>
+        </is>
       </c>
       <c r="G13" t="n">
-        <v/>
+        <v>2000000</v>
       </c>
     </row>
     <row r="14">
@@ -3235,11 +5529,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08-09-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -3249,16 +5543,16 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>HD-LUXURY-633</t>
+          <t>HD-LUXURY-315</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2024-08-07</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="15">
@@ -3268,11 +5562,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08-10-2024</t>
+          <t>08-12-2024</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -3282,33 +5576,293 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HD-LUXURY-315</t>
+          <t>HD-LUXURY-557</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2024-05-08</t>
+          <t>2024-07-16</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>186</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>187</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-414</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2024-05-03</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>188</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v/>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-nan</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v/>
+      </c>
+      <c r="G18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>189</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-465</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2024-06-23</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>190</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-669</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>13000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>191</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-668</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2024-08-20</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>192</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-646</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>193</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-581</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2024-07-23</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>32000000</v>
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="n">
+        <v>66000000</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +5876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4771,19 +7325,1755 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>786</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>1990000</v>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>787</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>1050000</v>
+      </c>
+      <c r="G48" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>788</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>80000</v>
+      </c>
+      <c r="G49" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>789</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>790</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>1100000</v>
+      </c>
+      <c r="G51" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>791</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="G52" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>792</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v/>
+      </c>
+      <c r="F53" t="n">
+        <v/>
+      </c>
+      <c r="G53" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>793</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v/>
+      </c>
+      <c r="F54" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Bà lấy đi chợ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>794</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Anh linh lấy tiền chỗ bà</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>795</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="G56" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>796</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>680000</v>
+      </c>
+      <c r="G57" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>797</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>480000</v>
+      </c>
+      <c r="G58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>798</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G59" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>799</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>30000</v>
+      </c>
+      <c r="G60" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>800</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>112000</v>
+      </c>
+      <c r="G61" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>801</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>802</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>08-14-2024</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>70000</v>
+      </c>
+      <c r="G63" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>803</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>08-14-2024</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>214000</v>
+      </c>
+      <c r="G64" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>804</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>650000</v>
+      </c>
+      <c r="G65" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>805</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G66" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>806</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="G67" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>807</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G68" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>808</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>130000</v>
+      </c>
+      <c r="G69" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>809</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G70" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>810</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G71" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>811</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>580000</v>
+      </c>
+      <c r="G72" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>812</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G73" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>813</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G74" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>814</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G75" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>815</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G76" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>816</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>380000</v>
+      </c>
+      <c r="G77" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>817</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>2467000</v>
+      </c>
+      <c r="G78" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>818</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G79" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>819</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="G80" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>820</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="G81" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>821</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G82" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>822</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G83" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>823</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G84" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>824</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v/>
+      </c>
+      <c r="F85" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G85" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>825</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G86" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>826</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G87" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>827</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G88" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>828</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G89" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>829</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>400000</v>
+      </c>
+      <c r="G90" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>830</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>67000</v>
+      </c>
+      <c r="G91" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>831</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>845000</v>
+      </c>
+      <c r="G92" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>832</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G93" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>833</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G94" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>834</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G95" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>835</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>160000</v>
+      </c>
+      <c r="G96" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>836</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G97" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>837</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>200000</v>
+      </c>
+      <c r="G98" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>838</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>anh linh lấy tiền mặt</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>839</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G100" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>840</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>750000</v>
+      </c>
+      <c r="G101" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>841</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>240000</v>
+      </c>
+      <c r="G102" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B47" t="n">
-        <v>45</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="n">
-        <v>100250000</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="n">
+        <v>174225000</v>
+      </c>
+      <c r="G103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4796,7 +9086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>4650000</v>
+        <v>8650000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5011,10 +9301,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -5029,11 +9319,11 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -5045,10 +9335,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -5057,57 +9347,57 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20000000</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>18000000</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>800000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="J8" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15000000</v>
+        <v>122500000</v>
       </c>
       <c r="C9" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>71900000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5125,51 +9415,51 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="B10" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2000000</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>10000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24000000</v>
+        <v>2000000</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -5193,23 +9483,23 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9000000</v>
+        <v>75000000</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1500000</v>
       </c>
       <c r="D12" t="n">
-        <v>52600000</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -5227,23 +9517,23 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>22000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17000000</v>
+        <v>9000000</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>107400000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -5267,17 +9557,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28000000</v>
+        <v>20000000</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>44000000</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -5301,17 +9591,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>76000000</v>
+        <v>51300000</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>89300000</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -5329,17 +9619,17 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -5351,10 +9641,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -5369,11 +9659,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>76000000</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -5385,10 +9675,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -5397,17 +9687,17 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6700000</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -5419,10 +9709,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -5437,7 +9727,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5447,22 +9737,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7000000</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -5471,14 +9761,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5100000</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>7500000</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -5487,10 +9777,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>650000</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -5505,35 +9795,103 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>24600000</v>
+      </c>
+      <c r="C22" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>201750000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="D21" t="n">
-        <v>162250000</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>15</v>
-      </c>
-      <c r="G21" t="n">
-        <v>900000</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>32000000</v>
+      <c r="B23" t="n">
+        <v>421750000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>320250000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>31</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1950000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+      <c r="I23" t="n">
+        <v>150000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>64000000</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +9905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5574,77 +9932,97 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27120000</v>
+        <v>28620000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6110000</v>
+        <v>2397000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34130000</v>
+        <v>11830000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1000000</v>
+        <v>43657000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3090000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23800000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5000000</v>
+        <v>6859000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>63762000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>100250000</v>
+      <c r="B11" t="n">
+        <v>174225000</v>
       </c>
     </row>
   </sheetData>
@@ -5658,7 +10036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5794,13 +10172,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>500000</v>
+        <v>2500000</v>
       </c>
       <c r="F5" t="n">
-        <v>940000</v>
+        <v>1240000</v>
       </c>
       <c r="G5" t="n">
-        <v>24560000</v>
+        <v>26260000</v>
       </c>
     </row>
     <row r="6">
@@ -5981,26 +10359,301 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25730000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-15730000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>08-13-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7400000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>3342000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4058000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>08-14-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>284000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-284000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>51900000</v>
+      </c>
+      <c r="C16" t="n">
+        <v>51900000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3</v>
+      </c>
+      <c r="E16" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>49400000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="C17" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>7</v>
+      </c>
+      <c r="E17" t="n">
+        <v>500000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>7910000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30290000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>63500000</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>7997000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15003000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>08-19-2024</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9850000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-8650000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="C20" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5867000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>7133000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="C21" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2345000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>43955000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>6160000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-6160000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4500000</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1190000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3310000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>217250000</v>
-      </c>
-      <c r="C13" t="n">
-        <v>178250000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>26</v>
-      </c>
-      <c r="E13" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100250000</v>
-      </c>
-      <c r="G13" t="n">
-        <v>110000000</v>
+      <c r="B24" t="n">
+        <v>447750000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>342250000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>53</v>
+      </c>
+      <c r="E24" t="n">
+        <v>66000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>174225000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>234025000</v>
       </c>
     </row>
   </sheetData>
@@ -6066,7 +10719,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2848928.571428572</v>
+        <v>7550214.285714285</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6075,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2848928.571428572</v>
+        <v>7550214.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -6090,16 +10743,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4200000</v>
+        <v>-3128571.428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>500000.0000000001</v>
+        <v>1214285.714285714</v>
       </c>
       <c r="E3" t="n">
-        <v>750000.0000000001</v>
+        <v>2491428.571428571</v>
       </c>
       <c r="F3" t="n">
-        <v>-2950000</v>
+        <v>577142.857142857</v>
       </c>
     </row>
     <row r="4">
@@ -6114,16 +10767,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1238571.428571429</v>
+        <v>199285.7142857141</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1238571.428571429</v>
+        <v>299285.7142857141</v>
       </c>
     </row>
     <row r="5">
@@ -6138,16 +10791,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>785714.2857142858</v>
+        <v>1571428.571428572</v>
       </c>
       <c r="D5" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
       <c r="E5" t="n">
-        <v>1178571.428571429</v>
+        <v>2357142.857142857</v>
       </c>
       <c r="F5" t="n">
-        <v>3142857.142857143</v>
+        <v>6285714.285714286</v>
       </c>
     </row>
     <row r="6">
@@ -6162,7 +10815,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2357142.857142857</v>
+        <v>4714285.714285715</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6171,7 +10824,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2357142.857142857</v>
+        <v>4714285.714285715</v>
       </c>
     </row>
     <row r="7">
@@ -6186,7 +10839,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -6195,7 +10848,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="8">
@@ -6210,7 +10863,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -6219,7 +10872,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-1250000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="9">
@@ -6234,16 +10887,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5625142.857142857</v>
+        <v>11841000</v>
       </c>
       <c r="D9" t="n">
-        <v>1385714.285714286</v>
+        <v>3157142.857142857</v>
       </c>
       <c r="E9" t="n">
-        <v>2557142.857142857</v>
+        <v>3477142.857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>9568000</v>
+        <v>18475285.71428572</v>
       </c>
     </row>
     <row r="10">
@@ -6258,16 +10911,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4074523.80952381</v>
+        <v>6374047.619047619</v>
       </c>
       <c r="D10" t="n">
-        <v>1309523.809523809</v>
+        <v>10619047.61904762</v>
       </c>
       <c r="E10" t="n">
-        <v>3109523.80952381</v>
+        <v>9919047.619047619</v>
       </c>
       <c r="F10" t="n">
-        <v>8493571.428571429</v>
+        <v>26912142.85714286</v>
       </c>
     </row>
     <row r="11">
@@ -6282,16 +10935,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8455000</v>
+        <v>3046785.714285715</v>
       </c>
       <c r="D11" t="n">
-        <v>750000</v>
+        <v>2860714.285714285</v>
       </c>
       <c r="E11" t="n">
-        <v>1950000</v>
+        <v>4789285.714285715</v>
       </c>
       <c r="F11" t="n">
-        <v>11155000</v>
+        <v>10696785.71428571</v>
       </c>
     </row>
     <row r="12">
@@ -6306,16 +10959,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7477857.142857143</v>
+        <v>8143714.285714285</v>
       </c>
       <c r="D12" t="n">
-        <v>3928571.428571429</v>
+        <v>7857142.857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>5892857.142857143</v>
+        <v>11785714.28571429</v>
       </c>
       <c r="F12" t="n">
-        <v>17299285.71428571</v>
+        <v>27786571.42857143</v>
       </c>
     </row>
     <row r="13">
@@ -6333,13 +10986,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1250000</v>
+        <v>-1107142.857142856</v>
       </c>
     </row>
     <row r="14">
@@ -6357,13 +11010,13 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>1875000</v>
+        <v>2878571.428571429</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2575000</v>
+        <v>3578571.428571429</v>
       </c>
     </row>
     <row r="15">
@@ -6381,13 +11034,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>457142.8571428573</v>
+        <v>507142.8571428573</v>
       </c>
     </row>
     <row r="16">
@@ -6405,13 +11058,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3049285.714285715</v>
+        <v>5685000</v>
       </c>
     </row>
     <row r="17">
@@ -6429,13 +11082,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1137142.857142857</v>
+        <v>1728571.428571429</v>
       </c>
     </row>
     <row r="18">
@@ -6450,16 +11103,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>2110000</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>5700000</v>
       </c>
       <c r="E18" t="n">
-        <v>5571428.571428571</v>
+        <v>5987142.857142857</v>
       </c>
       <c r="F18" t="n">
-        <v>5571428.571428571</v>
+        <v>13797142.85714286</v>
       </c>
     </row>
     <row r="19">
@@ -6480,10 +11133,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
       <c r="F19" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
     </row>
     <row r="20">
@@ -6504,10 +11157,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>-3882857.142857143</v>
+        <v>-3721428.571428571</v>
       </c>
     </row>
     <row r="21">
@@ -6528,10 +11181,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1300000</v>
+        <v>2014285.714285714</v>
       </c>
       <c r="F21" t="n">
-        <v>1300000</v>
+        <v>2014285.714285714</v>
       </c>
     </row>
     <row r="22">
@@ -6552,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>852857.1428571428</v>
+        <v>1279285.714285714</v>
       </c>
       <c r="F22" t="n">
-        <v>852857.1428571428</v>
+        <v>1279285.714285714</v>
       </c>
     </row>
     <row r="23">
@@ -6566,16 +11219,16 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>28112880.95238096</v>
+        <v>42322190.47619048</v>
       </c>
       <c r="D23" t="n">
-        <v>14320952.38095238</v>
+        <v>43557619.04761904</v>
       </c>
       <c r="E23" t="n">
-        <v>20752380.95238095</v>
+        <v>40227619.04761904</v>
       </c>
       <c r="F23" t="n">
-        <v>63186214.28571428</v>
+        <v>126107428.5714286</v>
       </c>
     </row>
   </sheetData>
@@ -6666,37 +11319,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85250000</v>
+        <v>153050000</v>
       </c>
       <c r="C2" t="n">
-        <v>77250000</v>
+        <v>145050000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.906158357771261</v>
+        <v>0.9477295001633453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09384164222873903</v>
+        <v>0.05227049983665466</v>
       </c>
       <c r="F2" t="n">
-        <v>17500000</v>
+        <v>26000000</v>
       </c>
       <c r="G2" t="n">
-        <v>94750000</v>
+        <v>171050000</v>
       </c>
       <c r="H2" t="n">
-        <v>48813000</v>
+        <v>93345000</v>
       </c>
       <c r="I2" t="n">
-        <v>28112880.95238096</v>
+        <v>42322190.47619048</v>
       </c>
       <c r="J2" t="n">
-        <v>76925880.95238096</v>
+        <v>135667190.4761905</v>
       </c>
       <c r="K2" t="n">
-        <v>17824119.04761904</v>
+        <v>35382809.52380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1881173514260585</v>
+        <v>0.2068565303935079</v>
       </c>
     </row>
     <row r="3">
@@ -6706,37 +11359,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19000000</v>
+        <v>135500000</v>
       </c>
       <c r="C3" t="n">
-        <v>18000000</v>
+        <v>91000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.6715867158671587</v>
       </c>
       <c r="E3" t="n">
-        <v>0.05263157894736847</v>
+        <v>0.3284132841328413</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="G3" t="n">
-        <v>18000000</v>
+        <v>93000000</v>
       </c>
       <c r="H3" t="n">
-        <v>11157000</v>
+        <v>24685000</v>
       </c>
       <c r="I3" t="n">
-        <v>14320952.38095238</v>
+        <v>43557619.04761904</v>
       </c>
       <c r="J3" t="n">
-        <v>25477952.38095238</v>
+        <v>68242619.04761904</v>
       </c>
       <c r="K3" t="n">
-        <v>-7477952.380952381</v>
+        <v>24757380.95238096</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4154417989417989</v>
+        <v>0.2662083973374296</v>
       </c>
     </row>
     <row r="4">
@@ -6746,37 +11399,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>113000000</v>
+        <v>159200000</v>
       </c>
       <c r="C4" t="n">
-        <v>85000000</v>
+        <v>131200000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7522123893805309</v>
+        <v>0.8241206030150754</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2477876106194691</v>
+        <v>0.1758793969849246</v>
       </c>
       <c r="F4" t="n">
-        <v>12500000</v>
+        <v>13000000</v>
       </c>
       <c r="G4" t="n">
-        <v>97500000</v>
+        <v>144200000</v>
       </c>
       <c r="H4" t="n">
-        <v>40280000</v>
+        <v>56195000</v>
       </c>
       <c r="I4" t="n">
-        <v>20752380.95238095</v>
+        <v>40227619.04761904</v>
       </c>
       <c r="J4" t="n">
-        <v>61032380.95238095</v>
+        <v>96422619.04761904</v>
       </c>
       <c r="K4" t="n">
-        <v>36467619.04761905</v>
+        <v>47777380.95238096</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3740268620268621</v>
+        <v>0.331327191070603</v>
       </c>
     </row>
     <row r="5">
@@ -6786,37 +11439,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>217250000</v>
+        <v>447750000</v>
       </c>
       <c r="C5" t="n">
-        <v>180250000</v>
+        <v>367250000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8296892980437284</v>
+        <v>0.820212171970966</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1703107019562716</v>
+        <v>0.179787828029034</v>
       </c>
       <c r="F5" t="n">
-        <v>31000000</v>
+        <v>53500000</v>
       </c>
       <c r="G5" t="n">
-        <v>211250000</v>
+        <v>420750000</v>
       </c>
       <c r="H5" t="n">
-        <v>100250000</v>
+        <v>174225000</v>
       </c>
       <c r="I5" t="n">
-        <v>63186214.28571428</v>
+        <v>126107428.5714286</v>
       </c>
       <c r="J5" t="n">
-        <v>163436214.2857143</v>
+        <v>300332428.5714286</v>
       </c>
       <c r="K5" t="n">
-        <v>47813785.71428573</v>
+        <v>120417571.4285714</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2263374471682165</v>
+        <v>0.2861974365503777</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V55"/>
+  <dimension ref="A1:V63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2159,7 +2159,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2168,27 +2168,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v/>
-      </c>
-      <c r="F21" t="n">
-        <v/>
-      </c>
-      <c r="G21" t="n">
-        <v/>
-      </c>
-      <c r="H21" t="n">
-        <v/>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Nguyễn Bích Thuỳ</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Khách cũ giới thiệu</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="I21" t="n">
-        <v/>
+        <v>9000000</v>
       </c>
       <c r="J21" t="n">
         <v/>
@@ -2197,43 +2205,47 @@
         <v/>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v/>
+        <v>9000000</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N21" t="n">
         <v/>
       </c>
       <c r="O21" t="n">
-        <v/>
+        <v>9000000</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>9000000</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
-      <c r="S21" t="n">
-        <v/>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T21" t="n">
         <v/>
       </c>
       <c r="U21" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V21" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>08-09-2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2242,35 +2254,35 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t xml:space="preserve">cấy mỡ mặt </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Khách cũ giới thiệu</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="I22" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="J22" t="n">
         <v/>
@@ -2279,41 +2291,41 @@
         <v/>
       </c>
       <c r="L22" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="N22" t="n">
         <v/>
       </c>
       <c r="O22" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="T22" t="n">
         <v/>
       </c>
       <c r="U22" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="23">
@@ -2328,7 +2340,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2337,7 +2349,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">cấy mỡ mặt </t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2356,7 +2368,7 @@
         </is>
       </c>
       <c r="I23" t="n">
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="J23" t="n">
         <v/>
@@ -2365,47 +2377,43 @@
         <v/>
       </c>
       <c r="L23" t="n">
-        <v>36000000</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Thảo</t>
-        </is>
+        <v>40000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v/>
       </c>
       <c r="N23" t="n">
         <v/>
       </c>
       <c r="O23" t="n">
-        <v>36000000</v>
+        <v>14000000</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>36000000</v>
+        <v>14000000</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+        <v>26000000</v>
+      </c>
+      <c r="S23" t="n">
+        <v/>
       </c>
       <c r="T23" t="n">
         <v/>
       </c>
       <c r="U23" t="n">
-        <v/>
+        <v>100000</v>
       </c>
       <c r="V23" t="n">
-        <v/>
+        <v>50000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08-09-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2414,35 +2422,35 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>Thanh nhã</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>40000000</v>
+        <v>5000000</v>
       </c>
       <c r="J24" t="n">
         <v/>
@@ -2451,25 +2459,27 @@
         <v/>
       </c>
       <c r="L24" t="n">
-        <v>40000000</v>
-      </c>
-      <c r="M24" t="n">
-        <v/>
+        <v>5000000</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="N24" t="n">
         <v/>
       </c>
       <c r="O24" t="n">
-        <v>14000000</v>
+        <v>5000000</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>14000000</v>
+        <v>5000000</v>
       </c>
       <c r="R24" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v/>
@@ -2478,16 +2488,16 @@
         <v/>
       </c>
       <c r="U24" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>08-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2496,21 +2506,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Thanh nhã</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2520,11 +2530,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J25" t="n">
         <v/>
@@ -2533,36 +2543,38 @@
         <v/>
       </c>
       <c r="L25" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N25" t="n">
         <v/>
       </c>
       <c r="O25" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
-      <c r="S25" t="n">
-        <v/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
       </c>
       <c r="T25" t="n">
         <v/>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2580,7 +2592,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2589,12 +2601,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2604,11 +2616,11 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="J26" t="n">
         <v/>
@@ -2617,47 +2629,43 @@
         <v/>
       </c>
       <c r="L26" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>4000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v/>
       </c>
       <c r="N26" t="n">
         <v/>
       </c>
       <c r="O26" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
+      <c r="S26" t="n">
+        <v/>
       </c>
       <c r="T26" t="n">
         <v/>
       </c>
       <c r="U26" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>08-12-2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2666,21 +2674,21 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cọc Dịch Vụ Làm Đẹp</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>đố thị ngọc thuý</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2694,52 +2702,56 @@
         </is>
       </c>
       <c r="I27" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J27" t="n">
+        <v/>
+      </c>
+      <c r="K27" t="n">
+        <v/>
+      </c>
+      <c r="L27" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v/>
+      </c>
+      <c r="O27" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P27" t="n">
         <v>4000000</v>
       </c>
-      <c r="J27" t="n">
-        <v/>
-      </c>
-      <c r="K27" t="n">
-        <v/>
-      </c>
-      <c r="L27" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="M27" t="n">
-        <v/>
-      </c>
-      <c r="N27" t="n">
-        <v/>
-      </c>
-      <c r="O27" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>4000000</v>
+        <v>11000000</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
-      <c r="S27" t="n">
-        <v/>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T27" t="n">
         <v/>
       </c>
       <c r="U27" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V27" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2748,11 +2760,11 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2762,7 +2774,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>đố thị ngọc thuý</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2772,11 +2784,11 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>11000000</v>
+        <v>5400000</v>
       </c>
       <c r="J28" t="n">
         <v/>
@@ -2785,32 +2797,30 @@
         <v/>
       </c>
       <c r="L28" t="n">
-        <v>11000000</v>
+        <v>5400000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N28" t="n">
         <v/>
       </c>
       <c r="O28" t="n">
-        <v>7000000</v>
+        <v>5400000</v>
       </c>
       <c r="P28" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>11000000</v>
+        <v>5400000</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
       </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S28" t="n">
+        <v/>
       </c>
       <c r="T28" t="n">
         <v/>
@@ -2834,7 +2844,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2848,21 +2858,21 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="J29" t="n">
         <v/>
@@ -2871,24 +2881,22 @@
         <v/>
       </c>
       <c r="L29" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v/>
       </c>
       <c r="N29" t="n">
         <v/>
       </c>
       <c r="O29" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2909,7 +2917,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2918,35 +2926,35 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>H-Sa</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="J30" t="n">
         <v/>
@@ -2955,37 +2963,43 @@
         <v/>
       </c>
       <c r="L30" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M30" t="n">
-        <v/>
+        <v>38000000</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="N30" t="n">
         <v/>
       </c>
       <c r="O30" t="n">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
-      <c r="S30" t="n">
-        <v/>
-      </c>
-      <c r="T30" t="n">
-        <v/>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="U30" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="31">
@@ -3000,7 +3014,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3009,12 +3023,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>H-Sa</t>
+          <t>Mẹ mai sang</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3024,11 +3038,11 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="J31" t="n">
         <v/>
@@ -3037,24 +3051,24 @@
         <v/>
       </c>
       <c r="L31" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v/>
       </c>
       <c r="O31" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3064,16 +3078,14 @@
           <t>Đào Vương Anh</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="T31" t="n">
+        <v/>
       </c>
       <c r="U31" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="V31" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3088,35 +3100,35 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Mẹ mai sang</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -3125,32 +3137,30 @@
         <v/>
       </c>
       <c r="L32" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v/>
       </c>
       <c r="O32" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S32" t="n">
+        <v/>
       </c>
       <c r="T32" t="n">
         <v/>
@@ -3165,7 +3175,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3174,35 +3184,35 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="J33" t="n">
         <v/>
@@ -3211,39 +3221,43 @@
         <v/>
       </c>
       <c r="L33" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v/>
       </c>
       <c r="O33" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
-      <c r="S33" t="n">
-        <v/>
-      </c>
-      <c r="T33" t="n">
-        <v/>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
       </c>
       <c r="U33" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V33" t="n">
         <v>50000</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3258,7 +3272,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3267,7 +3281,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3286,7 +3300,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>22000000</v>
+        <v>4000000</v>
       </c>
       <c r="J34" t="n">
         <v/>
@@ -3295,24 +3309,24 @@
         <v/>
       </c>
       <c r="L34" t="n">
-        <v>22000000</v>
+        <v>4000000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N34" t="n">
         <v/>
       </c>
       <c r="O34" t="n">
-        <v>22000000</v>
+        <v>4000000</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>22000000</v>
+        <v>4000000</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -3322,16 +3336,14 @@
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
+      <c r="T34" t="n">
+        <v/>
       </c>
       <c r="U34" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V34" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3346,7 +3358,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3355,12 +3367,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
+          <t>ngọc khanh</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3374,7 +3386,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="J35" t="n">
         <v/>
@@ -3383,7 +3395,7 @@
         <v/>
       </c>
       <c r="L35" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3394,21 +3406,19 @@
         <v/>
       </c>
       <c r="O35" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S35" t="n">
+        <v/>
       </c>
       <c r="T35" t="n">
         <v/>
@@ -3432,7 +3442,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3441,12 +3451,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun môi</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>ngọc khanh</t>
+          <t>trương thị vẹn</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3456,11 +3466,11 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J36" t="n">
         <v/>
@@ -3469,24 +3479,22 @@
         <v/>
       </c>
       <c r="L36" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1500000</v>
+      </c>
+      <c r="M36" t="n">
+        <v/>
       </c>
       <c r="N36" t="n">
         <v/>
       </c>
       <c r="O36" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3498,7 +3506,7 @@
         <v/>
       </c>
       <c r="U36" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3516,7 +3524,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3530,7 +3538,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>trương thị vẹn</t>
+          <t xml:space="preserve">mẹ khanh </t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3544,7 +3552,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J37" t="n">
         <v/>
@@ -3553,7 +3561,7 @@
         <v/>
       </c>
       <c r="L37" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="M37" t="n">
         <v/>
@@ -3562,13 +3570,13 @@
         <v/>
       </c>
       <c r="O37" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3598,7 +3606,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3607,12 +3615,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Phun môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t xml:space="preserve">mẹ khanh </t>
+          <t>truương thị luyến</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3626,7 +3634,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="J38" t="n">
         <v/>
@@ -3635,22 +3643,24 @@
         <v/>
       </c>
       <c r="L38" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M38" t="n">
-        <v/>
+        <v>4200000</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N38" t="n">
         <v/>
       </c>
       <c r="O38" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3662,7 +3672,7 @@
         <v/>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3680,21 +3690,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Căng chỉ mặt</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>truương thị luyến</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3704,11 +3714,11 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="J39" t="n">
         <v/>
@@ -3717,45 +3727,47 @@
         <v/>
       </c>
       <c r="L39" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N39" t="n">
         <v/>
       </c>
       <c r="O39" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
-      <c r="S39" t="n">
-        <v/>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T39" t="n">
         <v/>
       </c>
       <c r="U39" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3764,21 +3776,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Căng chỉ mặt</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3792,7 +3804,7 @@
         </is>
       </c>
       <c r="I40" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="J40" t="n">
         <v/>
@@ -3801,41 +3813,43 @@
         <v/>
       </c>
       <c r="L40" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v/>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="O40" t="n">
-        <v>4000000</v>
+        <v>20000000</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="Q40" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="T40" t="n">
         <v/>
       </c>
       <c r="U40" t="n">
-        <v/>
+        <v>150000</v>
       </c>
       <c r="V40" t="n">
-        <v/>
+        <v>100000</v>
       </c>
     </row>
     <row r="41">
@@ -3850,7 +3864,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3859,12 +3873,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Yến</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3874,11 +3888,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="J41" t="n">
         <v/>
@@ -3887,29 +3901,27 @@
         <v/>
       </c>
       <c r="L41" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v/>
       </c>
       <c r="O41" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="R41" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -3920,10 +3932,10 @@
         <v/>
       </c>
       <c r="U41" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="V41" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3938,7 +3950,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3947,12 +3959,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Yến</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3962,11 +3974,11 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="J42" t="n">
         <v/>
@@ -3975,7 +3987,7 @@
         <v/>
       </c>
       <c r="L42" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -3986,16 +3998,16 @@
         <v/>
       </c>
       <c r="O42" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4024,7 +4036,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4033,7 +4045,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Cắt môi</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4052,7 +4064,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J43" t="n">
         <v/>
@@ -4061,7 +4073,7 @@
         <v/>
       </c>
       <c r="L43" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
@@ -4075,13 +4087,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="R43" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4110,7 +4122,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4119,7 +4131,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cắt môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4138,7 +4150,7 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="J44" t="n">
         <v/>
@@ -4147,11 +4159,11 @@
         <v/>
       </c>
       <c r="L44" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N44" t="n">
@@ -4167,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4187,7 +4199,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4196,21 +4208,21 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Tiềm cằm</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4220,11 +4232,11 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>14500000</v>
+        <v>1200000</v>
       </c>
       <c r="J45" t="n">
         <v/>
@@ -4233,38 +4245,36 @@
         <v/>
       </c>
       <c r="L45" t="n">
-        <v>14500000</v>
+        <v>1200000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N45" t="n">
         <v/>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="R45" t="n">
-        <v>14500000</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v/>
       </c>
       <c r="T45" t="n">
         <v/>
       </c>
       <c r="U45" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4273,7 +4283,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4282,7 +4292,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4291,12 +4301,12 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Tiềm cằm</t>
+          <t>Cắt mắt phượng</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4310,7 +4320,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="J46" t="n">
         <v/>
@@ -4319,7 +4329,7 @@
         <v/>
       </c>
       <c r="L46" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4330,25 +4340,27 @@
         <v/>
       </c>
       <c r="O46" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
-      <c r="S46" t="n">
-        <v/>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T46" t="n">
         <v/>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4366,7 +4378,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4375,7 +4387,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cắt mắt phượng</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4394,7 +4406,7 @@
         </is>
       </c>
       <c r="I47" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J47" t="n">
         <v/>
@@ -4403,7 +4415,7 @@
         <v/>
       </c>
       <c r="L47" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4414,13 +4426,13 @@
         <v/>
       </c>
       <c r="O47" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="P47" t="n">
         <v>0</v>
       </c>
       <c r="Q47" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4452,7 +4464,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4466,30 +4478,32 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I48" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J48" t="n">
-        <v/>
-      </c>
       <c r="K48" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="L48" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4500,13 +4514,13 @@
         <v/>
       </c>
       <c r="O48" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="Q48" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -4538,7 +4552,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4547,7 +4561,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4566,18 +4580,16 @@
         </is>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>13000000</v>
+      </c>
+      <c r="J49" t="n">
+        <v/>
       </c>
       <c r="K49" t="n">
-        <v>6000000</v>
+        <v/>
       </c>
       <c r="L49" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4591,10 +4603,10 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="Q49" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4626,35 +4638,27 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Chị Sa</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="E50" t="n">
+        <v/>
+      </c>
+      <c r="F50" t="n">
+        <v/>
+      </c>
+      <c r="G50" t="n">
+        <v/>
+      </c>
+      <c r="H50" t="n">
+        <v/>
       </c>
       <c r="I50" t="n">
-        <v>13000000</v>
+        <v/>
       </c>
       <c r="J50" t="n">
         <v/>
@@ -4663,47 +4667,43 @@
         <v/>
       </c>
       <c r="L50" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v/>
       </c>
       <c r="N50" t="n">
         <v/>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P50" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
       </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S50" t="n">
+        <v/>
       </c>
       <c r="T50" t="n">
         <v/>
       </c>
       <c r="U50" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4712,27 +4712,35 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v/>
-      </c>
-      <c r="F51" t="n">
-        <v/>
-      </c>
-      <c r="G51" t="n">
-        <v/>
-      </c>
-      <c r="H51" t="n">
-        <v/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Hồ Minh Trường</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="I51" t="n">
-        <v/>
+        <v>23300000</v>
       </c>
       <c r="J51" t="n">
         <v/>
@@ -4741,43 +4749,47 @@
         <v/>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="n">
-        <v/>
+        <v>23300000</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="N51" t="n">
         <v/>
       </c>
       <c r="O51" t="n">
-        <v/>
+        <v>23300000</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>0</v>
+        <v>23300000</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
-      <c r="S51" t="n">
-        <v/>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T51" t="n">
         <v/>
       </c>
       <c r="U51" t="n">
-        <v/>
+        <v>100000</v>
       </c>
       <c r="V51" t="n">
-        <v/>
+        <v>50000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4786,78 +4798,74 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Điêu khắc mày</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>Ngọc diễm</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>23300000</v>
+        <v>3000000</v>
       </c>
       <c r="J52" t="n">
         <v/>
       </c>
       <c r="K52" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="L52" t="n">
-        <v>23300000</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+        <v>6000000</v>
+      </c>
+      <c r="M52" t="n">
+        <v/>
       </c>
       <c r="N52" t="n">
         <v/>
       </c>
       <c r="O52" t="n">
-        <v>23300000</v>
+        <v>3000000</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>23300000</v>
+        <v>3000000</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="S52" t="n">
+        <v/>
       </c>
       <c r="T52" t="n">
         <v/>
       </c>
       <c r="U52" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4872,21 +4880,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4896,38 +4904,42 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J53" t="n">
-        <v/>
+        <v/>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="K53" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="L53" t="n">
-        <v>6000000</v>
+        <v>1500000</v>
       </c>
       <c r="M53" t="n">
         <v/>
       </c>
-      <c r="N53" t="n">
-        <v/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
       </c>
       <c r="O53" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
       </c>
       <c r="Q53" t="n">
-        <v>3000000</v>
+        <v>1500000</v>
       </c>
       <c r="R53" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="S53" t="n">
         <v/>
@@ -4936,145 +4948,795 @@
         <v/>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>08-08-2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>674</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sơn thị chành thi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v/>
+      </c>
+      <c r="I54" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="J54" t="n">
+        <v/>
+      </c>
+      <c r="K54" t="n">
+        <v/>
+      </c>
+      <c r="L54" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v/>
+      </c>
+      <c r="O54" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v/>
+      </c>
+      <c r="T54" t="n">
+        <v/>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
           <t>08-23-2024</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B55" t="inlineStr">
         <is>
           <t>HD-LUXURY</t>
         </is>
       </c>
-      <c r="C54" t="n">
-        <v>673</v>
-      </c>
-      <c r="D54" t="inlineStr">
+      <c r="C55" t="n">
+        <v>675</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Đoàn Minh Thư</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v/>
+      </c>
+      <c r="J55" t="n">
+        <v/>
+      </c>
+      <c r="K55" t="n">
+        <v/>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v/>
+      </c>
+      <c r="O55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-1500000</v>
+      </c>
+      <c r="S55" t="n">
+        <v/>
+      </c>
+      <c r="T55" t="n">
+        <v/>
+      </c>
+      <c r="U55" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>676</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Tâm</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="J56" t="n">
+        <v/>
+      </c>
+      <c r="K56" t="n">
+        <v/>
+      </c>
+      <c r="L56" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v/>
+      </c>
+      <c r="O56" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3700000</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v/>
+      </c>
+      <c r="T56" t="n">
+        <v/>
+      </c>
+      <c r="U56" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>677</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SÓC TRĂNG</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="J57" t="n">
+        <v/>
+      </c>
+      <c r="K57" t="n">
+        <v/>
+      </c>
+      <c r="L57" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v/>
+      </c>
+      <c r="O57" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v/>
+      </c>
+      <c r="U57" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>678</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Phun mày</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>thạch thị siêu</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v/>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="F58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="K54" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="M54" t="inlineStr">
+      <c r="I58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="J58" t="n">
+        <v/>
+      </c>
+      <c r="K58" t="n">
+        <v/>
+      </c>
+      <c r="L58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M58" t="n">
+        <v/>
+      </c>
+      <c r="N58" t="n">
+        <v/>
+      </c>
+      <c r="O58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v/>
+      </c>
+      <c r="T58" t="n">
+        <v/>
+      </c>
+      <c r="U58" t="n">
+        <v/>
+      </c>
+      <c r="V58" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>679</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>lý thị thuý vi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
         <is>
           <t>Lê Đình Hậu</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="O54" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="R54" t="n">
-        <v>0</v>
-      </c>
-      <c r="S54" t="n">
-        <v/>
-      </c>
-      <c r="T54" t="n">
-        <v/>
-      </c>
-      <c r="U54" t="n">
-        <v/>
-      </c>
-      <c r="V54" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr">
+      <c r="I59" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J59" t="n">
+        <v/>
+      </c>
+      <c r="K59" t="n">
+        <v/>
+      </c>
+      <c r="L59" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v/>
+      </c>
+      <c r="O59" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v/>
+      </c>
+      <c r="U59" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>680</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">triệu tú kiều </t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="J60" t="n">
+        <v/>
+      </c>
+      <c r="K60" t="n">
+        <v/>
+      </c>
+      <c r="L60" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v/>
+      </c>
+      <c r="O60" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v/>
+      </c>
+      <c r="U60" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>681</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v/>
+      </c>
+      <c r="F61" t="n">
+        <v/>
+      </c>
+      <c r="G61" t="n">
+        <v/>
+      </c>
+      <c r="H61" t="n">
+        <v/>
+      </c>
+      <c r="I61" t="n">
+        <v/>
+      </c>
+      <c r="J61" t="n">
+        <v/>
+      </c>
+      <c r="K61" t="n">
+        <v/>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v/>
+      </c>
+      <c r="N61" t="n">
+        <v/>
+      </c>
+      <c r="O61" t="n">
+        <v/>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0</v>
+      </c>
+      <c r="S61" t="n">
+        <v/>
+      </c>
+      <c r="T61" t="n">
+        <v/>
+      </c>
+      <c r="U61" t="n">
+        <v/>
+      </c>
+      <c r="V61" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>682</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v/>
+      </c>
+      <c r="F62" t="n">
+        <v/>
+      </c>
+      <c r="G62" t="n">
+        <v/>
+      </c>
+      <c r="H62" t="n">
+        <v/>
+      </c>
+      <c r="I62" t="n">
+        <v/>
+      </c>
+      <c r="J62" t="n">
+        <v/>
+      </c>
+      <c r="K62" t="n">
+        <v/>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v/>
+      </c>
+      <c r="N62" t="n">
+        <v/>
+      </c>
+      <c r="O62" t="n">
+        <v/>
+      </c>
+      <c r="P62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v/>
+      </c>
+      <c r="T62" t="n">
+        <v/>
+      </c>
+      <c r="U62" t="n">
+        <v/>
+      </c>
+      <c r="V62" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr"/>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C55" t="n">
-        <v>53</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="n">
-        <v>423750000</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>457450000</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
         <v>24000000</v>
       </c>
-      <c r="L55" t="n">
-        <v>447750000</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>342250000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>367250000</v>
-      </c>
-      <c r="R55" t="n">
-        <v>80500000</v>
-      </c>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="V55" t="n">
+      <c r="L63" t="n">
+        <v>481450000</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="n">
+        <v>377450000</v>
+      </c>
+      <c r="P63" t="n">
+        <v>45000000</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>422450000</v>
+      </c>
+      <c r="R63" t="n">
+        <v>59000000</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="n">
+        <v>2650000</v>
+      </c>
+      <c r="V63" t="n">
         <v>550000</v>
       </c>
     </row>
@@ -5089,7 +5751,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5851,18 +6513,150 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>194</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2024-05-08</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>195</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-660</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>196</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-663</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2024-08-17</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>197</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2024-07-11</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>22</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="n">
-        <v>66000000</v>
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>89000000</v>
       </c>
     </row>
   </sheetData>
@@ -5876,7 +6670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7378,7 +8172,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1050000</v>
+        <v>1000000</v>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -8011,7 +8805,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8020,16 +8814,16 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>130000</v>
+        <v>1000000</v>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -8042,7 +8836,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8056,11 +8850,11 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -8073,7 +8867,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8087,11 +8881,11 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5000000</v>
+        <v>580000</v>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -8104,7 +8898,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8118,11 +8912,11 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>580000</v>
+        <v>750000</v>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -8135,7 +8929,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8144,16 +8938,16 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>750000</v>
+        <v>300000</v>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -8166,7 +8960,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8184,7 +8978,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>300000</v>
+        <v>150000</v>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -8197,25 +8991,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>150000</v>
+        <v>2000000</v>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -8228,7 +9022,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8242,11 +9036,11 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>2000000</v>
+        <v>380000</v>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -8259,7 +9053,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8273,11 +9067,11 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>380000</v>
+        <v>2467000</v>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -8290,7 +9084,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8299,16 +9093,16 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>2467000</v>
+        <v>600000</v>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -8321,7 +9115,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8335,11 +9129,11 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>600000</v>
+        <v>2550000</v>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -8352,11 +9146,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -8366,11 +9160,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>2550000</v>
+        <v>3750000</v>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -8383,7 +9177,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -8401,7 +9195,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>3750000</v>
+        <v>100000</v>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -8414,7 +9208,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -8428,11 +9222,11 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -8445,7 +9239,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -8476,7 +9270,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -8488,13 +9282,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>Ứng Lương</t>
-        </is>
+      <c r="E84" t="n">
+        <v/>
       </c>
       <c r="F84" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -8507,11 +9299,11 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -8519,11 +9311,13 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E85" t="n">
-        <v/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
       </c>
       <c r="F85" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -8536,7 +9330,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -8554,7 +9348,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1000000</v>
+        <v>1800000</v>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -8567,7 +9361,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -8581,11 +9375,11 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1800000</v>
+        <v>2500000</v>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -8598,7 +9392,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -8607,16 +9401,16 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>2500000</v>
+        <v>100000</v>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -8629,7 +9423,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -8643,11 +9437,11 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>100000</v>
+        <v>400000</v>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -8660,7 +9454,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -8674,11 +9468,11 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>400000</v>
+        <v>67000</v>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -8691,25 +9485,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>67000</v>
+        <v>845000</v>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -8722,7 +9516,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -8736,11 +9530,11 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>845000</v>
+        <v>1000000</v>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -8753,16 +9547,16 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -8784,7 +9578,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -8802,7 +9596,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1000000</v>
+        <v>3000000</v>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -8815,7 +9609,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -8829,11 +9623,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>3000000</v>
+        <v>160000</v>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -8846,7 +9640,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -8855,16 +9649,16 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>160000</v>
+        <v>2000000</v>
       </c>
       <c r="G96" t="n">
         <v/>
@@ -8877,11 +9671,11 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -8891,11 +9685,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>2000000</v>
+        <v>200000</v>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -8908,28 +9702,30 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>200000</v>
-      </c>
-      <c r="G98" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>anh linh lấy tiền mặt</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -8939,16 +9735,16 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -8957,12 +9753,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>anh linh lấy tiền mặt</t>
-        </is>
+        <v>300000</v>
+      </c>
+      <c r="G99" t="n">
+        <v/>
       </c>
     </row>
     <row r="100">
@@ -8972,25 +9766,25 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>300000</v>
+        <v>750000</v>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -9003,7 +9797,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -9017,11 +9811,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>750000</v>
+        <v>240000</v>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -9034,7 +9828,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -9043,16 +9837,16 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>240000</v>
+        <v>510000</v>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -9061,19 +9855,329 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>844</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>350000</v>
+      </c>
+      <c r="G103" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>845</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="G104" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>846</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="G105" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>847</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>210000</v>
+      </c>
+      <c r="G106" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>848</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>300000</v>
+      </c>
+      <c r="G107" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>849</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G108" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>850</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G109" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>851</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>108000</v>
+      </c>
+      <c r="G110" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>852</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1470000</v>
+      </c>
+      <c r="G111" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>853</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>50000</v>
+      </c>
+      <c r="G112" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B103" t="n">
-        <v>101</v>
-      </c>
-      <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
-        <v>174225000</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="n">
+        <v>189843000</v>
+      </c>
+      <c r="G113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9295,16 +10399,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -9381,7 +10485,7 @@
         <v>100000</v>
       </c>
       <c r="J8" t="n">
-        <v>1500000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="9">
@@ -9391,13 +10495,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>122500000</v>
+        <v>118500000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>71900000</v>
+        <v>88900000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -9415,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>16000000</v>
+        <v>38000000</v>
       </c>
     </row>
     <row r="10">
@@ -9493,7 +10597,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>75000000</v>
+        <v>105000000</v>
       </c>
       <c r="C12" t="n">
         <v>1500000</v>
@@ -9533,7 +10637,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>107400000</v>
+        <v>129600000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -9601,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>89300000</v>
+        <v>85300000</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -9743,10 +10847,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -9833,7 +10937,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>24600000</v>
+        <v>28300000</v>
       </c>
       <c r="C22" t="n">
         <v>13500000</v>
@@ -9867,22 +10971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>421750000</v>
+        <v>451450000</v>
       </c>
       <c r="C23" t="n">
         <v>21000000</v>
       </c>
       <c r="D23" t="n">
-        <v>320250000</v>
+        <v>359450000</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G23" t="n">
-        <v>1950000</v>
+        <v>2100000</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -9891,7 +10995,7 @@
         <v>150000</v>
       </c>
       <c r="J23" t="n">
-        <v>64000000</v>
+        <v>87000000</v>
       </c>
     </row>
   </sheetData>
@@ -9932,7 +11036,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28620000</v>
+        <v>31390000</v>
       </c>
     </row>
     <row r="3">
@@ -9952,7 +11056,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11830000</v>
+        <v>12100000</v>
       </c>
     </row>
     <row r="5">
@@ -9962,7 +11066,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>43657000</v>
+        <v>45467000</v>
       </c>
     </row>
     <row r="6">
@@ -9992,7 +11096,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6859000</v>
+        <v>7177000</v>
       </c>
     </row>
     <row r="9">
@@ -10002,7 +11106,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63762000</v>
+        <v>74212000</v>
       </c>
     </row>
     <row r="10">
@@ -10022,7 +11126,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>174225000</v>
+        <v>189843000</v>
       </c>
     </row>
   </sheetData>
@@ -10036,7 +11140,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10244,7 +11348,7 @@
         <v>7000000</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -10263,13 +11367,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9000000</v>
+        <v>13000000</v>
       </c>
       <c r="C9" t="n">
-        <v>9000000</v>
+        <v>13000000</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10278,7 +11382,7 @@
         <v>24200000</v>
       </c>
       <c r="G9" t="n">
-        <v>-15200000</v>
+        <v>-11200000</v>
       </c>
     </row>
     <row r="10">
@@ -10375,10 +11479,10 @@
         <v>3000000</v>
       </c>
       <c r="F13" t="n">
-        <v>25730000</v>
+        <v>25680000</v>
       </c>
       <c r="G13" t="n">
-        <v>-15730000</v>
+        <v>-15680000</v>
       </c>
     </row>
     <row r="14">
@@ -10463,10 +11567,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37700000</v>
+        <v>33700000</v>
       </c>
       <c r="C17" t="n">
-        <v>37700000</v>
+        <v>33700000</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -10475,10 +11579,10 @@
         <v>500000</v>
       </c>
       <c r="F17" t="n">
-        <v>7910000</v>
+        <v>7780000</v>
       </c>
       <c r="G17" t="n">
-        <v>30290000</v>
+        <v>26420000</v>
       </c>
     </row>
     <row r="18">
@@ -10613,47 +11717,97 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7500000</v>
+        <v>11200000</v>
       </c>
       <c r="C23" t="n">
-        <v>4500000</v>
+        <v>9700000</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="F23" t="n">
-        <v>1190000</v>
+        <v>2050000</v>
       </c>
       <c r="G23" t="n">
-        <v>3310000</v>
+        <v>9650000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="n">
+        <v>21000000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>12810000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>38190000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2128000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2128000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>447750000</v>
-      </c>
-      <c r="C24" t="n">
-        <v>342250000</v>
-      </c>
-      <c r="D24" t="n">
-        <v>53</v>
-      </c>
-      <c r="E24" t="n">
-        <v>66000000</v>
-      </c>
-      <c r="F24" t="n">
-        <v>174225000</v>
-      </c>
-      <c r="G24" t="n">
-        <v>234025000</v>
+      <c r="B26" t="n">
+        <v>481450000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>377450000</v>
+      </c>
+      <c r="D26" t="n">
+        <v>61</v>
+      </c>
+      <c r="E26" t="n">
+        <v>89000000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>189843000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>276607000</v>
       </c>
     </row>
   </sheetData>
@@ -10719,7 +11873,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7550214.285714285</v>
+        <v>7880214.285714285</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -10728,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7550214.285714285</v>
+        <v>7880214.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -10767,7 +11921,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>199285.7142857141</v>
+        <v>489285.7142857141</v>
       </c>
       <c r="D4" t="n">
         <v>100000</v>
@@ -10776,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>299285.7142857141</v>
+        <v>589285.7142857141</v>
       </c>
     </row>
     <row r="5">
@@ -10887,16 +12041,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>11841000</v>
+        <v>12257000</v>
       </c>
       <c r="D9" t="n">
-        <v>3157142.857142857</v>
+        <v>3657142.857142857</v>
       </c>
       <c r="E9" t="n">
-        <v>3477142.857142857</v>
+        <v>4677142.857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>18475285.71428572</v>
+        <v>20591285.71428572</v>
       </c>
     </row>
     <row r="10">
@@ -10911,16 +12065,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6374047.619047619</v>
+        <v>6794047.619047619</v>
       </c>
       <c r="D10" t="n">
-        <v>10619047.61904762</v>
+        <v>14269047.61904762</v>
       </c>
       <c r="E10" t="n">
-        <v>9919047.619047619</v>
+        <v>11219047.61904762</v>
       </c>
       <c r="F10" t="n">
-        <v>26912142.85714286</v>
+        <v>32282142.85714286</v>
       </c>
     </row>
     <row r="11">
@@ -10935,16 +12089,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3046785.714285715</v>
+        <v>3166785.714285716</v>
       </c>
       <c r="D11" t="n">
-        <v>2860714.285714285</v>
+        <v>3760714.285714285</v>
       </c>
       <c r="E11" t="n">
-        <v>4789285.714285715</v>
+        <v>4389285.714285715</v>
       </c>
       <c r="F11" t="n">
-        <v>10696785.71428571</v>
+        <v>11316785.71428572</v>
       </c>
     </row>
     <row r="12">
@@ -11010,13 +12164,13 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>2878571.428571429</v>
+        <v>2928571.428571429</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3578571.428571429</v>
+        <v>3628571.428571429</v>
       </c>
     </row>
     <row r="15">
@@ -11082,13 +12236,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1728571.428571429</v>
+        <v>1228571.428571429</v>
       </c>
     </row>
     <row r="18">
@@ -11109,10 +12263,10 @@
         <v>5700000</v>
       </c>
       <c r="E18" t="n">
-        <v>5987142.857142857</v>
+        <v>-2857.142857141793</v>
       </c>
       <c r="F18" t="n">
-        <v>13797142.85714286</v>
+        <v>7807142.857142858</v>
       </c>
     </row>
     <row r="19">
@@ -11133,10 +12287,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
       <c r="F19" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
     </row>
     <row r="20">
@@ -11157,10 +12311,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
       <c r="F20" t="n">
-        <v>-3721428.571428571</v>
+        <v>-3671428.571428571</v>
       </c>
     </row>
     <row r="21">
@@ -11219,16 +12373,16 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>42322190.47619048</v>
+        <v>43898190.47619048</v>
       </c>
       <c r="D23" t="n">
-        <v>43557619.04761904</v>
+        <v>48157619.04761904</v>
       </c>
       <c r="E23" t="n">
-        <v>40227619.04761904</v>
+        <v>36887619.04761904</v>
       </c>
       <c r="F23" t="n">
-        <v>126107428.5714286</v>
+        <v>128943428.5714286</v>
       </c>
     </row>
   </sheetData>
@@ -11319,37 +12473,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153050000</v>
+        <v>156750000</v>
       </c>
       <c r="C2" t="n">
-        <v>145050000</v>
+        <v>150250000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9477295001633453</v>
+        <v>0.9585326953748007</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05227049983665466</v>
+        <v>0.04146730462519932</v>
       </c>
       <c r="F2" t="n">
-        <v>26000000</v>
+        <v>29000000</v>
       </c>
       <c r="G2" t="n">
-        <v>171050000</v>
+        <v>179250000</v>
       </c>
       <c r="H2" t="n">
-        <v>93345000</v>
+        <v>94205000</v>
       </c>
       <c r="I2" t="n">
-        <v>42322190.47619048</v>
+        <v>43898190.47619048</v>
       </c>
       <c r="J2" t="n">
-        <v>135667190.4761905</v>
+        <v>138103190.4761905</v>
       </c>
       <c r="K2" t="n">
-        <v>35382809.52380952</v>
+        <v>41146809.52380952</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2068565303935079</v>
+        <v>0.2295498439264129</v>
       </c>
     </row>
     <row r="3">
@@ -11362,34 +12516,34 @@
         <v>135500000</v>
       </c>
       <c r="C3" t="n">
-        <v>91000000</v>
+        <v>111000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6715867158671587</v>
+        <v>0.8191881918819188</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3284132841328413</v>
+        <v>0.1808118081180812</v>
       </c>
       <c r="F3" t="n">
         <v>2000000</v>
       </c>
       <c r="G3" t="n">
-        <v>93000000</v>
+        <v>113000000</v>
       </c>
       <c r="H3" t="n">
-        <v>24685000</v>
+        <v>26633000</v>
       </c>
       <c r="I3" t="n">
-        <v>43557619.04761904</v>
+        <v>48157619.04761904</v>
       </c>
       <c r="J3" t="n">
-        <v>68242619.04761904</v>
+        <v>74790619.04761904</v>
       </c>
       <c r="K3" t="n">
-        <v>24757380.95238096</v>
+        <v>38209380.95238096</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2662083973374296</v>
+        <v>0.3381361146228403</v>
       </c>
     </row>
     <row r="4">
@@ -11399,37 +12553,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159200000</v>
+        <v>189200000</v>
       </c>
       <c r="C4" t="n">
-        <v>131200000</v>
+        <v>161200000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8241206030150754</v>
+        <v>0.8520084566596194</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1758793969849246</v>
+        <v>0.1479915433403806</v>
       </c>
       <c r="F4" t="n">
         <v>13000000</v>
       </c>
       <c r="G4" t="n">
-        <v>144200000</v>
+        <v>174200000</v>
       </c>
       <c r="H4" t="n">
-        <v>56195000</v>
+        <v>69005000</v>
       </c>
       <c r="I4" t="n">
-        <v>40227619.04761904</v>
+        <v>36887619.04761904</v>
       </c>
       <c r="J4" t="n">
-        <v>96422619.04761904</v>
+        <v>105892619.047619</v>
       </c>
       <c r="K4" t="n">
-        <v>47777380.95238096</v>
+        <v>68307380.95238096</v>
       </c>
       <c r="L4" t="n">
-        <v>0.331327191070603</v>
+        <v>0.3921204417473074</v>
       </c>
     </row>
     <row r="5">
@@ -11439,37 +12593,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>447750000</v>
+        <v>481450000</v>
       </c>
       <c r="C5" t="n">
-        <v>367250000</v>
+        <v>422450000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.820212171970966</v>
+        <v>0.8774535258074566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.179787828029034</v>
+        <v>0.1225464741925434</v>
       </c>
       <c r="F5" t="n">
-        <v>53500000</v>
+        <v>66500000</v>
       </c>
       <c r="G5" t="n">
-        <v>420750000</v>
+        <v>488950000</v>
       </c>
       <c r="H5" t="n">
-        <v>174225000</v>
+        <v>189843000</v>
       </c>
       <c r="I5" t="n">
-        <v>126107428.5714286</v>
+        <v>128943428.5714286</v>
       </c>
       <c r="J5" t="n">
-        <v>300332428.5714286</v>
+        <v>318786428.5714286</v>
       </c>
       <c r="K5" t="n">
-        <v>120417571.4285714</v>
+        <v>170163571.4285714</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2861974365503777</v>
+        <v>0.3480183483558061</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5693,51 +5693,477 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>683</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Nguyễn Đặng Thảo Nhi</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="J63" t="n">
+        <v/>
+      </c>
+      <c r="K63" t="n">
+        <v/>
+      </c>
+      <c r="L63" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v/>
+      </c>
+      <c r="O63" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v/>
+      </c>
+      <c r="T63" t="n">
+        <v/>
+      </c>
+      <c r="U63" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>684</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Như Ý</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J64" t="n">
+        <v/>
+      </c>
+      <c r="K64" t="n">
+        <v/>
+      </c>
+      <c r="L64" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="R64" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v/>
+      </c>
+      <c r="U64" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V64" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>685</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thoa</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="J65" t="n">
+        <v/>
+      </c>
+      <c r="K65" t="n">
+        <v/>
+      </c>
+      <c r="L65" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v/>
+      </c>
+      <c r="O65" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v/>
+      </c>
+      <c r="T65" t="n">
+        <v/>
+      </c>
+      <c r="U65" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>686</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v/>
+      </c>
+      <c r="O66" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0</v>
+      </c>
+      <c r="S66" t="n">
+        <v/>
+      </c>
+      <c r="T66" t="n">
+        <v/>
+      </c>
+      <c r="U66" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>687</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J67" t="n">
+        <v/>
+      </c>
+      <c r="K67" t="n">
+        <v/>
+      </c>
+      <c r="L67" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v/>
+      </c>
+      <c r="O67" t="n">
+        <v/>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="S67" t="n">
+        <v/>
+      </c>
+      <c r="T67" t="n">
+        <v/>
+      </c>
+      <c r="U67" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr"/>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C63" t="n">
-        <v>61</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="n">
-        <v>457450000</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="L63" t="n">
-        <v>481450000</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="n">
-        <v>377450000</v>
-      </c>
-      <c r="P63" t="n">
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>503050000</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="L68" t="n">
+        <v>531050000</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="n">
+        <v>413050000</v>
+      </c>
+      <c r="P68" t="n">
         <v>45000000</v>
       </c>
-      <c r="Q63" t="n">
-        <v>422450000</v>
-      </c>
-      <c r="R63" t="n">
-        <v>59000000</v>
-      </c>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="n">
-        <v>2650000</v>
-      </c>
-      <c r="V63" t="n">
-        <v>550000</v>
+      <c r="Q68" t="n">
+        <v>458050000</v>
+      </c>
+      <c r="R68" t="n">
+        <v>73000000</v>
+      </c>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="n">
+        <v>2950000</v>
+      </c>
+      <c r="V68" t="n">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
@@ -6670,7 +7096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10165,19 +10591,234 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>854</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v/>
+      </c>
+      <c r="F113" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G113" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>855</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>75000</v>
+      </c>
+      <c r="G114" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>856</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>120000</v>
+      </c>
+      <c r="G115" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>857</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>260000</v>
+      </c>
+      <c r="G116" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>858</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G117" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>859</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>2868000</v>
+      </c>
+      <c r="G118" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>860</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>117000</v>
+      </c>
+      <c r="G119" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B113" t="n">
-        <v>111</v>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
-        <v>189843000</v>
-      </c>
-      <c r="G113" t="inlineStr"/>
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="n">
+        <v>198433000</v>
+      </c>
+      <c r="G120" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10473,10 +11114,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>800000</v>
+        <v>900000</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -10495,13 +11136,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>118500000</v>
+        <v>159500000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>88900000</v>
+        <v>91700000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -10637,7 +11278,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>129600000</v>
+        <v>135400000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -10937,10 +11578,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28300000</v>
+        <v>32900000</v>
       </c>
       <c r="C22" t="n">
-        <v>13500000</v>
+        <v>17500000</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -10971,22 +11612,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>451450000</v>
+        <v>497050000</v>
       </c>
       <c r="C23" t="n">
-        <v>21000000</v>
+        <v>25000000</v>
       </c>
       <c r="D23" t="n">
-        <v>359450000</v>
+        <v>368050000</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="n">
-        <v>2100000</v>
+        <v>2200000</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -11056,7 +11697,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12100000</v>
+        <v>14968000</v>
       </c>
     </row>
     <row r="5">
@@ -11066,7 +11707,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45467000</v>
+        <v>45587000</v>
       </c>
     </row>
     <row r="6">
@@ -11096,7 +11737,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7177000</v>
+        <v>7779000</v>
       </c>
     </row>
     <row r="9">
@@ -11116,7 +11757,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="11">
@@ -11126,7 +11767,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>189843000</v>
+        <v>198433000</v>
       </c>
     </row>
   </sheetData>
@@ -11140,7 +11781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11767,47 +12408,72 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>43600000</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>35600000</v>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2128000</v>
+        <v>7733000</v>
       </c>
       <c r="G25" t="n">
-        <v>-2128000</v>
+        <v>27867000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2985000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2985000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>481450000</v>
-      </c>
-      <c r="C26" t="n">
-        <v>377450000</v>
-      </c>
-      <c r="D26" t="n">
-        <v>61</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="B27" t="n">
+        <v>531050000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>413050000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>66</v>
+      </c>
+      <c r="E27" t="n">
         <v>89000000</v>
       </c>
-      <c r="F26" t="n">
-        <v>189843000</v>
-      </c>
-      <c r="G26" t="n">
-        <v>276607000</v>
+      <c r="F27" t="n">
+        <v>198433000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>303617000</v>
       </c>
     </row>
   </sheetData>
@@ -11873,7 +12539,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7880214.285714285</v>
+        <v>9347714.285714285</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -11882,7 +12548,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7880214.285714285</v>
+        <v>9347714.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -11897,16 +12563,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-3128571.428571429</v>
+        <v>-2700000</v>
       </c>
       <c r="D3" t="n">
-        <v>1214285.714285714</v>
+        <v>1500000</v>
       </c>
       <c r="E3" t="n">
-        <v>2491428.571428571</v>
+        <v>2920000</v>
       </c>
       <c r="F3" t="n">
-        <v>577142.857142857</v>
+        <v>1720000.000000001</v>
       </c>
     </row>
     <row r="4">
@@ -11921,7 +12587,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>489285.7142857141</v>
+        <v>803571.4285714286</v>
       </c>
       <c r="D4" t="n">
         <v>100000</v>
@@ -11930,7 +12596,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>589285.7142857141</v>
+        <v>903571.4285714286</v>
       </c>
     </row>
     <row r="5">
@@ -11945,16 +12611,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1571428.571428572</v>
+        <v>1857142.857142857</v>
       </c>
       <c r="D5" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
       <c r="E5" t="n">
-        <v>2357142.857142857</v>
+        <v>2785714.285714286</v>
       </c>
       <c r="F5" t="n">
-        <v>6285714.285714286</v>
+        <v>7428571.428571429</v>
       </c>
     </row>
     <row r="6">
@@ -11969,7 +12635,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4714285.714285715</v>
+        <v>5571428.571428572</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -11978,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4714285.714285715</v>
+        <v>5571428.571428572</v>
       </c>
     </row>
     <row r="7">
@@ -12017,7 +12683,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -12026,7 +12692,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -12041,7 +12707,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12257000</v>
+        <v>14003857.14285714</v>
       </c>
       <c r="D9" t="n">
         <v>3657142.857142857</v>
@@ -12050,7 +12716,7 @@
         <v>4677142.857142857</v>
       </c>
       <c r="F9" t="n">
-        <v>20591285.71428572</v>
+        <v>22338142.85714286</v>
       </c>
     </row>
     <row r="10">
@@ -12065,16 +12731,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6794047.619047619</v>
+        <v>13360238.0952381</v>
       </c>
       <c r="D10" t="n">
-        <v>14269047.61904762</v>
+        <v>14745238.0952381</v>
       </c>
       <c r="E10" t="n">
-        <v>11219047.61904762</v>
+        <v>11695238.0952381</v>
       </c>
       <c r="F10" t="n">
-        <v>32282142.85714286</v>
+        <v>39800714.28571428</v>
       </c>
     </row>
     <row r="11">
@@ -12089,16 +12755,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3166785.714285716</v>
+        <v>4913214.285714284</v>
       </c>
       <c r="D11" t="n">
-        <v>3760714.285714285</v>
+        <v>4082142.857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>4389285.714285715</v>
+        <v>4710714.285714285</v>
       </c>
       <c r="F11" t="n">
-        <v>11316785.71428572</v>
+        <v>13706071.42857143</v>
       </c>
     </row>
     <row r="12">
@@ -12113,16 +12779,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>8143714.285714285</v>
+        <v>10426571.42857143</v>
       </c>
       <c r="D12" t="n">
-        <v>7857142.857142857</v>
+        <v>9285714.285714285</v>
       </c>
       <c r="E12" t="n">
-        <v>11785714.28571429</v>
+        <v>13928571.42857143</v>
       </c>
       <c r="F12" t="n">
-        <v>27786571.42857143</v>
+        <v>33640857.14285715</v>
       </c>
     </row>
     <row r="13">
@@ -12140,13 +12806,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1107142.857142856</v>
+        <v>-535714.2857142854</v>
       </c>
     </row>
     <row r="14">
@@ -12164,13 +12830,13 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>2928571.428571429</v>
+        <v>3285714.285714285</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3628571.428571429</v>
+        <v>3985714.285714285</v>
       </c>
     </row>
     <row r="15">
@@ -12188,13 +12854,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>507142.8571428573</v>
+        <v>792857.1428571432</v>
       </c>
     </row>
     <row r="16">
@@ -12212,13 +12878,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5685000</v>
+        <v>5898571.428571429</v>
       </c>
     </row>
     <row r="17">
@@ -12236,13 +12902,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1228571.428571429</v>
+        <v>1512857.142857143</v>
       </c>
     </row>
     <row r="18">
@@ -12257,16 +12923,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2110000</v>
+        <v>2350000</v>
       </c>
       <c r="D18" t="n">
         <v>5700000</v>
       </c>
       <c r="E18" t="n">
-        <v>-2857.142857141793</v>
+        <v>4630714.285714285</v>
       </c>
       <c r="F18" t="n">
-        <v>7807142.857142858</v>
+        <v>12680714.28571429</v>
       </c>
     </row>
     <row r="19">
@@ -12287,10 +12953,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
       <c r="F19" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
     <row r="20">
@@ -12311,10 +12977,10 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
       <c r="F20" t="n">
-        <v>-3671428.571428571</v>
+        <v>-1537142.857142857</v>
       </c>
     </row>
     <row r="21">
@@ -12335,10 +13001,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>2014285.714285714</v>
+        <v>4514285.714285715</v>
       </c>
       <c r="F21" t="n">
-        <v>2014285.714285714</v>
+        <v>4514285.714285715</v>
       </c>
     </row>
     <row r="22">
@@ -12359,10 +13025,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1279285.714285714</v>
+        <v>2913928.571428571</v>
       </c>
       <c r="F22" t="n">
-        <v>1279285.714285714</v>
+        <v>2913928.571428571</v>
       </c>
     </row>
     <row r="23">
@@ -12373,16 +13039,16 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>43898190.47619048</v>
+        <v>60833738.0952381</v>
       </c>
       <c r="D23" t="n">
-        <v>48157619.04761904</v>
+        <v>52810238.0952381</v>
       </c>
       <c r="E23" t="n">
-        <v>36887619.04761904</v>
+        <v>54133452.38095239</v>
       </c>
       <c r="F23" t="n">
-        <v>128943428.5714286</v>
+        <v>167777428.5714285</v>
       </c>
     </row>
   </sheetData>
@@ -12473,37 +13139,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156750000</v>
+        <v>200350000</v>
       </c>
       <c r="C2" t="n">
-        <v>150250000</v>
+        <v>185850000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9585326953748007</v>
+        <v>0.9276266533566259</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04146730462519932</v>
+        <v>0.07237334664337414</v>
       </c>
       <c r="F2" t="n">
         <v>29000000</v>
       </c>
       <c r="G2" t="n">
-        <v>179250000</v>
+        <v>214850000</v>
       </c>
       <c r="H2" t="n">
-        <v>94205000</v>
+        <v>99810000</v>
       </c>
       <c r="I2" t="n">
-        <v>43898190.47619048</v>
+        <v>60833738.0952381</v>
       </c>
       <c r="J2" t="n">
-        <v>138103190.4761905</v>
+        <v>160643738.0952381</v>
       </c>
       <c r="K2" t="n">
-        <v>41146809.52380952</v>
+        <v>54206261.90476191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2295498439264129</v>
+        <v>0.2522981703735718</v>
       </c>
     </row>
     <row r="3">
@@ -12513,16 +13179,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>135500000</v>
+        <v>141500000</v>
       </c>
       <c r="C3" t="n">
         <v>111000000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8191881918819188</v>
+        <v>0.784452296819788</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1808118081180812</v>
+        <v>0.215547703180212</v>
       </c>
       <c r="F3" t="n">
         <v>2000000</v>
@@ -12531,19 +13197,19 @@
         <v>113000000</v>
       </c>
       <c r="H3" t="n">
-        <v>26633000</v>
+        <v>29618000</v>
       </c>
       <c r="I3" t="n">
-        <v>48157619.04761904</v>
+        <v>52810238.0952381</v>
       </c>
       <c r="J3" t="n">
-        <v>74790619.04761904</v>
+        <v>82428238.09523809</v>
       </c>
       <c r="K3" t="n">
-        <v>38209380.95238096</v>
+        <v>30571761.90476191</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3381361146228403</v>
+        <v>0.2705465655288665</v>
       </c>
     </row>
     <row r="4">
@@ -12574,16 +13240,16 @@
         <v>69005000</v>
       </c>
       <c r="I4" t="n">
-        <v>36887619.04761904</v>
+        <v>54133452.38095239</v>
       </c>
       <c r="J4" t="n">
-        <v>105892619.047619</v>
+        <v>123138452.3809524</v>
       </c>
       <c r="K4" t="n">
-        <v>68307380.95238096</v>
+        <v>51061547.61904761</v>
       </c>
       <c r="L4" t="n">
-        <v>0.3921204417473074</v>
+        <v>0.2931202503963697</v>
       </c>
     </row>
     <row r="5">
@@ -12593,37 +13259,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>481450000</v>
+        <v>531050000</v>
       </c>
       <c r="C5" t="n">
-        <v>422450000</v>
+        <v>458050000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8774535258074566</v>
+        <v>0.86253648432351</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1225464741925434</v>
+        <v>0.13746351567649</v>
       </c>
       <c r="F5" t="n">
         <v>66500000</v>
       </c>
       <c r="G5" t="n">
-        <v>488950000</v>
+        <v>524550000</v>
       </c>
       <c r="H5" t="n">
-        <v>189843000</v>
+        <v>198433000</v>
       </c>
       <c r="I5" t="n">
-        <v>128943428.5714286</v>
+        <v>167777428.5714285</v>
       </c>
       <c r="J5" t="n">
-        <v>318786428.5714286</v>
+        <v>366210428.5714285</v>
       </c>
       <c r="K5" t="n">
-        <v>170163571.4285714</v>
+        <v>158339571.4285715</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3480183483558061</v>
+        <v>0.3018579190326403</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V68"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6119,50 +6119,218 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>688</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>C.hạnh</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="J68" t="n">
+        <v/>
+      </c>
+      <c r="K68" t="n">
+        <v/>
+      </c>
+      <c r="L68" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v/>
+      </c>
+      <c r="O68" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v/>
+      </c>
+      <c r="U68" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>689</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Cầm dương</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="J69" t="n">
+        <v/>
+      </c>
+      <c r="K69" t="n">
+        <v/>
+      </c>
+      <c r="L69" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="M69" t="n">
+        <v/>
+      </c>
+      <c r="N69" t="n">
+        <v/>
+      </c>
+      <c r="O69" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R69" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="S69" t="n">
+        <v/>
+      </c>
+      <c r="T69" t="n">
+        <v/>
+      </c>
+      <c r="U69" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr"/>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C68" t="n">
-        <v>66</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="n">
-        <v>503050000</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>522550000</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
         <v>28000000</v>
       </c>
-      <c r="L68" t="n">
-        <v>531050000</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="n">
-        <v>413050000</v>
-      </c>
-      <c r="P68" t="n">
+      <c r="L70" t="n">
+        <v>550550000</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="n">
+        <v>420550000</v>
+      </c>
+      <c r="P70" t="n">
         <v>45000000</v>
       </c>
-      <c r="Q68" t="n">
-        <v>458050000</v>
-      </c>
-      <c r="R68" t="n">
-        <v>73000000</v>
-      </c>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="n">
-        <v>2950000</v>
-      </c>
-      <c r="V68" t="n">
+      <c r="Q70" t="n">
+        <v>465550000</v>
+      </c>
+      <c r="R70" t="n">
+        <v>85000000</v>
+      </c>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="V70" t="n">
         <v>600000</v>
       </c>
     </row>
@@ -7096,7 +7264,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10806,19 +10974,81 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>861</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>157000</v>
+      </c>
+      <c r="G120" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>862</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G121" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B120" t="n">
-        <v>118</v>
-      </c>
-      <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="n">
-        <v>198433000</v>
-      </c>
-      <c r="G120" t="inlineStr"/>
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="n">
+        <v>199390000</v>
+      </c>
+      <c r="G122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11278,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>135400000</v>
+        <v>140900000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11306,7 +11536,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20000000</v>
+        <v>39500000</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -11522,10 +11752,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>650000</v>
+        <v>700000</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -11612,22 +11842,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>497050000</v>
+        <v>516550000</v>
       </c>
       <c r="C23" t="n">
         <v>25000000</v>
       </c>
       <c r="D23" t="n">
-        <v>368050000</v>
+        <v>373550000</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23" t="n">
-        <v>2200000</v>
+        <v>2250000</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -11697,7 +11927,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14968000</v>
+        <v>15125000</v>
       </c>
     </row>
     <row r="5">
@@ -11707,7 +11937,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45587000</v>
+        <v>46387000</v>
       </c>
     </row>
     <row r="6">
@@ -11767,7 +11997,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>198433000</v>
+        <v>199390000</v>
       </c>
     </row>
   </sheetData>
@@ -11781,7 +12011,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12454,26 +12684,51 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>957000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>6543000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>531050000</v>
-      </c>
-      <c r="C27" t="n">
-        <v>413050000</v>
-      </c>
-      <c r="D27" t="n">
-        <v>66</v>
-      </c>
-      <c r="E27" t="n">
+      <c r="B28" t="n">
+        <v>550550000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>420550000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>68</v>
+      </c>
+      <c r="E28" t="n">
         <v>89000000</v>
       </c>
-      <c r="F27" t="n">
-        <v>198433000</v>
-      </c>
-      <c r="G27" t="n">
-        <v>303617000</v>
+      <c r="F28" t="n">
+        <v>199390000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>310160000</v>
       </c>
     </row>
   </sheetData>
@@ -12539,7 +12794,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9347714.285714285</v>
+        <v>9327714.285714285</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -12548,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9347714.285714285</v>
+        <v>9327714.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -12587,7 +12842,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>803571.4285714286</v>
+        <v>823571.4285714286</v>
       </c>
       <c r="D4" t="n">
         <v>100000</v>
@@ -12596,7 +12851,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>903571.4285714286</v>
+        <v>923571.4285714286</v>
       </c>
     </row>
     <row r="5">
@@ -12710,13 +12965,13 @@
         <v>14003857.14285714</v>
       </c>
       <c r="D9" t="n">
-        <v>3657142.857142857</v>
+        <v>4492857.142857143</v>
       </c>
       <c r="E9" t="n">
-        <v>4677142.857142857</v>
+        <v>5248571.428571429</v>
       </c>
       <c r="F9" t="n">
-        <v>22338142.85714286</v>
+        <v>23745285.71428572</v>
       </c>
     </row>
     <row r="10">
@@ -12761,10 +13016,10 @@
         <v>4082142.857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>4710714.285714285</v>
+        <v>5032142.857142857</v>
       </c>
       <c r="F11" t="n">
-        <v>13706071.42857143</v>
+        <v>14027500</v>
       </c>
     </row>
     <row r="12">
@@ -12806,13 +13061,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-535714.2857142854</v>
+        <v>600000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-535714.2857142854</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="14">
@@ -12830,13 +13085,13 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>3285714.285714285</v>
+        <v>3464285.714285715</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3985714.285714285</v>
+        <v>4164285.714285715</v>
       </c>
     </row>
     <row r="15">
@@ -12854,13 +13109,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>792857.1428571432</v>
+        <v>985714.2857142859</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>792857.1428571432</v>
+        <v>985714.2857142859</v>
       </c>
     </row>
     <row r="16">
@@ -12878,13 +13133,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>5898571.428571429</v>
+        <v>6112142.857142857</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>5898571.428571429</v>
+        <v>6112142.857142857</v>
       </c>
     </row>
     <row r="17">
@@ -12902,13 +13157,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1512857.142857143</v>
+        <v>1655000</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1512857.142857143</v>
+        <v>1655000</v>
       </c>
     </row>
     <row r="18">
@@ -13042,13 +13297,13 @@
         <v>60833738.0952381</v>
       </c>
       <c r="D23" t="n">
-        <v>52810238.0952381</v>
+        <v>55508809.52380952</v>
       </c>
       <c r="E23" t="n">
-        <v>54133452.38095239</v>
+        <v>55026309.52380954</v>
       </c>
       <c r="F23" t="n">
-        <v>167777428.5714285</v>
+        <v>171368857.1428571</v>
       </c>
     </row>
   </sheetData>
@@ -13179,37 +13434,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>141500000</v>
+        <v>161000000</v>
       </c>
       <c r="C3" t="n">
-        <v>111000000</v>
+        <v>118500000</v>
       </c>
       <c r="D3" t="n">
-        <v>0.784452296819788</v>
+        <v>0.7360248447204969</v>
       </c>
       <c r="E3" t="n">
-        <v>0.215547703180212</v>
+        <v>0.2639751552795031</v>
       </c>
       <c r="F3" t="n">
         <v>2000000</v>
       </c>
       <c r="G3" t="n">
-        <v>113000000</v>
+        <v>120500000</v>
       </c>
       <c r="H3" t="n">
-        <v>29618000</v>
+        <v>30575000</v>
       </c>
       <c r="I3" t="n">
-        <v>52810238.0952381</v>
+        <v>55508809.52380952</v>
       </c>
       <c r="J3" t="n">
-        <v>82428238.09523809</v>
+        <v>86083809.52380952</v>
       </c>
       <c r="K3" t="n">
-        <v>30571761.90476191</v>
+        <v>34416190.47619048</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2705465655288665</v>
+        <v>0.2856115392214977</v>
       </c>
     </row>
     <row r="4">
@@ -13240,16 +13495,16 @@
         <v>69005000</v>
       </c>
       <c r="I4" t="n">
-        <v>54133452.38095239</v>
+        <v>55026309.52380954</v>
       </c>
       <c r="J4" t="n">
-        <v>123138452.3809524</v>
+        <v>124031309.5238095</v>
       </c>
       <c r="K4" t="n">
-        <v>51061547.61904761</v>
+        <v>50168690.47619046</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2931202503963697</v>
+        <v>0.2879947788529877</v>
       </c>
     </row>
     <row r="5">
@@ -13259,37 +13514,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>531050000</v>
+        <v>550550000</v>
       </c>
       <c r="C5" t="n">
-        <v>458050000</v>
+        <v>465550000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.86253648432351</v>
+        <v>0.8456089365180274</v>
       </c>
       <c r="E5" t="n">
-        <v>0.13746351567649</v>
+        <v>0.1543910634819726</v>
       </c>
       <c r="F5" t="n">
         <v>66500000</v>
       </c>
       <c r="G5" t="n">
-        <v>524550000</v>
+        <v>532050000</v>
       </c>
       <c r="H5" t="n">
-        <v>198433000</v>
+        <v>199390000</v>
       </c>
       <c r="I5" t="n">
-        <v>167777428.5714285</v>
+        <v>171368857.1428571</v>
       </c>
       <c r="J5" t="n">
-        <v>366210428.5714285</v>
+        <v>370758857.1428571</v>
       </c>
       <c r="K5" t="n">
-        <v>158339571.4285715</v>
+        <v>161291142.8571429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3018579190326403</v>
+        <v>0.3031503483829393</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1313,7 +1313,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>08-01-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1322,66 +1322,80 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
-      </c>
-      <c r="G11" t="n">
-        <v/>
-      </c>
-      <c r="H11" t="n">
-        <v/>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v/>
       </c>
-      <c r="J11" t="n">
-        <v/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
       </c>
       <c r="K11" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v/>
+        <v>6000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="N11" t="n">
         <v/>
       </c>
       <c r="O11" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="S11" t="n">
-        <v/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T11" t="n">
         <v/>
       </c>
       <c r="U11" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V11" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1396,7 +1410,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1405,12 +1419,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>nhấn đồng tiền</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ chăm</t>
+          <t>nguyễn thị mỹ trinh</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1424,52 +1438,50 @@
         </is>
       </c>
       <c r="I12" t="n">
-        <v/>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Lê Hoàng Thanh</t>
-        </is>
+        <v>7000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
       </c>
       <c r="K12" t="n">
-        <v>6000000</v>
+        <v/>
       </c>
       <c r="L12" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N12" t="n">
         <v/>
       </c>
       <c r="O12" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Trần Khánh Hiệp</t>
         </is>
       </c>
       <c r="T12" t="n">
         <v/>
       </c>
       <c r="U12" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1496,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1493,12 +1505,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>nhấn đồng tiền</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>nguyễn thị mỹ trinh</t>
+          <t xml:space="preserve">tạ duy hoàng </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1508,54 +1520,54 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="I13" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
       <c r="N13" t="n">
         <v/>
       </c>
       <c r="O13" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v/>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="U13" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V13" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1570,7 +1582,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,7 +1596,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">tạ duy hoàng </t>
+          <t>nguyễn thị lệ trang</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1598,7 +1610,7 @@
         </is>
       </c>
       <c r="I14" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="J14" t="n">
         <v/>
@@ -1607,35 +1619,35 @@
         <v/>
       </c>
       <c r="L14" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N14" t="n">
         <v/>
       </c>
       <c r="O14" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>6000000</v>
+        <v>4000000</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v/>
       </c>
       <c r="U14" t="n">
         <v>50000</v>
@@ -1647,7 +1659,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>08-05-2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1656,44 +1668,46 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>nguyễn thị lệ trang</t>
+          <t>Phạm Thị Trúc Lài</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="J15" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K15" t="n">
-        <v/>
+        <v>500000</v>
       </c>
       <c r="L15" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -1704,27 +1718,25 @@
         <v/>
       </c>
       <c r="O15" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
+      <c r="S15" t="n">
+        <v/>
       </c>
       <c r="T15" t="n">
         <v/>
       </c>
       <c r="U15" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1742,7 +1754,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1751,13 +1763,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phun mày</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Phạm Thị Trúc Lài</t>
-        </is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1770,56 +1780,56 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>4650000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
       </c>
       <c r="K16" t="n">
-        <v>500000</v>
+        <v/>
       </c>
       <c r="L16" t="n">
-        <v>1000000</v>
+        <v>4650000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N16" t="n">
         <v/>
       </c>
       <c r="O16" t="n">
-        <v>1000000</v>
+        <v>4650000</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1000000</v>
+        <v>4650000</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
-      <c r="S16" t="n">
-        <v/>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T16" t="n">
         <v/>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>08-05-2024</t>
+          <t>08-06-2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1828,7 +1838,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1837,11 +1847,13 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v/>
+          <t>Phun mày</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1854,56 +1866,56 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>4650000</v>
-      </c>
-      <c r="J17" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K17" t="n">
-        <v/>
+        <v>1000000</v>
       </c>
       <c r="L17" t="n">
-        <v>4650000</v>
+        <v>1500000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N17" t="n">
         <v/>
       </c>
       <c r="O17" t="n">
-        <v>4650000</v>
+        <v>1500000</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4650000</v>
+        <v>1500000</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S17" t="n">
+        <v/>
       </c>
       <c r="T17" t="n">
         <v/>
       </c>
       <c r="U17" t="n">
-        <v>100000</v>
+        <v/>
       </c>
       <c r="V17" t="n">
-        <v>50000</v>
+        <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>08-06-2024</t>
+          <t>08-07-2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1912,7 +1924,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1921,37 +1933,35 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Võ Thị Thuỳ Trang</t>
+          <t>Nguyễn Thị Thắm</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CTV Ngoài</t>
+          <t>Lê Văn Linh</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>500000</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
       </c>
       <c r="K18" t="n">
-        <v>1000000</v>
+        <v/>
       </c>
       <c r="L18" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
@@ -1962,13 +1972,13 @@
         <v/>
       </c>
       <c r="O18" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1980,10 +1990,10 @@
         <v/>
       </c>
       <c r="U18" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1998,7 +2008,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2007,12 +2017,12 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thắm</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2022,58 +2032,60 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Lê Văn Linh</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="I19" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P19" t="n">
         <v>2000000</v>
       </c>
-      <c r="J19" t="n">
-        <v/>
-      </c>
-      <c r="K19" t="n">
-        <v/>
-      </c>
-      <c r="L19" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v/>
-      </c>
-      <c r="O19" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
       <c r="Q19" t="n">
-        <v>2000000</v>
+        <v>7000000</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v/>
+        <v>8000000</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T19" t="n">
         <v/>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>08-07-2024</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2082,7 +2094,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2091,26 +2103,26 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Bích Thuỳ</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ giới thiệu</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Lê Hoàng Thanh</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>15000000</v>
+        <v>9000000</v>
       </c>
       <c r="J20" t="n">
         <v/>
@@ -2119,27 +2131,27 @@
         <v/>
       </c>
       <c r="L20" t="n">
-        <v>15000000</v>
+        <v>9000000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N20" t="n">
         <v/>
       </c>
       <c r="O20" t="n">
-        <v>5000000</v>
+        <v>9000000</v>
       </c>
       <c r="P20" t="n">
-        <v>2000000</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>7000000</v>
+        <v>9000000</v>
       </c>
       <c r="R20" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -2150,16 +2162,16 @@
         <v/>
       </c>
       <c r="U20" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V20" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>08-09-2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2168,35 +2180,35 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t xml:space="preserve">cấy mỡ mặt </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nguyễn Bích Thuỳ</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Khách cũ giới thiệu</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="J21" t="n">
         <v/>
@@ -2205,41 +2217,41 @@
         <v/>
       </c>
       <c r="L21" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Thảo</t>
         </is>
       </c>
       <c r="N21" t="n">
         <v/>
       </c>
       <c r="O21" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9000000</v>
+        <v>36000000</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
       <c r="T21" t="n">
         <v/>
       </c>
       <c r="U21" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="22">
@@ -2254,7 +2266,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2263,7 +2275,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">cấy mỡ mặt </t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2282,7 +2294,7 @@
         </is>
       </c>
       <c r="I22" t="n">
-        <v>36000000</v>
+        <v>40000000</v>
       </c>
       <c r="J22" t="n">
         <v/>
@@ -2291,47 +2303,43 @@
         <v/>
       </c>
       <c r="L22" t="n">
-        <v>36000000</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Thảo</t>
-        </is>
+        <v>40000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v/>
       </c>
       <c r="N22" t="n">
         <v/>
       </c>
       <c r="O22" t="n">
-        <v>36000000</v>
+        <v>14000000</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>36000000</v>
+        <v>14000000</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+        <v>26000000</v>
+      </c>
+      <c r="S22" t="n">
+        <v/>
       </c>
       <c r="T22" t="n">
         <v/>
       </c>
       <c r="U22" t="n">
-        <v/>
+        <v>100000</v>
       </c>
       <c r="V22" t="n">
-        <v/>
+        <v>50000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>08-09-2024</t>
+          <t>08-10-2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2340,35 +2348,35 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Tiêm botox</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>Thanh nhã</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>40000000</v>
+        <v>5000000</v>
       </c>
       <c r="J23" t="n">
         <v/>
@@ -2377,25 +2385,27 @@
         <v/>
       </c>
       <c r="L23" t="n">
-        <v>40000000</v>
-      </c>
-      <c r="M23" t="n">
-        <v/>
+        <v>5000000</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="N23" t="n">
         <v/>
       </c>
       <c r="O23" t="n">
-        <v>14000000</v>
+        <v>5000000</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>14000000</v>
+        <v>5000000</v>
       </c>
       <c r="R23" t="n">
-        <v>26000000</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v/>
@@ -2404,16 +2414,16 @@
         <v/>
       </c>
       <c r="U23" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>08-10-2024</t>
+          <t>08-11-2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2422,21 +2432,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Tiêm botox</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Thanh nhã</t>
+          <t>Trần Thị Nhi</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2446,11 +2456,11 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J24" t="n">
         <v/>
@@ -2459,36 +2469,38 @@
         <v/>
       </c>
       <c r="L24" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N24" t="n">
         <v/>
       </c>
       <c r="O24" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
-      <c r="S24" t="n">
-        <v/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
       </c>
       <c r="T24" t="n">
         <v/>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2506,7 +2518,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2515,12 +2527,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trần Thị Nhi</t>
+          <t>Nguyễn Thị Huyền Trang</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2530,11 +2542,11 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="J25" t="n">
         <v/>
@@ -2543,47 +2555,43 @@
         <v/>
       </c>
       <c r="L25" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>4000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v/>
       </c>
       <c r="N25" t="n">
         <v/>
       </c>
       <c r="O25" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Trương Lâm Khanh</t>
-        </is>
+      <c r="S25" t="n">
+        <v/>
       </c>
       <c r="T25" t="n">
         <v/>
       </c>
       <c r="U25" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>08-11-2024</t>
+          <t>08-12-2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2592,21 +2600,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cọc Dịch Vụ Làm Đẹp</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Huyền Trang</t>
+          <t>đố thị ngọc thuý</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2620,52 +2628,56 @@
         </is>
       </c>
       <c r="I26" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="J26" t="n">
+        <v/>
+      </c>
+      <c r="K26" t="n">
+        <v/>
+      </c>
+      <c r="L26" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v/>
+      </c>
+      <c r="O26" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P26" t="n">
         <v>4000000</v>
       </c>
-      <c r="J26" t="n">
-        <v/>
-      </c>
-      <c r="K26" t="n">
-        <v/>
-      </c>
-      <c r="L26" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="M26" t="n">
-        <v/>
-      </c>
-      <c r="N26" t="n">
-        <v/>
-      </c>
-      <c r="O26" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
       <c r="Q26" t="n">
-        <v>4000000</v>
+        <v>11000000</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
-      <c r="S26" t="n">
-        <v/>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T26" t="n">
         <v/>
       </c>
       <c r="U26" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V26" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2674,11 +2686,11 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2688,7 +2700,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>đố thị ngọc thuý</t>
+          <t>Bé Su</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2698,11 +2710,11 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>11000000</v>
+        <v>5400000</v>
       </c>
       <c r="J27" t="n">
         <v/>
@@ -2711,32 +2723,30 @@
         <v/>
       </c>
       <c r="L27" t="n">
-        <v>11000000</v>
+        <v>5400000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N27" t="n">
         <v/>
       </c>
       <c r="O27" t="n">
-        <v>7000000</v>
+        <v>5400000</v>
       </c>
       <c r="P27" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>11000000</v>
+        <v>5400000</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
       </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S27" t="n">
+        <v/>
       </c>
       <c r="T27" t="n">
         <v/>
@@ -2760,7 +2770,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2774,21 +2784,21 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bé Su</t>
+          <t>Huyền Trân</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t xml:space="preserve">La Thị Ngọc Hà My </t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="J28" t="n">
         <v/>
@@ -2797,24 +2807,22 @@
         <v/>
       </c>
       <c r="L28" t="n">
-        <v>5400000</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>2000000</v>
+      </c>
+      <c r="M28" t="n">
+        <v/>
       </c>
       <c r="N28" t="n">
         <v/>
       </c>
       <c r="O28" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>5400000</v>
+        <v>2000000</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2835,7 +2843,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2844,35 +2852,35 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Huyền Trân</t>
+          <t>H-Sa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Thị Ngọc Hà My </t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="J29" t="n">
         <v/>
@@ -2881,37 +2889,43 @@
         <v/>
       </c>
       <c r="L29" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="M29" t="n">
-        <v/>
+        <v>38000000</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="N29" t="n">
         <v/>
       </c>
       <c r="O29" t="n">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>2000000</v>
+        <v>38000000</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
-      <c r="S29" t="n">
-        <v/>
-      </c>
-      <c r="T29" t="n">
-        <v/>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="U29" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30">
@@ -2926,7 +2940,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2935,12 +2949,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Nâng cung chân mày</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>H-Sa</t>
+          <t>Mẹ mai sang</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2950,11 +2964,11 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Sang sang</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="J30" t="n">
         <v/>
@@ -2963,24 +2977,24 @@
         <v/>
       </c>
       <c r="L30" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N30" t="n">
         <v/>
       </c>
       <c r="O30" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>38000000</v>
+        <v>9000000</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2990,16 +3004,14 @@
           <t>Đào Vương Anh</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="T30" t="n">
+        <v/>
       </c>
       <c r="U30" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="V30" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3014,35 +3026,35 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mẹ mai sang</t>
+          <t>Sữ Thị Thanh Tuyền</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sang sang</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="J31" t="n">
         <v/>
@@ -3051,32 +3063,30 @@
         <v/>
       </c>
       <c r="L31" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N31" t="n">
         <v/>
       </c>
       <c r="O31" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>9000000</v>
+        <v>4900000</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+      <c r="S31" t="n">
+        <v/>
       </c>
       <c r="T31" t="n">
         <v/>
@@ -3091,7 +3101,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3100,35 +3110,35 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Sữ Thị Thanh Tuyền</t>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="J32" t="n">
         <v/>
@@ -3137,39 +3147,43 @@
         <v/>
       </c>
       <c r="L32" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v/>
       </c>
       <c r="O32" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>4900000</v>
+        <v>18000000</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
-      <c r="S32" t="n">
-        <v/>
-      </c>
-      <c r="T32" t="n">
-        <v/>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
       </c>
       <c r="U32" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V32" t="n">
         <v>50000</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3184,7 +3198,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3193,7 +3207,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3212,7 +3226,7 @@
         </is>
       </c>
       <c r="I33" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="J33" t="n">
         <v/>
@@ -3221,24 +3235,24 @@
         <v/>
       </c>
       <c r="L33" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v/>
       </c>
       <c r="O33" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>18000000</v>
+        <v>4000000</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3248,16 +3262,14 @@
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
+      <c r="T33" t="n">
+        <v/>
       </c>
       <c r="U33" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V33" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3272,7 +3284,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3281,12 +3293,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
+          <t>ngọc khanh</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3300,7 +3312,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="J34" t="n">
         <v/>
@@ -3309,7 +3321,7 @@
         <v/>
       </c>
       <c r="L34" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -3320,21 +3332,19 @@
         <v/>
       </c>
       <c r="O34" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>4000000</v>
+        <v>1000000</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S34" t="n">
+        <v/>
       </c>
       <c r="T34" t="n">
         <v/>
@@ -3358,7 +3368,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3367,12 +3377,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun môi</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>ngọc khanh</t>
+          <t>trương thị vẹn</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3382,11 +3392,11 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Trương Lâm Khanh</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="J35" t="n">
         <v/>
@@ -3395,24 +3405,22 @@
         <v/>
       </c>
       <c r="L35" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1500000</v>
+      </c>
+      <c r="M35" t="n">
+        <v/>
       </c>
       <c r="N35" t="n">
         <v/>
       </c>
       <c r="O35" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>1000000</v>
+        <v>1500000</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3424,7 +3432,7 @@
         <v/>
       </c>
       <c r="U35" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3442,7 +3450,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3456,7 +3464,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>trương thị vẹn</t>
+          <t xml:space="preserve">mẹ khanh </t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -3470,7 +3478,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="J36" t="n">
         <v/>
@@ -3479,7 +3487,7 @@
         <v/>
       </c>
       <c r="L36" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="M36" t="n">
         <v/>
@@ -3488,13 +3496,13 @@
         <v/>
       </c>
       <c r="O36" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>1500000</v>
+        <v>1000000</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3524,7 +3532,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3533,12 +3541,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Phun môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t xml:space="preserve">mẹ khanh </t>
+          <t>truương thị luyến</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3552,7 +3560,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="J37" t="n">
         <v/>
@@ -3561,22 +3569,24 @@
         <v/>
       </c>
       <c r="L37" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M37" t="n">
-        <v/>
+        <v>4200000</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N37" t="n">
         <v/>
       </c>
       <c r="O37" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1000000</v>
+        <v>4200000</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3588,7 +3598,7 @@
         <v/>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3606,21 +3616,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Căng chỉ mặt</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>truương thị luyến</t>
+          <t>Nguyễn Như Ngọc</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3630,11 +3640,11 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Trương Lâm Khanh</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="J38" t="n">
         <v/>
@@ -3643,45 +3653,47 @@
         <v/>
       </c>
       <c r="L38" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="N38" t="n">
         <v/>
       </c>
       <c r="O38" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>4200000</v>
+        <v>4000000</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
-      <c r="S38" t="n">
-        <v/>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T38" t="n">
         <v/>
       </c>
       <c r="U38" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3690,21 +3702,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Căng chỉ mặt</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nguyễn Như Ngọc</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -3718,7 +3730,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="J39" t="n">
         <v/>
@@ -3727,41 +3739,43 @@
         <v/>
       </c>
       <c r="L39" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v/>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="O39" t="n">
-        <v>4000000</v>
+        <v>20000000</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="Q39" t="n">
-        <v>4000000</v>
+        <v>35000000</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="T39" t="n">
         <v/>
       </c>
       <c r="U39" t="n">
-        <v/>
+        <v>150000</v>
       </c>
       <c r="V39" t="n">
-        <v/>
+        <v>100000</v>
       </c>
     </row>
     <row r="40">
@@ -3776,7 +3790,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3785,12 +3799,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Mở góc mắt</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Yến</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3800,11 +3814,11 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="J40" t="n">
         <v/>
@@ -3813,26 +3827,24 @@
         <v/>
       </c>
       <c r="L40" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v/>
       </c>
       <c r="O40" t="n">
-        <v>20000000</v>
+        <v>3000000</v>
       </c>
       <c r="P40" t="n">
-        <v>15000000</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>35000000</v>
+        <v>3000000</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3846,10 +3858,10 @@
         <v/>
       </c>
       <c r="U40" t="n">
-        <v>150000</v>
+        <v>50000</v>
       </c>
       <c r="V40" t="n">
-        <v>100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3864,7 +3876,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3873,12 +3885,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mở góc mắt</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Yến</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3888,11 +3900,11 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="J41" t="n">
         <v/>
@@ -3901,7 +3913,7 @@
         <v/>
       </c>
       <c r="L41" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -3912,16 +3924,16 @@
         <v/>
       </c>
       <c r="O41" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -3950,7 +3962,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3959,7 +3971,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Cắt môi</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -3978,7 +3990,7 @@
         </is>
       </c>
       <c r="I42" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="J42" t="n">
         <v/>
@@ -3987,7 +3999,7 @@
         <v/>
       </c>
       <c r="L42" t="n">
-        <v>6000000</v>
+        <v>5000000</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4001,13 +4013,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="R42" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4036,7 +4048,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4045,7 +4057,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cắt môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4064,7 +4076,7 @@
         </is>
       </c>
       <c r="I43" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="J43" t="n">
         <v/>
@@ -4073,11 +4085,11 @@
         <v/>
       </c>
       <c r="L43" t="n">
-        <v>5000000</v>
+        <v>14500000</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -4087,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>14500000</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4113,7 +4125,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4122,21 +4134,21 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Tiềm cằm</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Nguyễn Ngô Phan Thuỵ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4146,11 +4158,11 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>14500000</v>
+        <v>1200000</v>
       </c>
       <c r="J44" t="n">
         <v/>
@@ -4159,38 +4171,36 @@
         <v/>
       </c>
       <c r="L44" t="n">
-        <v>14500000</v>
+        <v>1200000</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N44" t="n">
         <v/>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
       <c r="R44" t="n">
-        <v>14500000</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v/>
       </c>
       <c r="T44" t="n">
         <v/>
       </c>
       <c r="U44" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4199,7 +4209,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4208,7 +4218,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4217,12 +4227,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Tiềm cằm</t>
+          <t>Cắt mắt phượng</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Nguyễn Ngô Phan Thuỵ</t>
+          <t>Lê Thị Bích Liên</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4236,7 +4246,7 @@
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="J45" t="n">
         <v/>
@@ -4245,7 +4255,7 @@
         <v/>
       </c>
       <c r="L45" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -4256,25 +4266,27 @@
         <v/>
       </c>
       <c r="O45" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>1200000</v>
+        <v>5000000</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
       </c>
-      <c r="S45" t="n">
-        <v/>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
       </c>
       <c r="T45" t="n">
         <v/>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4292,7 +4304,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4301,7 +4313,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cắt mắt phượng</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4320,7 +4332,7 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="J46" t="n">
         <v/>
@@ -4329,7 +4341,7 @@
         <v/>
       </c>
       <c r="L46" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -4340,13 +4352,13 @@
         <v/>
       </c>
       <c r="O46" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4378,7 +4390,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4392,30 +4404,32 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lê Thị Bích Liên</t>
+          <t>Chị Sa</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Khách cũ</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
           <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
-      <c r="I47" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v/>
-      </c>
       <c r="K47" t="n">
-        <v/>
+        <v>6000000</v>
       </c>
       <c r="L47" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -4426,13 +4440,13 @@
         <v/>
       </c>
       <c r="O47" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="Q47" t="n">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="R47" t="n">
         <v>0</v>
@@ -4464,7 +4478,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4473,7 +4487,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4492,18 +4506,16 @@
         </is>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>13000000</v>
+      </c>
+      <c r="J48" t="n">
+        <v/>
       </c>
       <c r="K48" t="n">
-        <v>6000000</v>
+        <v/>
       </c>
       <c r="L48" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -4517,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="Q48" t="n">
-        <v>6000000</v>
+        <v>13000000</v>
       </c>
       <c r="R48" t="n">
         <v>0</v>
@@ -4543,7 +4555,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -4552,7 +4564,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4561,26 +4573,26 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Hồ Minh Trường</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>13000000</v>
+        <v>23300000</v>
       </c>
       <c r="J49" t="n">
         <v/>
@@ -4589,24 +4601,24 @@
         <v/>
       </c>
       <c r="L49" t="n">
-        <v>13000000</v>
+        <v>23300000</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N49" t="n">
         <v/>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>23300000</v>
       </c>
       <c r="P49" t="n">
-        <v>13000000</v>
+        <v>0</v>
       </c>
       <c r="Q49" t="n">
-        <v>13000000</v>
+        <v>23300000</v>
       </c>
       <c r="R49" t="n">
         <v>0</v>
@@ -4620,16 +4632,16 @@
         <v/>
       </c>
       <c r="U49" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V49" t="n">
         <v>50000</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4638,36 +4650,44 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v/>
-      </c>
-      <c r="F50" t="n">
-        <v/>
-      </c>
-      <c r="G50" t="n">
-        <v/>
-      </c>
-      <c r="H50" t="n">
-        <v/>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Ngọc diễm</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
       </c>
       <c r="I50" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="J50" t="n">
         <v/>
       </c>
       <c r="K50" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="M50" t="n">
         <v/>
@@ -4676,16 +4696,16 @@
         <v/>
       </c>
       <c r="O50" t="n">
-        <v/>
+        <v>3000000</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="R50" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="S50" t="n">
         <v/>
@@ -4694,16 +4714,16 @@
         <v/>
       </c>
       <c r="U50" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4712,84 +4732,84 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Hồ Minh Trường</t>
+          <t>thạch thị siêu</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Phạm Thanh Hoàng</t>
+          <t>Thạch Hoàng Nhân</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>23300000</v>
-      </c>
-      <c r="J51" t="n">
-        <v/>
+        <v/>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="K51" t="n">
-        <v/>
+        <v>1500000</v>
       </c>
       <c r="L51" t="n">
-        <v>23300000</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v/>
+        <v>1500000</v>
+      </c>
+      <c r="M51" t="n">
+        <v/>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
       </c>
       <c r="O51" t="n">
-        <v>23300000</v>
+        <v>1500000</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
       </c>
       <c r="Q51" t="n">
-        <v>23300000</v>
+        <v>1500000</v>
       </c>
       <c r="R51" t="n">
         <v>0</v>
       </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
+      <c r="S51" t="n">
+        <v/>
       </c>
       <c r="T51" t="n">
         <v/>
       </c>
       <c r="U51" t="n">
-        <v>100000</v>
+        <v/>
       </c>
       <c r="V51" t="n">
-        <v>50000</v>
+        <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -4798,21 +4818,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Điêu khắc mày</t>
+          <t>Tiêm môi</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ngọc diễm</t>
+          <t>sơn thị chành thi</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4820,40 +4840,40 @@
           <t>CTV</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
+      <c r="H52" t="n">
+        <v/>
       </c>
       <c r="I52" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="J52" t="n">
         <v/>
       </c>
       <c r="K52" t="n">
-        <v>3000000</v>
+        <v/>
       </c>
       <c r="L52" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="M52" t="n">
-        <v/>
+        <v>4000000</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="N52" t="n">
         <v/>
       </c>
       <c r="O52" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>3000000</v>
+        <v>4000000</v>
       </c>
       <c r="R52" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="S52" t="n">
         <v/>
@@ -4880,54 +4900,52 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>thạch thị siêu</t>
+          <t>Đoàn Minh Thư</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Thạch Hoàng Nhân</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v/>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+        <v>1500000</v>
+      </c>
+      <c r="J53" t="n">
+        <v/>
       </c>
       <c r="K53" t="n">
-        <v>1500000</v>
+        <v/>
       </c>
       <c r="L53" t="n">
         <v>1500000</v>
       </c>
-      <c r="M53" t="n">
-        <v/>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Bác Sĩ Ngoài</t>
-        </is>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v/>
       </c>
       <c r="O53" t="n">
         <v>1500000</v>
@@ -4948,16 +4966,16 @@
         <v/>
       </c>
       <c r="U53" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V53" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>08-08-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -4966,33 +4984,35 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Tiêm môi</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>sơn thị chành thi</t>
+          <t>Nguyễn Thị Ngọc Tâm</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v/>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="I54" t="n">
-        <v>4000000</v>
+        <v>3700000</v>
       </c>
       <c r="J54" t="n">
         <v/>
@@ -5001,24 +5021,24 @@
         <v/>
       </c>
       <c r="L54" t="n">
-        <v>4000000</v>
+        <v>3700000</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N54" t="n">
         <v/>
       </c>
       <c r="O54" t="n">
-        <v>4000000</v>
+        <v>3700000</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>4000000</v>
+        <v>3700000</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -5030,7 +5050,7 @@
         <v/>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
@@ -5039,7 +5059,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5048,21 +5068,21 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Đoàn Minh Thư</t>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -5072,11 +5092,11 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v/>
+        <v>12000000</v>
       </c>
       <c r="J55" t="n">
         <v/>
@@ -5085,30 +5105,32 @@
         <v/>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="N55" t="n">
         <v/>
       </c>
       <c r="O55" t="n">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
       </c>
       <c r="Q55" t="n">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
       <c r="R55" t="n">
-        <v>-1500000</v>
-      </c>
-      <c r="S55" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
       </c>
       <c r="T55" t="n">
         <v/>
@@ -5123,7 +5145,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5132,35 +5154,35 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Phun mày</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Ngọc Tâm</t>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lê Đình Hậu</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>3700000</v>
+        <v>1000000</v>
       </c>
       <c r="J56" t="n">
         <v/>
@@ -5169,24 +5191,22 @@
         <v/>
       </c>
       <c r="L56" t="n">
-        <v>3700000</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>1000000</v>
+      </c>
+      <c r="M56" t="n">
+        <v/>
       </c>
       <c r="N56" t="n">
         <v/>
       </c>
       <c r="O56" t="n">
-        <v>3700000</v>
+        <v>1000000</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>3700000</v>
+        <v>1000000</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -5198,10 +5218,10 @@
         <v/>
       </c>
       <c r="U56" t="n">
-        <v>50000</v>
+        <v/>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="57">
@@ -5216,7 +5236,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5230,7 +5250,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị kim phượng </t>
+          <t>lý thị thuý vi</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5244,7 +5264,7 @@
         </is>
       </c>
       <c r="I57" t="n">
-        <v>12000000</v>
+        <v>5000000</v>
       </c>
       <c r="J57" t="n">
         <v/>
@@ -5253,7 +5273,7 @@
         <v/>
       </c>
       <c r="L57" t="n">
-        <v>12000000</v>
+        <v>5000000</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
@@ -5264,13 +5284,13 @@
         <v/>
       </c>
       <c r="O57" t="n">
-        <v>12000000</v>
+        <v>5000000</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
       </c>
       <c r="Q57" t="n">
-        <v>12000000</v>
+        <v>5000000</v>
       </c>
       <c r="R57" t="n">
         <v>0</v>
@@ -5302,7 +5322,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5311,12 +5331,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Phun mày</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t xml:space="preserve">nguyễn thị kim phượng </t>
+          <t xml:space="preserve">triệu tú kiều </t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -5330,7 +5350,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="J58" t="n">
         <v/>
@@ -5339,43 +5359,47 @@
         <v/>
       </c>
       <c r="L58" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="M58" t="n">
-        <v/>
+        <v>12000000</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N58" t="n">
         <v/>
       </c>
       <c r="O58" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
       </c>
       <c r="Q58" t="n">
-        <v>1000000</v>
+        <v>12000000</v>
       </c>
       <c r="R58" t="n">
         <v>0</v>
       </c>
-      <c r="S58" t="n">
-        <v/>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
       </c>
       <c r="T58" t="n">
         <v/>
       </c>
       <c r="U58" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V58" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5384,21 +5408,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>lý thị thuý vi</t>
+          <t>Nguyễn Đặng Thảo Nhi</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5408,11 +5432,11 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Đỗ Thị Huyền Trân</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>5000000</v>
+        <v>2800000</v>
       </c>
       <c r="J59" t="n">
         <v/>
@@ -5421,7 +5445,7 @@
         <v/>
       </c>
       <c r="L59" t="n">
-        <v>5000000</v>
+        <v>2800000</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5432,21 +5456,19 @@
         <v/>
       </c>
       <c r="O59" t="n">
-        <v>5000000</v>
+        <v>2800000</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
       </c>
       <c r="Q59" t="n">
-        <v>5000000</v>
+        <v>2800000</v>
       </c>
       <c r="R59" t="n">
         <v>0</v>
       </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+      <c r="S59" t="n">
+        <v/>
       </c>
       <c r="T59" t="n">
         <v/>
@@ -5461,7 +5483,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5470,21 +5492,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t xml:space="preserve">triệu tú kiều </t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5494,11 +5516,11 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>12000000</v>
+        <v>35000000</v>
       </c>
       <c r="J60" t="n">
         <v/>
@@ -5507,41 +5529,43 @@
         <v/>
       </c>
       <c r="L60" t="n">
-        <v>12000000</v>
+        <v>35000000</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v/>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="O60" t="n">
-        <v>12000000</v>
+        <v>27000000</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
       </c>
       <c r="Q60" t="n">
-        <v>12000000</v>
+        <v>27000000</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>8000000</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Trần Khánh Hiệp</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="T60" t="n">
         <v/>
       </c>
       <c r="U60" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V60" t="n">
         <v>50000</v>
-      </c>
-      <c r="V60" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5556,27 +5580,35 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v/>
-      </c>
-      <c r="F61" t="n">
-        <v/>
-      </c>
-      <c r="G61" t="n">
-        <v/>
-      </c>
-      <c r="H61" t="n">
-        <v/>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Thoa</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="I61" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="J61" t="n">
         <v/>
@@ -5585,22 +5617,24 @@
         <v/>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
-        <v/>
+        <v>1800000</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N61" t="n">
         <v/>
       </c>
       <c r="O61" t="n">
-        <v/>
+        <v>1800000</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>1800000</v>
       </c>
       <c r="R61" t="n">
         <v>0</v>
@@ -5612,10 +5646,10 @@
         <v/>
       </c>
       <c r="U61" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V61" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5630,51 +5664,63 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v/>
-      </c>
-      <c r="F62" t="n">
-        <v/>
-      </c>
-      <c r="G62" t="n">
-        <v/>
-      </c>
-      <c r="H62" t="n">
-        <v/>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
       </c>
       <c r="I62" t="n">
-        <v/>
-      </c>
-      <c r="J62" t="n">
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
       </c>
       <c r="K62" t="n">
-        <v/>
+        <v>4000000</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v/>
+        <v>4000000</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="N62" t="n">
         <v/>
       </c>
       <c r="O62" t="n">
-        <v/>
+        <v>4000000</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>4000000</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -5686,16 +5732,16 @@
         <v/>
       </c>
       <c r="U62" t="n">
-        <v/>
+        <v>50000</v>
       </c>
       <c r="V62" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -5704,11 +5750,11 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5718,7 +5764,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Nguyễn Đặng Thảo Nhi</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -5728,11 +5774,11 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2800000</v>
+        <v>6000000</v>
       </c>
       <c r="J63" t="n">
         <v/>
@@ -5741,27 +5787,27 @@
         <v/>
       </c>
       <c r="L63" t="n">
-        <v>2800000</v>
+        <v>6000000</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Đặng Ngọc Mai</t>
         </is>
       </c>
       <c r="N63" t="n">
         <v/>
       </c>
       <c r="O63" t="n">
-        <v>2800000</v>
+        <v/>
       </c>
       <c r="P63" t="n">
         <v>0</v>
       </c>
       <c r="Q63" t="n">
-        <v>2800000</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="S63" t="n">
         <v/>
@@ -5779,7 +5825,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -5788,21 +5834,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>C.hạnh</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -5812,11 +5858,11 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>35000000</v>
+        <v>5500000</v>
       </c>
       <c r="J64" t="n">
         <v/>
@@ -5825,49 +5871,47 @@
         <v/>
       </c>
       <c r="L64" t="n">
-        <v>35000000</v>
+        <v>5500000</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v/>
       </c>
       <c r="O64" t="n">
-        <v>27000000</v>
+        <v>5500000</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>27000000</v>
+        <v>5500000</v>
       </c>
       <c r="R64" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Lâm Hoàng Phú</t>
+          <t>Đào Vương Anh</t>
         </is>
       </c>
       <c r="T64" t="n">
         <v/>
       </c>
       <c r="U64" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="V64" t="n">
-        <v>50000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -5876,35 +5920,35 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Thoa</t>
+          <t>Cầm dương</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Khách cũ</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Đỗ Thị Huyền Trân</t>
+          <t>Nguyễn Phúc Nam</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1800000</v>
+        <v>14000000</v>
       </c>
       <c r="J65" t="n">
         <v/>
@@ -5913,27 +5957,25 @@
         <v/>
       </c>
       <c r="L65" t="n">
-        <v>1800000</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
+        <v>14000000</v>
+      </c>
+      <c r="M65" t="n">
+        <v/>
       </c>
       <c r="N65" t="n">
         <v/>
       </c>
       <c r="O65" t="n">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
       </c>
       <c r="Q65" t="n">
-        <v>1800000</v>
+        <v>2000000</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>12000000</v>
       </c>
       <c r="S65" t="n">
         <v/>
@@ -5951,7 +5993,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -5960,7 +6002,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5974,7 +6016,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Chị Sa</t>
+          <t>Đặng Thị Hồng Hạnh</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -5984,22 +6026,20 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="J66" t="n">
+        <v/>
       </c>
       <c r="K66" t="n">
-        <v>4000000</v>
+        <v/>
       </c>
       <c r="L66" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
@@ -6010,13 +6050,13 @@
         <v/>
       </c>
       <c r="O66" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
       </c>
       <c r="Q66" t="n">
-        <v>4000000</v>
+        <v>3000000</v>
       </c>
       <c r="R66" t="n">
         <v>0</v>
@@ -6037,7 +6077,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>08-26-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -6046,11 +6086,11 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -6060,7 +6100,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Trương thị kiều</t>
+          <t>Nguyễn Yến Nhi</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -6074,7 +6114,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>6000000</v>
+        <v>19500000</v>
       </c>
       <c r="J67" t="n">
         <v/>
@@ -6083,27 +6123,27 @@
         <v/>
       </c>
       <c r="L67" t="n">
-        <v>6000000</v>
+        <v>19500000</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>Đặng Ngọc Mai</t>
+          <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
       <c r="N67" t="n">
         <v/>
       </c>
       <c r="O67" t="n">
-        <v/>
+        <v>19500000</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>19500000</v>
       </c>
       <c r="R67" t="n">
-        <v>6000000</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v/>
@@ -6130,21 +6170,21 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>C.hạnh</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6154,11 +6194,11 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>5500000</v>
+        <v>22000000</v>
       </c>
       <c r="J68" t="n">
         <v/>
@@ -6167,41 +6207,41 @@
         <v/>
       </c>
       <c r="L68" t="n">
-        <v>5500000</v>
+        <v>22000000</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
+          <t>Phạm Thanh Hoàng</t>
         </is>
       </c>
       <c r="N68" t="n">
         <v/>
       </c>
       <c r="O68" t="n">
-        <v>5500000</v>
+        <v>22000000</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
       </c>
       <c r="Q68" t="n">
-        <v>5500000</v>
+        <v>22000000</v>
       </c>
       <c r="R68" t="n">
         <v>0</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Đào Vương Anh</t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="T68" t="n">
         <v/>
       </c>
       <c r="U68" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V68" t="n">
         <v>50000</v>
-      </c>
-      <c r="V68" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6216,21 +6256,21 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Tiêm Filler</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Cầm dương</t>
+          <t>Phan Thị Diễm My</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6240,11 +6280,11 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Nguyễn Phúc Nam</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>14000000</v>
+        <v>3000000</v>
       </c>
       <c r="J69" t="n">
         <v/>
@@ -6253,25 +6293,27 @@
         <v/>
       </c>
       <c r="L69" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="M69" t="n">
-        <v/>
+        <v>3000000</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="N69" t="n">
         <v/>
       </c>
       <c r="O69" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="P69" t="n">
         <v>0</v>
       </c>
       <c r="Q69" t="n">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="R69" t="n">
-        <v>12000000</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v/>
@@ -6287,51 +6329,307 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>694</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J70" t="n">
+        <v/>
+      </c>
+      <c r="K70" t="n">
+        <v/>
+      </c>
+      <c r="L70" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v/>
+      </c>
+      <c r="O70" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0</v>
+      </c>
+      <c r="S70" t="n">
+        <v/>
+      </c>
+      <c r="T70" t="n">
+        <v/>
+      </c>
+      <c r="U70" t="n">
+        <v/>
+      </c>
+      <c r="V70" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>695</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v/>
+      </c>
+      <c r="O71" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v/>
+      </c>
+      <c r="T71" t="n">
+        <v/>
+      </c>
+      <c r="U71" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>696</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>nguyễn thanh tuyền</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="J72" t="n">
+        <v/>
+      </c>
+      <c r="K72" t="n">
+        <v/>
+      </c>
+      <c r="L72" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v/>
+      </c>
+      <c r="O72" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v/>
+      </c>
+      <c r="U72" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V72" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr"/>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C70" t="n">
-        <v>68</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="n">
-        <v>522550000</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="L70" t="n">
-        <v>550550000</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="n">
-        <v>420550000</v>
-      </c>
-      <c r="P70" t="n">
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>587050000</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>31000000</v>
+      </c>
+      <c r="L73" t="n">
+        <v>618050000</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="n">
+        <v>486550000</v>
+      </c>
+      <c r="P73" t="n">
         <v>45000000</v>
       </c>
-      <c r="Q70" t="n">
-        <v>465550000</v>
-      </c>
-      <c r="R70" t="n">
-        <v>85000000</v>
-      </c>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="n">
-        <v>3050000</v>
-      </c>
-      <c r="V70" t="n">
-        <v>600000</v>
+      <c r="Q73" t="n">
+        <v>531550000</v>
+      </c>
+      <c r="R73" t="n">
+        <v>86500000</v>
+      </c>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="n">
+        <v>3450000</v>
+      </c>
+      <c r="V73" t="n">
+        <v>700000</v>
       </c>
     </row>
   </sheetData>
@@ -7264,7 +7562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8748,7 +9046,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -8757,16 +9055,16 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1000000</v>
+        <v>80000</v>
       </c>
       <c r="G48" t="n">
         <v/>
@@ -8779,7 +9077,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -8788,19 +9086,19 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
-        </is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v/>
       </c>
       <c r="F49" t="n">
-        <v>80000</v>
-      </c>
-      <c r="G49" t="n">
-        <v/>
+        <v>5000000</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Bà lấy đi chợ</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -8810,7 +9108,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -8819,7 +9117,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -8828,10 +9126,12 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>600000</v>
-      </c>
-      <c r="G50" t="n">
-        <v/>
+        <v>5000000</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Anh linh lấy tiền chỗ bà</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -8841,7 +9141,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -8850,7 +9150,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -8859,7 +9159,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1100000</v>
+        <v>8000000</v>
       </c>
       <c r="G51" t="n">
         <v/>
@@ -8872,7 +9172,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -8881,16 +9181,16 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1750000</v>
+        <v>680000</v>
       </c>
       <c r="G52" t="n">
         <v/>
@@ -8903,7 +9203,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -8912,14 +9212,16 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v/>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
       </c>
       <c r="F53" t="n">
-        <v/>
+        <v>480000</v>
       </c>
       <c r="G53" t="n">
         <v/>
@@ -8932,28 +9234,28 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v/>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
       </c>
       <c r="F54" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Bà lấy đi chợ</t>
-        </is>
+        <v>3000000</v>
+      </c>
+      <c r="G54" t="n">
+        <v/>
       </c>
     </row>
     <row r="55">
@@ -8963,30 +9265,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Anh linh lấy tiền chỗ bà</t>
-        </is>
+        <v>30000</v>
+      </c>
+      <c r="G55" t="n">
+        <v/>
       </c>
     </row>
     <row r="56">
@@ -8996,11 +9296,11 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -9014,7 +9314,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8000000</v>
+        <v>112000</v>
       </c>
       <c r="G56" t="n">
         <v/>
@@ -9027,16 +9327,16 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-13-2024</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -9045,7 +9345,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>680000</v>
+        <v>200000</v>
       </c>
       <c r="G57" t="n">
         <v/>
@@ -9058,25 +9358,25 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>08-12-2024</t>
+          <t>08-14-2024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>480000</v>
+        <v>70000</v>
       </c>
       <c r="G58" t="n">
         <v/>
@@ -9089,11 +9389,11 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-14-2024</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -9103,11 +9403,11 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>3000000</v>
+        <v>214000</v>
       </c>
       <c r="G59" t="n">
         <v/>
@@ -9120,16 +9420,16 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -9138,7 +9438,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>30000</v>
+        <v>650000</v>
       </c>
       <c r="G60" t="n">
         <v/>
@@ -9151,25 +9451,25 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Phúc lợi công ty</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>112000</v>
+        <v>500000</v>
       </c>
       <c r="G61" t="n">
         <v/>
@@ -9182,25 +9482,25 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>08-13-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>200000</v>
+        <v>1500000</v>
       </c>
       <c r="G62" t="n">
         <v/>
@@ -9213,25 +9513,25 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>08-14-2024</t>
+          <t>08-15-2024</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>70000</v>
+        <v>350000</v>
       </c>
       <c r="G63" t="n">
         <v/>
@@ -9244,25 +9544,25 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>08-14-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>214000</v>
+        <v>1000000</v>
       </c>
       <c r="G64" t="n">
         <v/>
@@ -9275,25 +9575,25 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>650000</v>
+        <v>5000000</v>
       </c>
       <c r="G65" t="n">
         <v/>
@@ -9306,25 +9606,25 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Phúc lợi công ty</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>500000</v>
+        <v>580000</v>
       </c>
       <c r="G66" t="n">
         <v/>
@@ -9337,25 +9637,25 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1500000</v>
+        <v>750000</v>
       </c>
       <c r="G67" t="n">
         <v/>
@@ -9368,11 +9668,11 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>08-15-2024</t>
+          <t>08-16-2024</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -9382,11 +9682,11 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>350000</v>
+        <v>300000</v>
       </c>
       <c r="G68" t="n">
         <v/>
@@ -9399,7 +9699,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -9408,7 +9708,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -9417,7 +9717,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1000000</v>
+        <v>150000</v>
       </c>
       <c r="G69" t="n">
         <v/>
@@ -9430,16 +9730,16 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -9448,7 +9748,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
       <c r="G70" t="n">
         <v/>
@@ -9461,16 +9761,16 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -9479,7 +9779,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>580000</v>
+        <v>380000</v>
       </c>
       <c r="G71" t="n">
         <v/>
@@ -9492,25 +9792,25 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>750000</v>
+        <v>2467000</v>
       </c>
       <c r="G72" t="n">
         <v/>
@@ -9523,11 +9823,11 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -9537,11 +9837,11 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chí Phí Bác Sĩ Ngoài</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>300000</v>
+        <v>600000</v>
       </c>
       <c r="G73" t="n">
         <v/>
@@ -9554,11 +9854,11 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>08-16-2024</t>
+          <t>08-17-2024</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -9568,11 +9868,11 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>150000</v>
+        <v>2550000</v>
       </c>
       <c r="G74" t="n">
         <v/>
@@ -9585,25 +9885,25 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>2000000</v>
+        <v>3750000</v>
       </c>
       <c r="G75" t="n">
         <v/>
@@ -9616,25 +9916,25 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>380000</v>
+        <v>100000</v>
       </c>
       <c r="G76" t="n">
         <v/>
@@ -9647,25 +9947,25 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>2467000</v>
+        <v>500000</v>
       </c>
       <c r="G77" t="n">
         <v/>
@@ -9678,11 +9978,11 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -9692,11 +9992,11 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Chí Phí Bác Sĩ Ngoài</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>600000</v>
+        <v>500000</v>
       </c>
       <c r="G78" t="n">
         <v/>
@@ -9709,11 +10009,11 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>08-17-2024</t>
+          <t>08-19-2024</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -9721,13 +10021,11 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Trang thiết bị Y Tế</t>
-        </is>
+      <c r="E79" t="n">
+        <v/>
       </c>
       <c r="F79" t="n">
-        <v>2550000</v>
+        <v>5000000</v>
       </c>
       <c r="G79" t="n">
         <v/>
@@ -9740,11 +10038,11 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -9754,11 +10052,11 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>3750000</v>
+        <v>1000000</v>
       </c>
       <c r="G80" t="n">
         <v/>
@@ -9771,11 +10069,11 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -9785,11 +10083,11 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>100000</v>
+        <v>1800000</v>
       </c>
       <c r="G81" t="n">
         <v/>
@@ -9802,11 +10100,11 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -9820,7 +10118,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>500000</v>
+        <v>2500000</v>
       </c>
       <c r="G82" t="n">
         <v/>
@@ -9833,25 +10131,25 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>500000</v>
+        <v>100000</v>
       </c>
       <c r="G83" t="n">
         <v/>
@@ -9864,23 +10162,25 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>08-19-2024</t>
+          <t>08-20-2024</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E84" t="n">
-        <v/>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
       </c>
       <c r="F84" t="n">
-        <v>5000000</v>
+        <v>400000</v>
       </c>
       <c r="G84" t="n">
         <v/>
@@ -9893,7 +10193,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9902,16 +10202,16 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1000000</v>
+        <v>67000</v>
       </c>
       <c r="G85" t="n">
         <v/>
@@ -9924,25 +10224,25 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1800000</v>
+        <v>845000</v>
       </c>
       <c r="G86" t="n">
         <v/>
@@ -9955,16 +10255,16 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -9973,7 +10273,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>2500000</v>
+        <v>1000000</v>
       </c>
       <c r="G87" t="n">
         <v/>
@@ -9986,25 +10286,25 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="G88" t="n">
         <v/>
@@ -10017,25 +10317,25 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>400000</v>
+        <v>3000000</v>
       </c>
       <c r="G89" t="n">
         <v/>
@@ -10048,25 +10348,25 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>08-20-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>67000</v>
+        <v>160000</v>
       </c>
       <c r="G90" t="n">
         <v/>
@@ -10079,25 +10379,25 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-22-2024</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>845000</v>
+        <v>2000000</v>
       </c>
       <c r="G91" t="n">
         <v/>
@@ -10110,25 +10410,25 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1000000</v>
+        <v>200000</v>
       </c>
       <c r="G92" t="n">
         <v/>
@@ -10141,11 +10441,11 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-21-2024</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -10155,14 +10455,16 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="G93" t="n">
-        <v/>
+        <v>500000</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>anh linh lấy tiền mặt</t>
+        </is>
       </c>
     </row>
     <row r="94">
@@ -10172,25 +10474,25 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-04-2024</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>3000000</v>
+        <v>300000</v>
       </c>
       <c r="G94" t="n">
         <v/>
@@ -10203,25 +10505,25 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>160000</v>
+        <v>750000</v>
       </c>
       <c r="G95" t="n">
         <v/>
@@ -10234,25 +10536,25 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Chi Phí Hạ Tầng</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>2000000</v>
+        <v>240000</v>
       </c>
       <c r="G96" t="n">
         <v/>
@@ -10265,7 +10567,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -10274,7 +10576,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -10283,7 +10585,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200000</v>
+        <v>510000</v>
       </c>
       <c r="G97" t="n">
         <v/>
@@ -10296,11 +10598,11 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>08-21-2024</t>
+          <t>08-23-2024</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -10314,12 +10616,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>500000</v>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>anh linh lấy tiền mặt</t>
-        </is>
+        <v>350000</v>
+      </c>
+      <c r="G98" t="n">
+        <v/>
       </c>
     </row>
     <row r="99">
@@ -10329,25 +10629,25 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>08-04-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>300000</v>
+        <v>10000000</v>
       </c>
       <c r="G99" t="n">
         <v/>
@@ -10360,11 +10660,11 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -10374,11 +10674,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>750000</v>
+        <v>1300000</v>
       </c>
       <c r="G100" t="n">
         <v/>
@@ -10391,11 +10691,11 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -10405,11 +10705,11 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Chi Phí Hạ Tầng</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="G101" t="n">
         <v/>
@@ -10422,25 +10722,25 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>510000</v>
+        <v>300000</v>
       </c>
       <c r="G102" t="n">
         <v/>
@@ -10453,25 +10753,25 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>08-23-2024</t>
+          <t>08-24-2024</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>350000</v>
+        <v>1000000</v>
       </c>
       <c r="G103" t="n">
         <v/>
@@ -10484,16 +10784,16 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -10502,7 +10802,7 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>10000000</v>
+        <v>500000</v>
       </c>
       <c r="G104" t="n">
         <v/>
@@ -10515,25 +10815,25 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>1300000</v>
+        <v>108000</v>
       </c>
       <c r="G105" t="n">
         <v/>
@@ -10546,25 +10846,25 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí CTV</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>210000</v>
+        <v>1470000</v>
       </c>
       <c r="G106" t="n">
         <v/>
@@ -10577,25 +10877,25 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>300000</v>
+        <v>50000</v>
       </c>
       <c r="G107" t="n">
         <v/>
@@ -10608,25 +10908,23 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>08-24-2024</t>
+          <t>08-25-2024</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Chi Phí CTV</t>
-        </is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v/>
       </c>
       <c r="F108" t="n">
-        <v>1000000</v>
+        <v>5000000</v>
       </c>
       <c r="G108" t="n">
         <v/>
@@ -10639,7 +10937,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -10648,16 +10946,16 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>500000</v>
+        <v>75000</v>
       </c>
       <c r="G109" t="n">
         <v/>
@@ -10670,7 +10968,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -10679,16 +10977,16 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>108000</v>
+        <v>120000</v>
       </c>
       <c r="G110" t="n">
         <v/>
@@ -10701,7 +10999,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -10710,16 +11008,16 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Chi Phí CTV</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1470000</v>
+        <v>260000</v>
       </c>
       <c r="G111" t="n">
         <v/>
@@ -10732,7 +11030,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -10741,16 +11039,16 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>50000</v>
+        <v>150000</v>
       </c>
       <c r="G112" t="n">
         <v/>
@@ -10763,23 +11061,25 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E113" t="n">
-        <v/>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
       </c>
       <c r="F113" t="n">
-        <v>5000000</v>
+        <v>2868000</v>
       </c>
       <c r="G113" t="n">
         <v/>
@@ -10792,16 +11092,16 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -10810,7 +11110,7 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>75000</v>
+        <v>117000</v>
       </c>
       <c r="G114" t="n">
         <v/>
@@ -10823,25 +11123,25 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
         </is>
       </c>
       <c r="F115" t="n">
-        <v>120000</v>
+        <v>157000</v>
       </c>
       <c r="G115" t="n">
         <v/>
@@ -10854,25 +11154,25 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-27-2024</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Chi Phí Vận Hành</t>
         </is>
       </c>
       <c r="F116" t="n">
-        <v>260000</v>
+        <v>800000</v>
       </c>
       <c r="G116" t="n">
         <v/>
@@ -10885,11 +11185,11 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>08-25-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -10903,7 +11203,7 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>150000</v>
+        <v>500000</v>
       </c>
       <c r="G117" t="n">
         <v/>
@@ -10916,7 +11216,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -10925,16 +11225,16 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F118" t="n">
-        <v>2868000</v>
+        <v>155000</v>
       </c>
       <c r="G118" t="n">
         <v/>
@@ -10947,7 +11247,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>860</v>
+        <v>865</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -10956,16 +11256,16 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="F119" t="n">
-        <v>117000</v>
+        <v>165000</v>
       </c>
       <c r="G119" t="n">
         <v/>
@@ -10978,7 +11278,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -10987,16 +11287,16 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>CẦN THƠ</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="F120" t="n">
-        <v>157000</v>
+        <v>840000</v>
       </c>
       <c r="G120" t="n">
         <v/>
@@ -11009,25 +11309,25 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>08-27-2024</t>
+          <t>08-28-2024</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Chi Phí Vận Hành</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="F121" t="n">
-        <v>800000</v>
+        <v>1400000</v>
       </c>
       <c r="G121" t="n">
         <v/>
@@ -11036,19 +11336,81 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>868</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>140000</v>
+      </c>
+      <c r="G122" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>869</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>600000</v>
+      </c>
+      <c r="G123" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B122" t="n">
-        <v>120</v>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="n">
-        <v>199390000</v>
-      </c>
-      <c r="G122" t="inlineStr"/>
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="n">
+        <v>198740000</v>
+      </c>
+      <c r="G124" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11134,7 +11496,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>8650000</v>
+        <v>9150000</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -11276,10 +11638,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>500000</v>
+        <v>600000</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -11344,10 +11706,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" t="n">
-        <v>900000</v>
+        <v>1000000</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -11366,13 +11728,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>159500000</v>
+        <v>207500000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>91700000</v>
+        <v>97700000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -11468,7 +11830,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>105000000</v>
+        <v>120000000</v>
       </c>
       <c r="C12" t="n">
         <v>1500000</v>
@@ -11508,7 +11870,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>140900000</v>
+        <v>163400000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11576,7 +11938,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>85300000</v>
+        <v>122300000</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -11808,10 +12170,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>32900000</v>
+        <v>34400000</v>
       </c>
       <c r="C22" t="n">
-        <v>17500000</v>
+        <v>20500000</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -11842,22 +12204,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>516550000</v>
+        <v>581050000</v>
       </c>
       <c r="C23" t="n">
-        <v>25000000</v>
+        <v>28000000</v>
       </c>
       <c r="D23" t="n">
-        <v>373550000</v>
+        <v>439550000</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G23" t="n">
-        <v>2250000</v>
+        <v>2450000</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -11880,7 +12242,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11927,7 +12289,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15125000</v>
+        <v>15265000</v>
       </c>
     </row>
     <row r="5">
@@ -11937,7 +12299,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46387000</v>
+        <v>46987000</v>
       </c>
     </row>
     <row r="6">
@@ -11963,41 +12325,51 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Trang thiết bị Y Tế</t>
+          <t>Tiền Thuế</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7779000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ứng Lương</t>
+          <t>Trang thiết bị Y Tế</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>74212000</v>
+        <v>9274000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Blank</t>
+          <t>Ứng Lương</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20000000</v>
+        <v>69927000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng cộng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>199390000</v>
+      <c r="B12" t="n">
+        <v>198740000</v>
       </c>
     </row>
   </sheetData>
@@ -12011,7 +12383,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12069,7 +12441,7 @@
         <v>8100000</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -12350,10 +12722,10 @@
         <v>3000000</v>
       </c>
       <c r="F13" t="n">
-        <v>25680000</v>
+        <v>21230000</v>
       </c>
       <c r="G13" t="n">
-        <v>-15680000</v>
+        <v>-11230000</v>
       </c>
     </row>
     <row r="14">
@@ -12519,7 +12891,7 @@
         <v>8000000</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E20" t="n">
         <v>5000000</v>
@@ -12588,7 +12960,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11200000</v>
+        <v>12700000</v>
       </c>
       <c r="C23" t="n">
         <v>9700000</v>
@@ -12644,7 +13016,7 @@
         <v>35600000</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -12663,22 +13035,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6000000</v>
+        <v>9000000</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2985000</v>
+        <v>3805000</v>
       </c>
       <c r="G26" t="n">
-        <v>-2985000</v>
+        <v>-805000</v>
       </c>
     </row>
     <row r="27">
@@ -12688,47 +13060,72 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19500000</v>
+        <v>67500000</v>
       </c>
       <c r="C27" t="n">
-        <v>7500000</v>
+        <v>55500000</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>957000</v>
+        <v>1797000</v>
       </c>
       <c r="G27" t="n">
-        <v>6543000</v>
+        <v>53703000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="C28" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2140000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>12860000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>550550000</v>
-      </c>
-      <c r="C28" t="n">
-        <v>420550000</v>
-      </c>
-      <c r="D28" t="n">
-        <v>68</v>
-      </c>
-      <c r="E28" t="n">
+      <c r="B29" t="n">
+        <v>618050000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>486550000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>71</v>
+      </c>
+      <c r="E29" t="n">
         <v>89000000</v>
       </c>
-      <c r="F28" t="n">
-        <v>199390000</v>
-      </c>
-      <c r="G28" t="n">
-        <v>310160000</v>
+      <c r="F29" t="n">
+        <v>198740000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>376810000</v>
       </c>
     </row>
   </sheetData>
@@ -12742,7 +13139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12778,7 +13175,12 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
+          <t>Ứng lương</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tổng lương thực nhận tại HỆ THỐNG</t>
         </is>
       </c>
     </row>
@@ -12794,7 +13196,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9327714.285714285</v>
+        <v>9597714.285714285</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -12803,7 +13205,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9327714.285714285</v>
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>9597714.285714285</v>
       </c>
     </row>
     <row r="3">
@@ -12818,7 +13223,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2700000</v>
+        <v>2300000</v>
       </c>
       <c r="D3" t="n">
         <v>1500000</v>
@@ -12827,6 +13232,9 @@
         <v>2920000</v>
       </c>
       <c r="F3" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="G3" t="n">
         <v>1720000.000000001</v>
       </c>
     </row>
@@ -12842,7 +13250,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>823571.4285714286</v>
+        <v>3723571.428571429</v>
       </c>
       <c r="D4" t="n">
         <v>100000</v>
@@ -12851,7 +13259,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>923571.4285714286</v>
+        <v>2800000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1023571.428571429</v>
       </c>
     </row>
     <row r="5">
@@ -12875,6 +13286,9 @@
         <v>2785714.285714286</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>7428571.428571429</v>
       </c>
     </row>
@@ -12899,6 +13313,9 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>5571428.571428572</v>
       </c>
     </row>
@@ -12923,6 +13340,9 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>200000</v>
       </c>
     </row>
@@ -12938,7 +13358,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>6500000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -12947,6 +13367,9 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="G8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12962,7 +13385,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>14003857.14285714</v>
+        <v>16303857.14285714</v>
       </c>
       <c r="D9" t="n">
         <v>4492857.142857143</v>
@@ -12971,7 +13394,10 @@
         <v>5248571.428571429</v>
       </c>
       <c r="F9" t="n">
-        <v>23745285.71428572</v>
+        <v>500000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25545285.71428572</v>
       </c>
     </row>
     <row r="10">
@@ -12986,7 +13412,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>13360238.0952381</v>
+        <v>20575238.0952381</v>
       </c>
       <c r="D10" t="n">
         <v>14745238.0952381</v>
@@ -12995,7 +13421,10 @@
         <v>11695238.0952381</v>
       </c>
       <c r="F10" t="n">
-        <v>39800714.28571428</v>
+        <v>665000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>46350714.28571429</v>
       </c>
     </row>
     <row r="11">
@@ -13010,16 +13439,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4913214.285714284</v>
+        <v>20463214.28571428</v>
       </c>
       <c r="D11" t="n">
         <v>4082142.857142857</v>
       </c>
       <c r="E11" t="n">
-        <v>5032142.857142857</v>
+        <v>6853571.428571429</v>
       </c>
       <c r="F11" t="n">
-        <v>14027500</v>
+        <v>13350000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>18048928.57142857</v>
       </c>
     </row>
     <row r="12">
@@ -13034,7 +13466,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10426571.42857143</v>
+        <v>16038571.42857143</v>
       </c>
       <c r="D12" t="n">
         <v>9285714.285714285</v>
@@ -13043,6 +13475,9 @@
         <v>13928571.42857143</v>
       </c>
       <c r="F12" t="n">
+        <v>5612000</v>
+      </c>
+      <c r="G12" t="n">
         <v>33640857.14285715</v>
       </c>
     </row>
@@ -13061,13 +13496,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>600000</v>
+        <v>9885714.285714287</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>600000</v>
+        <v>9000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>885714.2857142873</v>
       </c>
     </row>
     <row r="14">
@@ -13085,13 +13523,16 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>3464285.714285715</v>
+        <v>4642857.142857143</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4164285.714285715</v>
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5342857.142857143</v>
       </c>
     </row>
     <row r="15">
@@ -13109,13 +13550,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>985714.2857142859</v>
+        <v>4128571.428571429</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>985714.2857142859</v>
+        <v>3000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1128571.428571429</v>
       </c>
     </row>
     <row r="16">
@@ -13133,13 +13577,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>6112142.857142857</v>
+        <v>6325714.285714285</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6112142.857142857</v>
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>6325714.285714285</v>
       </c>
     </row>
     <row r="17">
@@ -13157,13 +13604,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1655000</v>
+        <v>4297142.857142857</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1655000</v>
+        <v>2500000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1797142.857142857</v>
       </c>
     </row>
     <row r="18">
@@ -13178,16 +13628,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2350000</v>
+        <v>2530000</v>
       </c>
       <c r="D18" t="n">
         <v>5700000</v>
       </c>
       <c r="E18" t="n">
-        <v>4630714.285714285</v>
+        <v>17943571.42857143</v>
       </c>
       <c r="F18" t="n">
-        <v>12680714.28571429</v>
+        <v>10000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>16173571.42857143</v>
       </c>
     </row>
     <row r="19">
@@ -13208,10 +13661,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>2894285.714285715</v>
+        <v>6438571.428571428</v>
       </c>
       <c r="F19" t="n">
-        <v>2894285.714285715</v>
+        <v>1000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>5438571.428571428</v>
       </c>
     </row>
     <row r="20">
@@ -13232,10 +13688,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1537142.857142857</v>
+        <v>4596428.571428572</v>
       </c>
       <c r="F20" t="n">
-        <v>-1537142.857142857</v>
+        <v>5000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-403571.4285714282</v>
       </c>
     </row>
     <row r="21">
@@ -13256,10 +13715,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4514285.714285715</v>
+        <v>4871428.571428572</v>
       </c>
       <c r="F21" t="n">
-        <v>4514285.714285715</v>
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>4871428.571428572</v>
       </c>
     </row>
     <row r="22">
@@ -13280,30 +13742,36 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>2913928.571428571</v>
+        <v>3340357.142857143</v>
       </c>
       <c r="F22" t="n">
-        <v>2913928.571428571</v>
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3340357.142857143</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>60833738.0952381</v>
+        <v>106360738.0952381</v>
       </c>
       <c r="D23" t="n">
-        <v>55508809.52380952</v>
+        <v>71971666.66666667</v>
       </c>
       <c r="E23" t="n">
-        <v>55026309.52380954</v>
+        <v>80622023.80952382</v>
       </c>
       <c r="F23" t="n">
-        <v>171368857.1428571</v>
+        <v>64927000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>194027428.5714286</v>
       </c>
     </row>
   </sheetData>
@@ -13394,37 +13862,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>200350000</v>
+        <v>252850000</v>
       </c>
       <c r="C2" t="n">
-        <v>185850000</v>
+        <v>236850000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9276266533566259</v>
+        <v>0.9367213763100652</v>
       </c>
       <c r="E2" t="n">
-        <v>0.07237334664337414</v>
+        <v>0.06327862368993475</v>
       </c>
       <c r="F2" t="n">
         <v>29000000</v>
       </c>
       <c r="G2" t="n">
-        <v>214850000</v>
+        <v>265850000</v>
       </c>
       <c r="H2" t="n">
-        <v>99810000</v>
+        <v>101470000</v>
       </c>
       <c r="I2" t="n">
-        <v>60833738.0952381</v>
+        <v>106360738.0952381</v>
       </c>
       <c r="J2" t="n">
-        <v>160643738.0952381</v>
+        <v>207830738.0952381</v>
       </c>
       <c r="K2" t="n">
-        <v>54206261.90476191</v>
+        <v>58019261.90476191</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2522981703735718</v>
+        <v>0.2182405939618654</v>
       </c>
     </row>
     <row r="3">
@@ -13452,19 +13920,19 @@
         <v>120500000</v>
       </c>
       <c r="H3" t="n">
-        <v>30575000</v>
+        <v>29575000</v>
       </c>
       <c r="I3" t="n">
-        <v>55508809.52380952</v>
+        <v>71971666.66666667</v>
       </c>
       <c r="J3" t="n">
-        <v>86083809.52380952</v>
+        <v>101546666.6666667</v>
       </c>
       <c r="K3" t="n">
-        <v>34416190.47619048</v>
+        <v>18953333.33333333</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2856115392214977</v>
+        <v>0.1572890733056708</v>
       </c>
     </row>
     <row r="4">
@@ -13474,37 +13942,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189200000</v>
+        <v>204200000</v>
       </c>
       <c r="C4" t="n">
-        <v>161200000</v>
+        <v>176200000</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8520084566596194</v>
+        <v>0.8628795298726738</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1479915433403806</v>
+        <v>0.1371204701273262</v>
       </c>
       <c r="F4" t="n">
         <v>13000000</v>
       </c>
       <c r="G4" t="n">
-        <v>174200000</v>
+        <v>189200000</v>
       </c>
       <c r="H4" t="n">
-        <v>69005000</v>
+        <v>67695000</v>
       </c>
       <c r="I4" t="n">
-        <v>55026309.52380954</v>
+        <v>80622023.80952382</v>
       </c>
       <c r="J4" t="n">
-        <v>124031309.5238095</v>
+        <v>148317023.8095238</v>
       </c>
       <c r="K4" t="n">
-        <v>50168690.47619046</v>
+        <v>40882976.19047618</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2879947788529877</v>
+        <v>0.2160833836705929</v>
       </c>
     </row>
     <row r="5">
@@ -13514,37 +13982,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>550550000</v>
+        <v>618050000</v>
       </c>
       <c r="C5" t="n">
-        <v>465550000</v>
+        <v>531550000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8456089365180274</v>
+        <v>0.8600436857859397</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1543910634819726</v>
+        <v>0.1399563142140603</v>
       </c>
       <c r="F5" t="n">
         <v>66500000</v>
       </c>
       <c r="G5" t="n">
-        <v>532050000</v>
+        <v>598050000</v>
       </c>
       <c r="H5" t="n">
-        <v>199390000</v>
+        <v>198740000</v>
       </c>
       <c r="I5" t="n">
-        <v>171368857.1428571</v>
+        <v>194027428.5714286</v>
       </c>
       <c r="J5" t="n">
-        <v>370758857.1428571</v>
+        <v>392767428.5714285</v>
       </c>
       <c r="K5" t="n">
-        <v>161291142.8571429</v>
+        <v>205282571.4285715</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3031503483829393</v>
+        <v>0.3432531919213636</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
+++ b/Báo cáo/4_HỆ THỐNG/HỆ THỐNG 8 - 2024.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4689,8 +4689,10 @@
       <c r="L50" t="n">
         <v>6000000</v>
       </c>
-      <c r="M50" t="n">
-        <v/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
       </c>
       <c r="N50" t="n">
         <v/>
@@ -4773,8 +4775,10 @@
       <c r="L51" t="n">
         <v>1500000</v>
       </c>
-      <c r="M51" t="n">
-        <v/>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Bác Sĩ Ngoài</t>
+        </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -6585,51 +6589,641 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr"/>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>697</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Lê Ngọc Huệ</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="J73" t="n">
+        <v/>
+      </c>
+      <c r="K73" t="n">
+        <v/>
+      </c>
+      <c r="L73" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v/>
+      </c>
+      <c r="O73" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v/>
+      </c>
+      <c r="T73" t="n">
+        <v/>
+      </c>
+      <c r="U73" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>698</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Tiêm botox</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Lâm Tuyết Nghi</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="J74" t="n">
+        <v/>
+      </c>
+      <c r="K74" t="n">
+        <v/>
+      </c>
+      <c r="L74" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v/>
+      </c>
+      <c r="O74" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1400000</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v/>
+      </c>
+      <c r="T74" t="n">
+        <v/>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>699</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J75" t="n">
+        <v/>
+      </c>
+      <c r="K75" t="n">
+        <v/>
+      </c>
+      <c r="L75" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v/>
+      </c>
+      <c r="O75" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v/>
+      </c>
+      <c r="U75" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V75" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>700</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="J76" t="n">
+        <v/>
+      </c>
+      <c r="K76" t="n">
+        <v/>
+      </c>
+      <c r="L76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v/>
+      </c>
+      <c r="O76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>500000</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v/>
+      </c>
+      <c r="T76" t="n">
+        <v/>
+      </c>
+      <c r="U76" t="n">
+        <v/>
+      </c>
+      <c r="V76" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>701</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Ngọc Thượng</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Trương Lâm Khanh</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="J77" t="n">
+        <v/>
+      </c>
+      <c r="K77" t="n">
+        <v/>
+      </c>
+      <c r="L77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v/>
+      </c>
+      <c r="O77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0</v>
+      </c>
+      <c r="S77" t="n">
+        <v/>
+      </c>
+      <c r="T77" t="n">
+        <v/>
+      </c>
+      <c r="U77" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>703</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Ngô Thị Trúc Mỹ</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="J78" t="n">
+        <v/>
+      </c>
+      <c r="K78" t="n">
+        <v/>
+      </c>
+      <c r="L78" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v/>
+      </c>
+      <c r="O78" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="P78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4800000</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0</v>
+      </c>
+      <c r="S78" t="n">
+        <v/>
+      </c>
+      <c r="T78" t="n">
+        <v/>
+      </c>
+      <c r="U78" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>704</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Võ Thị Thuỳ Trang</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>900000</v>
+      </c>
+      <c r="J79" t="n">
+        <v/>
+      </c>
+      <c r="K79" t="n">
+        <v/>
+      </c>
+      <c r="L79" t="n">
+        <v>900000</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v/>
+      </c>
+      <c r="O79" t="n">
+        <v>900000</v>
+      </c>
+      <c r="P79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>900000</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0</v>
+      </c>
+      <c r="S79" t="n">
+        <v/>
+      </c>
+      <c r="T79" t="n">
+        <v/>
+      </c>
+      <c r="U79" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr"/>
+      <c r="B80" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="C73" t="n">
-        <v>71</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="n">
-        <v>587050000</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>626200000</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
         <v>31000000</v>
       </c>
-      <c r="L73" t="n">
-        <v>618050000</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="n">
-        <v>486550000</v>
-      </c>
-      <c r="P73" t="n">
+      <c r="L80" t="n">
+        <v>657200000</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="n">
+        <v>525700000</v>
+      </c>
+      <c r="P80" t="n">
         <v>45000000</v>
       </c>
-      <c r="Q73" t="n">
-        <v>531550000</v>
-      </c>
-      <c r="R73" t="n">
+      <c r="Q80" t="n">
+        <v>570700000</v>
+      </c>
+      <c r="R80" t="n">
         <v>86500000</v>
       </c>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="n">
-        <v>3450000</v>
-      </c>
-      <c r="V73" t="n">
-        <v>700000</v>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="n">
+        <v>3750000</v>
+      </c>
+      <c r="V80" t="n">
+        <v>750000</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +7237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6687,6 +7281,61 @@
           <t>Lượng thu</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Thanh toán lần đầu</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6720,6 +7369,49 @@
       <c r="G2" t="n">
         <v>1000000</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v/>
+      </c>
+      <c r="O2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -6753,6 +7445,49 @@
       <c r="G3" t="n">
         <v>4000000</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v/>
+      </c>
+      <c r="O3" t="n">
+        <v/>
+      </c>
+      <c r="P3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6786,6 +7521,49 @@
       <c r="G4" t="n">
         <v>10000000</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Lâm Minh Ngọc</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -6819,6 +7597,47 @@
       <c r="G5" t="n">
         <v/>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -6848,6 +7667,39 @@
       <c r="G6" t="n">
         <v/>
       </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6881,6 +7733,49 @@
       <c r="G7" t="n">
         <v>500000</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phun môi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Lâm t.dân</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Cô Siêng giúp Việc</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>CTV Ngoài</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6914,6 +7809,51 @@
       <c r="G8" t="n">
         <v>8000000</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>ngọc hân</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -6947,6 +7887,49 @@
       <c r="G9" t="n">
         <v>2000000</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -6980,6 +7963,49 @@
       <c r="G10" t="n">
         <v>2000000</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>pola</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7013,6 +8039,51 @@
       <c r="G11" t="n">
         <v>1500000</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7042,6 +8113,39 @@
       <c r="G12" t="n">
         <v/>
       </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7075,6 +8179,49 @@
       <c r="G13" t="n">
         <v>2000000</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -7108,6 +8255,51 @@
       <c r="G14" t="n">
         <v>1000000</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -7141,6 +8333,49 @@
       <c r="G15" t="n">
         <v>3000000</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v>32000000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -7174,6 +8409,49 @@
       <c r="G16" t="n">
         <v>500000</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -7207,6 +8485,49 @@
       <c r="G17" t="n">
         <v>500000</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">em Tuyền </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v/>
+      </c>
+      <c r="N17" t="n">
+        <v/>
+      </c>
+      <c r="O17" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v/>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -7236,6 +8557,39 @@
       <c r="G18" t="n">
         <v/>
       </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v/>
+      </c>
+      <c r="M18" t="n">
+        <v/>
+      </c>
+      <c r="N18" t="n">
+        <v/>
+      </c>
+      <c r="O18" t="n">
+        <v/>
+      </c>
+      <c r="P18" t="n">
+        <v/>
+      </c>
+      <c r="Q18" t="n">
+        <v/>
+      </c>
+      <c r="R18" t="n">
+        <v/>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -7269,6 +8623,49 @@
       <c r="G19" t="n">
         <v>5000000</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Phạm Trần Thuý Vi</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v/>
+      </c>
+      <c r="N19" t="n">
+        <v/>
+      </c>
+      <c r="O19" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v/>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -7302,6 +8699,49 @@
       <c r="G20" t="n">
         <v>13000000</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v/>
+      </c>
+      <c r="N20" t="n">
+        <v/>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v/>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -7335,6 +8775,51 @@
       <c r="G21" t="n">
         <v>6000000</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v/>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -7368,6 +8853,49 @@
       <c r="G22" t="n">
         <v>4000000</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v/>
+      </c>
+      <c r="N22" t="n">
+        <v/>
+      </c>
+      <c r="O22" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -7401,6 +8929,47 @@
       <c r="G23" t="n">
         <v>2000000</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Điêu khắc mày</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Chị vui</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v/>
+      </c>
+      <c r="L23" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v/>
+      </c>
+      <c r="N23" t="n">
+        <v/>
+      </c>
+      <c r="O23" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Đặng Ngọc Mai</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v/>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -7434,6 +9003,51 @@
       <c r="G24" t="n">
         <v>2000000</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M24" t="n">
+        <v/>
+      </c>
+      <c r="N24" t="n">
+        <v/>
+      </c>
+      <c r="O24" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -7467,6 +9081,51 @@
       <c r="G25" t="n">
         <v>15000000</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M25" t="n">
+        <v/>
+      </c>
+      <c r="N25" t="n">
+        <v/>
+      </c>
+      <c r="O25" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7500,6 +9159,49 @@
       <c r="G26" t="n">
         <v>5000000</v>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M26" t="n">
+        <v/>
+      </c>
+      <c r="N26" t="n">
+        <v/>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v/>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7533,23 +9235,391 @@
       <c r="G27" t="n">
         <v>1000000</v>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="O27" t="n">
+        <v>9500000</v>
+      </c>
+      <c r="P27" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v/>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>198</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M28" t="n">
+        <v/>
+      </c>
+      <c r="N28" t="n">
+        <v/>
+      </c>
+      <c r="O28" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P28" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>199</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2024-05-30</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v/>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M29" t="n">
+        <v/>
+      </c>
+      <c r="N29" t="n">
+        <v/>
+      </c>
+      <c r="O29" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>200</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-192</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2024-04-16</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Tiến</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M30" t="n">
+        <v/>
+      </c>
+      <c r="N30" t="n">
+        <v/>
+      </c>
+      <c r="O30" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="P30" t="n">
+        <v>18800000</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>201</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-176</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2024-03-29</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Duyên</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="M31" t="n">
+        <v/>
+      </c>
+      <c r="N31" t="n">
+        <v/>
+      </c>
+      <c r="O31" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="P31" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B28" t="n">
-        <v>26</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="n">
-        <v>89000000</v>
-      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>97200000</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>479500000</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>253000000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>425800000</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7562,7 +9632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G124"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11398,19 +13468,391 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>870</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>720000</v>
+      </c>
+      <c r="G124" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>871</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Phúc lợi công ty</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G125" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>872</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>225000</v>
+      </c>
+      <c r="G126" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>873</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="G127" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>874</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="G128" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>875</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Chi Phí Hạ Tầng</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="G129" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>876</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>9193000</v>
+      </c>
+      <c r="G130" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>877</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>2070000</v>
+      </c>
+      <c r="G131" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>878</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>4480000</v>
+      </c>
+      <c r="G132" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>879</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="G133" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>880</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>5383000</v>
+      </c>
+      <c r="G134" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>881</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Chi Phí Vận Hành</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>500000</v>
+      </c>
+      <c r="G135" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B124" t="n">
-        <v>122</v>
-      </c>
-      <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="n">
-        <v>198740000</v>
-      </c>
-      <c r="G124" t="inlineStr"/>
+      <c r="B136" t="n">
+        <v>134</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="n">
+        <v>247011000</v>
+      </c>
+      <c r="G136" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11499,7 +13941,7 @@
         <v>9150000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -11706,10 +14148,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -11728,13 +14170,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>207500000</v>
+        <v>212050000</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>97700000</v>
+        <v>102250000</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -11752,7 +14194,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>38000000</v>
+        <v>46200000</v>
       </c>
     </row>
     <row r="10">
@@ -11864,13 +14306,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9000000</v>
+        <v>9900000</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>163400000</v>
+        <v>173000000</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -11938,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>122300000</v>
+        <v>147300000</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -12034,7 +14476,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6700000</v>
+        <v>34200000</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -12142,7 +14584,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7000000</v>
+        <v>10000000</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -12170,7 +14612,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34400000</v>
+        <v>40600000</v>
       </c>
       <c r="C22" t="n">
         <v>20500000</v>
@@ -12204,22 +14646,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>581050000</v>
+        <v>620200000</v>
       </c>
       <c r="C23" t="n">
         <v>28000000</v>
       </c>
       <c r="D23" t="n">
-        <v>439550000</v>
+        <v>481700000</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" t="n">
-        <v>2450000</v>
+        <v>2550000</v>
       </c>
       <c r="H23" t="n">
         <v>3</v>
@@ -12228,7 +14670,7 @@
         <v>150000</v>
       </c>
       <c r="J23" t="n">
-        <v>87000000</v>
+        <v>95200000</v>
       </c>
     </row>
   </sheetData>
@@ -12279,7 +14721,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2397000</v>
+        <v>20397000</v>
       </c>
     </row>
     <row r="4">
@@ -12299,7 +14741,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46987000</v>
+        <v>54870000</v>
       </c>
     </row>
     <row r="6">
@@ -12319,7 +14761,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">
@@ -12339,7 +14781,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9274000</v>
+        <v>20969000</v>
       </c>
     </row>
     <row r="10">
@@ -12349,7 +14791,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69927000</v>
+        <v>80120000</v>
       </c>
     </row>
     <row r="11">
@@ -12369,7 +14811,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>198740000</v>
+        <v>247011000</v>
       </c>
     </row>
   </sheetData>
@@ -12383,7 +14825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13085,47 +15527,97 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15000000</v>
+        <v>48450000</v>
       </c>
       <c r="C28" t="n">
-        <v>15000000</v>
+        <v>48450000</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="F28" t="n">
-        <v>2140000</v>
+        <v>3360000</v>
       </c>
       <c r="G28" t="n">
-        <v>12860000</v>
+        <v>46090000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="C29" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3225000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>6675000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>43826000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-40826000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>618050000</v>
-      </c>
-      <c r="C29" t="n">
-        <v>486550000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>71</v>
-      </c>
-      <c r="E29" t="n">
-        <v>89000000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>198740000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>376810000</v>
+      <c r="B31" t="n">
+        <v>657200000</v>
+      </c>
+      <c r="C31" t="n">
+        <v>525700000</v>
+      </c>
+      <c r="D31" t="n">
+        <v>78</v>
+      </c>
+      <c r="E31" t="n">
+        <v>97200000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>247011000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>375889000</v>
       </c>
     </row>
   </sheetData>
@@ -13196,7 +15688,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9597714.285714285</v>
+        <v>10092000</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -13208,7 +15700,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>9597714.285714285</v>
+        <v>10092000</v>
       </c>
     </row>
     <row r="3">
@@ -13223,19 +15715,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2300000</v>
+        <v>6853571.428571429</v>
       </c>
       <c r="D3" t="n">
-        <v>1500000</v>
+        <v>1785714.285714286</v>
       </c>
       <c r="E3" t="n">
-        <v>2920000</v>
+        <v>3683571.428571429</v>
       </c>
       <c r="F3" t="n">
         <v>5000000</v>
       </c>
       <c r="G3" t="n">
-        <v>1720000.000000001</v>
+        <v>7322857.142857144</v>
       </c>
     </row>
     <row r="4">
@@ -13250,7 +15742,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3723571.428571429</v>
+        <v>4234285.714285715</v>
       </c>
       <c r="D4" t="n">
         <v>100000</v>
@@ -13262,7 +15754,7 @@
         <v>2800000</v>
       </c>
       <c r="G4" t="n">
-        <v>1023571.428571429</v>
+        <v>1534285.714285715</v>
       </c>
     </row>
     <row r="5">
@@ -13277,19 +15769,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1857142.857142857</v>
+        <v>2142857.142857143</v>
       </c>
       <c r="D5" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
       <c r="E5" t="n">
-        <v>2785714.285714286</v>
+        <v>3214285.714285715</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>7428571.428571429</v>
+        <v>8571428.571428573</v>
       </c>
     </row>
     <row r="6">
@@ -13304,7 +15796,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -13316,7 +15808,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5571428.571428572</v>
+        <v>6428571.428571429</v>
       </c>
     </row>
     <row r="7">
@@ -13331,7 +15823,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -13343,7 +15835,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>200000</v>
+        <v>3200000</v>
       </c>
     </row>
     <row r="8">
@@ -13358,7 +15850,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6500000</v>
+        <v>7500000</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -13370,7 +15862,7 @@
         <v>6500000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="9">
@@ -13385,7 +15877,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>16303857.14285714</v>
+        <v>17439714.28571429</v>
       </c>
       <c r="D9" t="n">
         <v>4492857.142857143</v>
@@ -13397,7 +15889,7 @@
         <v>500000</v>
       </c>
       <c r="G9" t="n">
-        <v>25545285.71428572</v>
+        <v>26681142.85714286</v>
       </c>
     </row>
     <row r="10">
@@ -13412,19 +15904,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>20575238.0952381</v>
+        <v>22577428.57142857</v>
       </c>
       <c r="D10" t="n">
-        <v>14745238.0952381</v>
+        <v>15221428.57142857</v>
       </c>
       <c r="E10" t="n">
-        <v>11695238.0952381</v>
+        <v>13621428.57142857</v>
       </c>
       <c r="F10" t="n">
         <v>665000</v>
       </c>
       <c r="G10" t="n">
-        <v>46350714.28571429</v>
+        <v>50755285.71428572</v>
       </c>
     </row>
     <row r="11">
@@ -13439,19 +15931,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>20463214.28571428</v>
+        <v>23162142.85714286</v>
       </c>
       <c r="D11" t="n">
-        <v>4082142.857142857</v>
+        <v>4403571.428571428</v>
       </c>
       <c r="E11" t="n">
-        <v>6853571.428571429</v>
+        <v>7175000</v>
       </c>
       <c r="F11" t="n">
         <v>13350000</v>
       </c>
       <c r="G11" t="n">
-        <v>18048928.57142857</v>
+        <v>21390714.28571429</v>
       </c>
     </row>
     <row r="12">
@@ -13466,19 +15958,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16038571.42857143</v>
+        <v>17271428.57142857</v>
       </c>
       <c r="D12" t="n">
-        <v>9285714.285714285</v>
+        <v>10714285.71428571</v>
       </c>
       <c r="E12" t="n">
-        <v>13928571.42857143</v>
+        <v>16071428.57142857</v>
       </c>
       <c r="F12" t="n">
         <v>5612000</v>
       </c>
       <c r="G12" t="n">
-        <v>33640857.14285715</v>
+        <v>38445142.85714285</v>
       </c>
     </row>
     <row r="13">
@@ -13496,16 +15988,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>9885714.285714287</v>
+        <v>10457142.85714286</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>9000000</v>
+        <v>18193000</v>
       </c>
       <c r="G13" t="n">
-        <v>885714.2857142873</v>
+        <v>-7735857.142857142</v>
       </c>
     </row>
     <row r="14">
@@ -13523,16 +16015,16 @@
         <v>700000</v>
       </c>
       <c r="D14" t="n">
-        <v>4642857.142857143</v>
+        <v>5000000</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5342857.142857143</v>
+        <v>5940000</v>
       </c>
     </row>
     <row r="15">
@@ -13550,7 +16042,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>4128571.428571429</v>
+        <v>4414285.714285715</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -13559,7 +16051,7 @@
         <v>3000000</v>
       </c>
       <c r="G15" t="n">
-        <v>1128571.428571429</v>
+        <v>1414285.714285715</v>
       </c>
     </row>
     <row r="16">
@@ -13577,7 +16069,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>6325714.285714285</v>
+        <v>7052857.142857143</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -13586,7 +16078,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>6325714.285714285</v>
+        <v>7052857.142857143</v>
       </c>
     </row>
     <row r="17">
@@ -13604,7 +16096,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>4297142.857142857</v>
+        <v>4581428.571428571</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -13613,7 +16105,7 @@
         <v>2500000</v>
       </c>
       <c r="G17" t="n">
-        <v>1797142.857142857</v>
+        <v>2081428.571428571</v>
       </c>
     </row>
     <row r="18">
@@ -13634,13 +16126,13 @@
         <v>5700000</v>
       </c>
       <c r="E18" t="n">
-        <v>17943571.42857143</v>
+        <v>18330000</v>
       </c>
       <c r="F18" t="n">
         <v>10000000</v>
       </c>
       <c r="G18" t="n">
-        <v>16173571.42857143</v>
+        <v>16560000</v>
       </c>
     </row>
     <row r="19">
@@ -13664,10 +16156,10 @@
         <v>6438571.428571428</v>
       </c>
       <c r="F19" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="G19" t="n">
-        <v>5438571.428571428</v>
+        <v>4438571.428571428</v>
       </c>
     </row>
     <row r="20">
@@ -13688,13 +16180,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>4596428.571428572</v>
+        <v>4774285.714285715</v>
       </c>
       <c r="F20" t="n">
         <v>5000000</v>
       </c>
       <c r="G20" t="n">
-        <v>-403571.4285714282</v>
+        <v>-225714.2857142854</v>
       </c>
     </row>
     <row r="21">
@@ -13715,13 +16207,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>4871428.571428572</v>
+        <v>5050000</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>4871428.571428572</v>
+        <v>5050000</v>
       </c>
     </row>
     <row r="22">
@@ -13759,19 +16251,19 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>106360738.0952381</v>
+        <v>124132000</v>
       </c>
       <c r="D23" t="n">
-        <v>71971666.66666667</v>
+        <v>77137857.14285713</v>
       </c>
       <c r="E23" t="n">
-        <v>80622023.80952382</v>
+        <v>87187500.00000001</v>
       </c>
       <c r="F23" t="n">
-        <v>64927000</v>
+        <v>75120000</v>
       </c>
       <c r="G23" t="n">
-        <v>194027428.5714286</v>
+        <v>213337357.1428571</v>
       </c>
     </row>
   </sheetData>
@@ -13862,37 +16354,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>252850000</v>
+        <v>292000000</v>
       </c>
       <c r="C2" t="n">
-        <v>236850000</v>
+        <v>276000000</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9367213763100652</v>
+        <v>0.9452054794520548</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06327862368993475</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="F2" t="n">
-        <v>29000000</v>
+        <v>37200000</v>
       </c>
       <c r="G2" t="n">
-        <v>265850000</v>
+        <v>313200000</v>
       </c>
       <c r="H2" t="n">
-        <v>101470000</v>
+        <v>111740000</v>
       </c>
       <c r="I2" t="n">
-        <v>106360738.0952381</v>
+        <v>89705000</v>
       </c>
       <c r="J2" t="n">
-        <v>207830738.0952381</v>
+        <v>201445000</v>
       </c>
       <c r="K2" t="n">
-        <v>58019261.90476191</v>
+        <v>111755000</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2182405939618654</v>
+        <v>0.3568167305236271</v>
       </c>
     </row>
     <row r="3">
@@ -13920,19 +16412,19 @@
         <v>120500000</v>
       </c>
       <c r="H3" t="n">
-        <v>29575000</v>
+        <v>56993000</v>
       </c>
       <c r="I3" t="n">
-        <v>71971666.66666667</v>
+        <v>53444857.14285713</v>
       </c>
       <c r="J3" t="n">
-        <v>101546666.6666667</v>
+        <v>110437857.1428571</v>
       </c>
       <c r="K3" t="n">
-        <v>18953333.33333333</v>
+        <v>10062142.85714287</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1572890733056708</v>
+        <v>0.08350326022525199</v>
       </c>
     </row>
     <row r="4">
@@ -13960,19 +16452,19 @@
         <v>189200000</v>
       </c>
       <c r="H4" t="n">
-        <v>67695000</v>
+        <v>78278000</v>
       </c>
       <c r="I4" t="n">
-        <v>80622023.80952382</v>
+        <v>70187500</v>
       </c>
       <c r="J4" t="n">
-        <v>148317023.8095238</v>
+        <v>148465500</v>
       </c>
       <c r="K4" t="n">
-        <v>40882976.19047618</v>
+        <v>40734500</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2160833836705929</v>
+        <v>0.2152986257928118</v>
       </c>
     </row>
     <row r="5">
@@ -13982,37 +16474,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>618050000</v>
+        <v>657200000</v>
       </c>
       <c r="C5" t="n">
-        <v>531550000</v>
+        <v>570700000</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8600436857859397</v>
+        <v>0.8683810103469264</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1399563142140603</v>
+        <v>0.1316189896530736</v>
       </c>
       <c r="F5" t="n">
-        <v>66500000</v>
+        <v>74700000</v>
       </c>
       <c r="G5" t="n">
-        <v>598050000</v>
+        <v>645400000</v>
       </c>
       <c r="H5" t="n">
-        <v>198740000</v>
+        <v>247011000</v>
       </c>
       <c r="I5" t="n">
-        <v>194027428.5714286</v>
+        <v>213337357.1428571</v>
       </c>
       <c r="J5" t="n">
-        <v>392767428.5714285</v>
+        <v>460348357.1428571</v>
       </c>
       <c r="K5" t="n">
-        <v>205282571.4285715</v>
+        <v>185051642.8571429</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3432531919213636</v>
+        <v>0.2867239585639028</v>
       </c>
     </row>
   </sheetData>
